--- a/apps/portal/prisma/salaries.xlsx
+++ b/apps/portal/prisma/salaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartlong/Desktop/tech-interview-handbook/apps/portal/prisma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E60112-7264-6F4F-98DB-C98174817881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1023E4-A04E-D944-99A1-27BD5E8A126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="All" guid="{FF2CC13D-313E-4E5D-948E-15A6E3D40D82}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Shopee Fresh Grads" guid="{95B52AD4-CE9C-43B5-ADDC-C1B3B279BDF7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 1" guid="{05BF6B27-78E1-41B6-89CC-B623511C44F1}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter for all" guid="{2C57CA31-A5F3-4298-AAC2-CF1BEC295330}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Internships" guid="{96159FB4-A41E-41F0-82FC-34B374954062}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Fresh Grad" guid="{4839B331-E2E3-46A1-91FC-3920C5B6BEA7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Internships" guid="{96159FB4-A41E-41F0-82FC-34B374954062}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter for all" guid="{2C57CA31-A5F3-4298-AAC2-CF1BEC295330}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{05BF6B27-78E1-41B6-89CC-B623511C44F1}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Shopee Fresh Grads" guid="{95B52AD4-CE9C-43B5-ADDC-C1B3B279BDF7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="All" guid="{FF2CC13D-313E-4E5D-948E-15A6E3D40D82}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="496">
   <si>
     <t>Timestamp</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>2 months</t>
-  </si>
-  <si>
-    <t>Includes 3 months target bonus</t>
   </si>
   <si>
     <t>Zendesk</t>
@@ -2089,7 +2086,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="E367" sqref="E367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2114,22 +2111,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2147,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -2171,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>6</v>
@@ -2180,7 +2177,7 @@
         <v>2500</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H6" si="0">E3*12</f>
+        <f t="shared" ref="H3:H5" si="0">E3*12</f>
         <v>30000</v>
       </c>
       <c r="AI3" s="7"/>
@@ -2195,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
@@ -2219,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -2232,7 +2229,7 @@
         <v>3600</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
@@ -2246,7 +2243,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -2265,7 +2262,7 @@
         <v>2030</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
@@ -2276,10 +2273,10 @@
         <v>44844.980049189813</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
@@ -2305,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -2329,10 +2326,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E9" s="5">
         <v>1500</v>
@@ -2353,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
@@ -2377,10 +2374,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E11" s="9">
         <v>1500</v>
@@ -2401,10 +2398,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="E12" s="4">
         <v>4167</v>
@@ -2429,10 +2426,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="E13" s="9">
         <v>4600</v>
@@ -2442,7 +2439,7 @@
         <v>55200</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
@@ -2456,7 +2453,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
@@ -2480,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
@@ -2504,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
@@ -2517,7 +2514,7 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
@@ -2531,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
@@ -2544,7 +2541,7 @@
         <v>60000</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
@@ -2558,7 +2555,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>6</v>
@@ -2582,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>6</v>
@@ -2595,7 +2592,7 @@
         <v>96000</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
@@ -2609,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>6</v>
@@ -2633,7 +2630,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>6</v>
@@ -2657,10 +2654,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="E22" s="5">
         <v>3000</v>
@@ -2681,10 +2678,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="4">
         <v>3000</v>
@@ -2705,7 +2702,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>6</v>
@@ -2738,7 +2735,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>6</v>
@@ -2765,7 +2762,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>6</v>
@@ -2789,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
@@ -2813,7 +2810,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>6</v>
@@ -2837,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>6</v>
@@ -2861,10 +2858,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E30" s="4">
         <v>2900</v>
@@ -2887,7 +2884,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>6</v>
@@ -2900,7 +2897,7 @@
         <v>18600</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
@@ -2914,7 +2911,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>6</v>
@@ -2938,10 +2935,10 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="4">
         <v>5000</v>
@@ -2956,7 +2953,7 @@
         <v>60000</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
@@ -2970,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>6</v>
@@ -2992,7 +2989,7 @@
         <v>5110.0000000000009</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
@@ -3006,7 +3003,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>6</v>
@@ -3030,7 +3027,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>6</v>
@@ -3054,7 +3051,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>6</v>
@@ -3078,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>6</v>
@@ -3102,7 +3099,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>6</v>
@@ -3126,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>6</v>
@@ -3150,7 +3147,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>6</v>
@@ -3174,10 +3171,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E42" s="4">
         <v>1800</v>
@@ -3187,7 +3184,7 @@
         <v>21600</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
@@ -3201,7 +3198,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>6</v>
@@ -3225,7 +3222,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>6</v>
@@ -3238,7 +3235,7 @@
         <v>48000</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="4"/>
@@ -3252,10 +3249,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="E45" s="9">
         <v>7000</v>
@@ -3284,10 +3281,10 @@
         <v>10</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E46" s="9">
         <v>3000</v>
@@ -3308,10 +3305,10 @@
         <v>10</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="E47" s="9">
         <v>3000</v>
@@ -3321,7 +3318,7 @@
         <v>36000</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
@@ -3335,7 +3332,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>6</v>
@@ -3359,7 +3356,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>6</v>
@@ -3372,7 +3369,7 @@
         <v>68004</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI49" s="4"/>
       <c r="AJ49" s="4"/>
@@ -3386,10 +3383,10 @@
         <v>10</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E50" s="5">
         <v>5666.67</v>
@@ -3399,7 +3396,7 @@
         <v>68000.040000000008</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
@@ -3413,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>6</v>
@@ -3437,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>6</v>
@@ -3463,7 +3460,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>6</v>
@@ -3476,7 +3473,7 @@
         <v>39600</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
@@ -3490,10 +3487,10 @@
         <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E54" s="4">
         <v>5666.67</v>
@@ -3514,7 +3511,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>6</v>
@@ -3538,7 +3535,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>6</v>
@@ -3607,7 +3604,7 @@
         <v>113000</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
@@ -3674,7 +3671,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>6</v>
@@ -3695,13 +3692,13 @@
         <v>44788.450914884263</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="E62" s="4">
         <v>14000</v>
@@ -3731,7 +3728,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>6</v>
@@ -3747,7 +3744,7 @@
         <v>120992</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
@@ -3761,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>6</v>
@@ -3792,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>6</v>
@@ -3814,7 +3811,7 @@
         <v>10800</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
@@ -3828,7 +3825,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>6</v>
@@ -3861,7 +3858,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>6</v>
@@ -3886,7 +3883,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>6</v>
@@ -3900,7 +3897,7 @@
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI68" s="4"/>
       <c r="AJ68" s="4"/>
@@ -3914,7 +3911,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>6</v>
@@ -3936,7 +3933,7 @@
         <v>10500</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI69" s="4"/>
       <c r="AJ69" s="4"/>
@@ -3950,10 +3947,10 @@
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E70" s="4">
         <v>7000</v>
@@ -3983,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>6</v>
@@ -3992,10 +3989,10 @@
         <v>6800</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H71" s="4">
         <v>81600</v>
@@ -4016,7 +4013,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>6</v>
@@ -4032,7 +4029,7 @@
         <v>10200</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI72" s="4"/>
       <c r="AJ72" s="4"/>
@@ -4046,7 +4043,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>6</v>
@@ -4079,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>6</v>
@@ -4112,7 +4109,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>6</v>
@@ -4136,10 +4133,10 @@
         <v>10</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E76" s="4">
         <v>4060</v>
@@ -4160,7 +4157,7 @@
         <v>10</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>6</v>
@@ -4184,10 +4181,10 @@
         <v>10</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E78" s="9">
         <v>4000</v>
@@ -4208,10 +4205,10 @@
         <v>10</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E79" s="5">
         <v>4000</v>
@@ -4221,7 +4218,7 @@
         <v>48000</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AI79" s="4"/>
       <c r="AJ79" s="4"/>
@@ -4235,7 +4232,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>6</v>
@@ -4259,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>6</v>
@@ -4272,7 +4269,7 @@
         <v>48000</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI81" s="4"/>
       <c r="AJ81" s="4"/>
@@ -4286,7 +4283,7 @@
         <v>10</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>6</v>
@@ -4310,7 +4307,7 @@
         <v>10</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>6</v>
@@ -4340,10 +4337,10 @@
         <v>10</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E84" s="9">
         <v>4000</v>
@@ -4364,7 +4361,7 @@
         <v>10</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>6</v>
@@ -4388,7 +4385,7 @@
         <v>10</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>6</v>
@@ -4401,7 +4398,7 @@
         <v>48000</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AI86" s="4"/>
       <c r="AJ86" s="4"/>
@@ -4415,7 +4412,7 @@
         <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>6</v>
@@ -4439,10 +4436,10 @@
         <v>10</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E88" s="5">
         <v>3600</v>
@@ -4463,7 +4460,7 @@
         <v>10</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>6</v>
@@ -4485,7 +4482,7 @@
         <v>18</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AI89" s="4"/>
       <c r="AJ89" s="4"/>
@@ -4499,7 +4496,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>6</v>
@@ -4523,7 +4520,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>6</v>
@@ -4549,7 +4546,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>6</v>
@@ -4570,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI92" s="4"/>
       <c r="AJ92" s="4"/>
@@ -4584,7 +4581,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>6</v>
@@ -4608,10 +4605,10 @@
         <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E94" s="9">
         <v>1400</v>
@@ -4632,10 +4629,10 @@
         <v>10</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E95" s="4">
         <v>1400</v>
@@ -4645,7 +4642,7 @@
         <v>16800</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AI95" s="4"/>
       <c r="AJ95" s="4"/>
@@ -4659,7 +4656,7 @@
         <v>10</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>6</v>
@@ -4683,10 +4680,10 @@
         <v>10</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="E97" s="5">
         <v>2075</v>
@@ -4707,7 +4704,7 @@
         <v>10</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>6</v>
@@ -4720,7 +4717,7 @@
         <v>36000</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AI98" s="4"/>
       <c r="AJ98" s="4"/>
@@ -4734,7 +4731,7 @@
         <v>10</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>6</v>
@@ -4758,7 +4755,7 @@
         <v>10</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>6</v>
@@ -4782,7 +4779,7 @@
         <v>10</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>6</v>
@@ -4806,10 +4803,10 @@
         <v>10</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E102" s="9">
         <v>900</v>
@@ -4830,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>6</v>
@@ -4856,10 +4853,10 @@
         <v>10</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E104" s="9">
         <v>1200</v>
@@ -4880,7 +4877,7 @@
         <v>10</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>6</v>
@@ -4904,7 +4901,7 @@
         <v>10</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>6</v>
@@ -4928,7 +4925,7 @@
         <v>10</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>6</v>
@@ -4952,10 +4949,10 @@
         <v>10</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E108" s="4">
         <v>1200</v>
@@ -4965,7 +4962,7 @@
         <v>14400</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AI108" s="4"/>
       <c r="AJ108" s="4"/>
@@ -4979,10 +4976,10 @@
         <v>10</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="E109" s="9">
         <v>1200</v>
@@ -5003,7 +5000,7 @@
         <v>10</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>6</v>
@@ -5027,7 +5024,7 @@
         <v>10</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>6</v>
@@ -5051,7 +5048,7 @@
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>6</v>
@@ -5071,10 +5068,10 @@
         <v>44833.703168472217</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>6</v>
@@ -5106,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>6</v>
@@ -5130,7 +5127,7 @@
         <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>6</v>
@@ -5156,7 +5153,7 @@
         <v>10</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>6</v>
@@ -5180,7 +5177,7 @@
         <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>6</v>
@@ -5207,7 +5204,7 @@
         <v>10</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>6</v>
@@ -5231,7 +5228,7 @@
         <v>10</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>6</v>
@@ -5244,7 +5241,7 @@
         <v>90000</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI119" s="4"/>
       <c r="AJ119" s="4"/>
@@ -5258,7 +5255,7 @@
         <v>10</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>6</v>
@@ -5282,7 +5279,7 @@
         <v>10</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>6</v>
@@ -5305,7 +5302,7 @@
         <v>10</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>6</v>
@@ -5335,10 +5332,10 @@
         <v>10</v>
       </c>
       <c r="C123" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="E123" s="9">
         <v>1800</v>
@@ -5359,7 +5356,7 @@
         <v>10</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>6</v>
@@ -5372,7 +5369,7 @@
         <v>14400</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AI124" s="4"/>
       <c r="AJ124" s="4"/>
@@ -5386,7 +5383,7 @@
         <v>10</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>6</v>
@@ -5410,10 +5407,10 @@
         <v>10</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E126" s="4">
         <v>2000</v>
@@ -5431,13 +5428,13 @@
         <v>44807.801042013889</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="D127" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E127" s="4">
         <v>15000</v>
@@ -5451,7 +5448,7 @@
         <v>45000</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI127" s="4"/>
       <c r="AJ127" s="4"/>
@@ -5462,10 +5459,10 @@
         <v>44795.766948611112</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>6</v>
@@ -5497,7 +5494,7 @@
         <v>4</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>6</v>
@@ -5521,10 +5518,10 @@
         <v>4</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E130" s="4">
         <v>5500</v>
@@ -5542,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AI130" s="4"/>
       <c r="AJ130" s="4"/>
@@ -5556,10 +5553,10 @@
         <v>4</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E131" s="4">
         <v>5500</v>
@@ -5574,10 +5571,10 @@
         <v>66000</v>
       </c>
       <c r="I131" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J131" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="AI131" s="4"/>
       <c r="AJ131" s="4"/>
@@ -5591,7 +5588,7 @@
         <v>4</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>6</v>
@@ -5618,10 +5615,10 @@
         <v>10</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E133" s="4">
         <v>2000</v>
@@ -5642,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>6</v>
@@ -5666,7 +5663,7 @@
         <v>10</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>6</v>
@@ -5679,7 +5676,7 @@
         <v>18000</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AI135" s="4"/>
       <c r="AJ135" s="4"/>
@@ -5693,7 +5690,7 @@
         <v>10</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>6</v>
@@ -5729,10 +5726,10 @@
         <v>10</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E137" s="4">
         <v>2600</v>
@@ -5753,7 +5750,7 @@
         <v>4</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>6</v>
@@ -5775,7 +5772,7 @@
         <v>12750</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI138" s="4"/>
       <c r="AJ138" s="4"/>
@@ -5789,10 +5786,10 @@
         <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E139" s="9">
         <v>5417</v>
@@ -5806,7 +5803,7 @@
         <v>3250.2000000000003</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI139" s="4"/>
       <c r="AJ139" s="4"/>
@@ -5820,7 +5817,7 @@
         <v>10</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>6</v>
@@ -5844,10 +5841,10 @@
         <v>10</v>
       </c>
       <c r="C141" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="E141" s="4">
         <v>850</v>
@@ -5868,7 +5865,7 @@
         <v>10</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>6</v>
@@ -5892,7 +5889,7 @@
         <v>10</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>6</v>
@@ -5916,7 +5913,7 @@
         <v>10</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>6</v>
@@ -5951,7 +5948,7 @@
         <v>10</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>6</v>
@@ -5975,10 +5972,10 @@
         <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E146" s="4">
         <v>5500</v>
@@ -6009,10 +6006,10 @@
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E147" s="5">
         <v>5400</v>
@@ -6036,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>6</v>
@@ -6053,7 +6050,7 @@
         <v>20000</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AI148" s="4"/>
       <c r="AJ148" s="4"/>
@@ -6067,10 +6064,10 @@
         <v>10</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E149" s="4">
         <v>2500</v>
@@ -6091,10 +6088,10 @@
         <v>10</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E150" s="4">
         <v>2000</v>
@@ -6115,7 +6112,7 @@
         <v>10</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>6</v>
@@ -6139,10 +6136,10 @@
         <v>10</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E152" s="5">
         <v>1800</v>
@@ -6152,7 +6149,7 @@
         <v>21600</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI152" s="4"/>
       <c r="AJ152" s="4"/>
@@ -6166,7 +6163,7 @@
         <v>10</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>6</v>
@@ -6190,10 +6187,10 @@
         <v>4</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E154" s="9">
         <v>5400</v>
@@ -6207,7 +6204,7 @@
         <v>18900</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AI154" s="4"/>
       <c r="AJ154" s="4"/>
@@ -6326,7 +6323,7 @@
         <v>3.5</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI158" s="4"/>
       <c r="AJ158" s="4"/>
@@ -6361,7 +6358,7 @@
         <v>4800</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ159" s="4"/>
       <c r="AM159" s="4"/>
@@ -6377,7 +6374,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E160" s="5">
         <v>2500</v>
@@ -6399,7 +6396,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E161" s="4">
         <v>1200</v>
@@ -6409,7 +6406,7 @@
         <v>14400</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AJ161" s="4"/>
     </row>
@@ -6421,7 +6418,7 @@
         <v>4</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>6</v>
@@ -6438,7 +6435,7 @@
         <v>10080</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="163" spans="1:36" ht="13" x14ac:dyDescent="0.15">
@@ -6449,10 +6446,10 @@
         <v>10</v>
       </c>
       <c r="C163" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="E163" s="4">
         <v>1000</v>
@@ -6470,7 +6467,7 @@
         <v>10</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>6</v>
@@ -6491,7 +6488,7 @@
         <v>10</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>6</v>
@@ -6539,7 +6536,7 @@
         <v>13</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E167" s="4">
         <v>4000</v>
@@ -6559,7 +6556,7 @@
         <v>13</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E168" s="4">
         <v>4000</v>
@@ -6580,7 +6577,7 @@
         <v>13</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E169" s="4">
         <v>4000</v>
@@ -6590,7 +6587,7 @@
         <v>48000</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="170" spans="1:36" ht="13" x14ac:dyDescent="0.15">
@@ -6604,7 +6601,7 @@
         <v>13</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E170" s="4">
         <v>1200</v>
@@ -6625,7 +6622,7 @@
         <v>13</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E171" s="9">
         <v>800</v>
@@ -6656,7 +6653,7 @@
         <v>9600</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="173" spans="1:36" ht="13" x14ac:dyDescent="0.15">
@@ -6667,7 +6664,7 @@
         <v>4</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>6</v>
@@ -6689,7 +6686,7 @@
         <v>8400</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:36" ht="13" x14ac:dyDescent="0.15">
@@ -6700,7 +6697,7 @@
         <v>4</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>6</v>
@@ -6722,7 +6719,7 @@
         <v>15200</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="175" spans="1:36" ht="13" x14ac:dyDescent="0.15">
@@ -6733,7 +6730,7 @@
         <v>4</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>6</v>
@@ -6751,11 +6748,11 @@
         <v>91000</v>
       </c>
       <c r="I175" s="4">
-        <f>H175*0.2</f>
+        <f t="shared" ref="I175:I180" si="20">H175*0.2</f>
         <v>18200</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="176" spans="1:36" ht="13" x14ac:dyDescent="0.15">
@@ -6766,10 +6763,10 @@
         <v>4</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E176" s="4">
         <v>7600</v>
@@ -6784,11 +6781,11 @@
         <v>92000</v>
       </c>
       <c r="I176" s="4">
-        <f>H176*0.2</f>
+        <f t="shared" si="20"/>
         <v>18400</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -6799,7 +6796,7 @@
         <v>4</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>6</v>
@@ -6817,11 +6814,11 @@
         <v>84000</v>
       </c>
       <c r="I177" s="4">
-        <f>H177*0.2</f>
+        <f t="shared" si="20"/>
         <v>16800</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -6832,7 +6829,7 @@
         <v>4</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>6</v>
@@ -6850,11 +6847,11 @@
         <v>84000</v>
       </c>
       <c r="I178" s="4">
-        <f>H178*0.2</f>
+        <f t="shared" si="20"/>
         <v>16800</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -6865,7 +6862,7 @@
         <v>4</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>6</v>
@@ -6883,11 +6880,11 @@
         <v>78000</v>
       </c>
       <c r="I179" s="4">
-        <f>H179*0.2</f>
+        <f t="shared" si="20"/>
         <v>15600</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -6898,7 +6895,7 @@
         <v>4</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>6</v>
@@ -6916,7 +6913,7 @@
         <v>72000</v>
       </c>
       <c r="I180" s="4">
-        <f>H180*0.2</f>
+        <f t="shared" si="20"/>
         <v>14400</v>
       </c>
     </row>
@@ -6928,7 +6925,7 @@
         <v>10</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>6</v>
@@ -6952,7 +6949,7 @@
         <v>20</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E182" s="9">
         <f>113300/12</f>
@@ -6977,7 +6974,7 @@
         <v>4</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>6</v>
@@ -6999,7 +6996,7 @@
         <v>13972.5</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7010,7 +7007,7 @@
         <v>4</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>6</v>
@@ -7037,10 +7034,10 @@
         <v>44843.054961250004</v>
       </c>
       <c r="B185" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>6</v>
@@ -7061,16 +7058,16 @@
         <v>10</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E186" s="9">
         <v>1000</v>
       </c>
       <c r="H186">
-        <f t="shared" ref="H186:H190" si="20">E186*12</f>
+        <f t="shared" ref="H186:H190" si="21">E186*12</f>
         <v>12000</v>
       </c>
     </row>
@@ -7082,7 +7079,7 @@
         <v>10</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>6</v>
@@ -7091,11 +7088,11 @@
         <v>4200</v>
       </c>
       <c r="H187">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>50400</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7106,7 +7103,7 @@
         <v>10</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>6</v>
@@ -7115,7 +7112,7 @@
         <v>4200</v>
       </c>
       <c r="H188">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>50400</v>
       </c>
     </row>
@@ -7127,7 +7124,7 @@
         <v>10</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>6</v>
@@ -7136,7 +7133,7 @@
         <v>4200</v>
       </c>
       <c r="H189">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>50400</v>
       </c>
     </row>
@@ -7148,7 +7145,7 @@
         <v>10</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>6</v>
@@ -7157,7 +7154,7 @@
         <v>3000</v>
       </c>
       <c r="H190">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>36000</v>
       </c>
     </row>
@@ -7169,7 +7166,7 @@
         <v>4</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>6</v>
@@ -7184,7 +7181,7 @@
         <v>21000</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7195,10 +7192,10 @@
         <v>4</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E192" s="4">
         <v>7000</v>
@@ -7212,7 +7209,7 @@
         <v>21000</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7223,7 +7220,7 @@
         <v>10</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>6</v>
@@ -7232,7 +7229,7 @@
         <v>5600</v>
       </c>
       <c r="H193">
-        <f t="shared" ref="H193:H205" si="21">E193*12</f>
+        <f t="shared" ref="H193:H205" si="22">E193*12</f>
         <v>67200</v>
       </c>
     </row>
@@ -7244,7 +7241,7 @@
         <v>10</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>6</v>
@@ -7253,7 +7250,7 @@
         <v>5600</v>
       </c>
       <c r="H194">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>67200</v>
       </c>
     </row>
@@ -7265,7 +7262,7 @@
         <v>10</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>6</v>
@@ -7274,7 +7271,7 @@
         <v>4500</v>
       </c>
       <c r="H195">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>54000</v>
       </c>
     </row>
@@ -7286,7 +7283,7 @@
         <v>10</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>6</v>
@@ -7295,7 +7292,7 @@
         <v>4000</v>
       </c>
       <c r="H196">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>48000</v>
       </c>
     </row>
@@ -7307,7 +7304,7 @@
         <v>10</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>6</v>
@@ -7316,11 +7313,11 @@
         <v>2500</v>
       </c>
       <c r="H197">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30000</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7331,16 +7328,16 @@
         <v>10</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E198" s="9">
         <v>2500</v>
       </c>
       <c r="H198">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30000</v>
       </c>
     </row>
@@ -7352,16 +7349,16 @@
         <v>10</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E199" s="9">
         <v>2500</v>
       </c>
       <c r="H199">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30000</v>
       </c>
     </row>
@@ -7373,7 +7370,7 @@
         <v>10</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>6</v>
@@ -7382,7 +7379,7 @@
         <v>2500</v>
       </c>
       <c r="H200">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30000</v>
       </c>
     </row>
@@ -7394,16 +7391,16 @@
         <v>10</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E201" s="9">
         <v>2500</v>
       </c>
       <c r="H201">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30000</v>
       </c>
     </row>
@@ -7415,7 +7412,7 @@
         <v>10</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>6</v>
@@ -7424,7 +7421,7 @@
         <v>5600</v>
       </c>
       <c r="H202">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>67200</v>
       </c>
     </row>
@@ -7436,7 +7433,7 @@
         <v>10</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>6</v>
@@ -7445,11 +7442,11 @@
         <v>1500</v>
       </c>
       <c r="H203">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>18000</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7460,16 +7457,16 @@
         <v>10</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E204" s="9">
         <v>1500</v>
       </c>
       <c r="H204">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>18000</v>
       </c>
     </row>
@@ -7481,7 +7478,7 @@
         <v>4</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>6</v>
@@ -7490,7 +7487,7 @@
         <v>7000</v>
       </c>
       <c r="H205">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>84000</v>
       </c>
     </row>
@@ -7502,7 +7499,7 @@
         <v>4</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>6</v>
@@ -7520,10 +7517,10 @@
         <v>75000</v>
       </c>
       <c r="I206" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J206" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7534,7 +7531,7 @@
         <v>4</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>6</v>
@@ -7550,10 +7547,10 @@
         <v>75000</v>
       </c>
       <c r="I207" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J207" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="J207" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7564,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>6</v>
@@ -7582,10 +7579,10 @@
         <v>70000</v>
       </c>
       <c r="I208" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J208" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="J208" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7596,7 +7593,7 @@
         <v>10</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>6</v>
@@ -7617,7 +7614,7 @@
         <v>10</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>6</v>
@@ -7626,7 +7623,7 @@
         <v>5750</v>
       </c>
       <c r="H210">
-        <f t="shared" ref="H210:H213" si="22">E210*12</f>
+        <f t="shared" ref="H210:H213" si="23">E210*12</f>
         <v>69000</v>
       </c>
     </row>
@@ -7638,7 +7635,7 @@
         <v>10</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>6</v>
@@ -7647,7 +7644,7 @@
         <v>5750</v>
       </c>
       <c r="H211">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>69000</v>
       </c>
     </row>
@@ -7659,7 +7656,7 @@
         <v>10</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>6</v>
@@ -7668,7 +7665,7 @@
         <v>5750</v>
       </c>
       <c r="H212">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>69000</v>
       </c>
     </row>
@@ -7680,7 +7677,7 @@
         <v>10</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>6</v>
@@ -7689,7 +7686,7 @@
         <v>5750</v>
       </c>
       <c r="H213">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>69000</v>
       </c>
     </row>
@@ -7701,7 +7698,7 @@
         <v>4</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>6</v>
@@ -7731,7 +7728,7 @@
         <v>4</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>6</v>
@@ -7761,7 +7758,7 @@
         <v>4</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>6</v>
@@ -7788,7 +7785,7 @@
         <v>10</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>6</v>
@@ -7812,7 +7809,7 @@
         <v>10</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>6</v>
@@ -7821,7 +7818,7 @@
         <v>5500</v>
       </c>
       <c r="H218">
-        <f t="shared" ref="H218:H221" si="23">E218*12+G218</f>
+        <f t="shared" ref="H218:H221" si="24">E218*12+G218</f>
         <v>66000</v>
       </c>
     </row>
@@ -7833,7 +7830,7 @@
         <v>10</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>6</v>
@@ -7842,7 +7839,7 @@
         <v>5400</v>
       </c>
       <c r="H219">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>64800</v>
       </c>
     </row>
@@ -7854,7 +7851,7 @@
         <v>10</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>6</v>
@@ -7863,7 +7860,7 @@
         <v>5400</v>
       </c>
       <c r="H220">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>64800</v>
       </c>
     </row>
@@ -7875,7 +7872,7 @@
         <v>10</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>6</v>
@@ -7884,7 +7881,7 @@
         <v>4067</v>
       </c>
       <c r="H221">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>48804</v>
       </c>
     </row>
@@ -7893,13 +7890,13 @@
         <v>44830.792494050926</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C222" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D222" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E222" s="4">
         <v>8400</v>
@@ -7914,7 +7911,7 @@
         <v>126000</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7925,7 +7922,7 @@
         <v>4</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>6</v>
@@ -7946,7 +7943,7 @@
         <v>6000</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -7957,10 +7954,10 @@
         <v>4</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E224" s="4">
         <v>5500</v>
@@ -7979,7 +7976,7 @@
         <v>16500</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="225" spans="1:34" ht="13" x14ac:dyDescent="0.15">
@@ -7990,7 +7987,7 @@
         <v>10</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>6</v>
@@ -8011,7 +8008,7 @@
         <v>10</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>6</v>
@@ -8026,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <f t="shared" ref="H226:H245" si="24">E226*12+G226+F226</f>
+        <f t="shared" ref="H226:H245" si="25">E226*12+G226+F226</f>
         <v>36000</v>
       </c>
       <c r="AH226" s="4"/>
@@ -8039,7 +8036,7 @@
         <v>10</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>6</v>
@@ -8048,11 +8045,11 @@
         <v>3000</v>
       </c>
       <c r="H227">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>36000</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="228" spans="1:34" ht="13" x14ac:dyDescent="0.15">
@@ -8063,16 +8060,16 @@
         <v>10</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E228" s="4">
         <v>3000</v>
       </c>
       <c r="H228">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>36000</v>
       </c>
     </row>
@@ -8084,7 +8081,7 @@
         <v>10</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>6</v>
@@ -8093,7 +8090,7 @@
         <v>3000</v>
       </c>
       <c r="H229">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>36000</v>
       </c>
     </row>
@@ -8105,7 +8102,7 @@
         <v>10</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>6</v>
@@ -8114,11 +8111,11 @@
         <v>3000</v>
       </c>
       <c r="H230">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>36000</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="231" spans="1:34" ht="13" x14ac:dyDescent="0.15">
@@ -8129,16 +8126,16 @@
         <v>10</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E231" s="9">
         <v>2500</v>
       </c>
       <c r="H231">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
     </row>
@@ -8150,7 +8147,7 @@
         <v>10</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>6</v>
@@ -8159,11 +8156,11 @@
         <v>2500</v>
       </c>
       <c r="H232">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="233" spans="1:34" ht="13" x14ac:dyDescent="0.15">
@@ -8174,7 +8171,7 @@
         <v>10</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>6</v>
@@ -8183,7 +8180,7 @@
         <v>2500</v>
       </c>
       <c r="H233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
     </row>
@@ -8195,7 +8192,7 @@
         <v>10</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>6</v>
@@ -8204,7 +8201,7 @@
         <v>2500</v>
       </c>
       <c r="H234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
     </row>
@@ -8216,7 +8213,7 @@
         <v>10</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>6</v>
@@ -8225,7 +8222,7 @@
         <v>2500</v>
       </c>
       <c r="H235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
     </row>
@@ -8237,7 +8234,7 @@
         <v>10</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>6</v>
@@ -8246,11 +8243,11 @@
         <v>2500</v>
       </c>
       <c r="H236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>30000</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="237" spans="1:34" ht="13" x14ac:dyDescent="0.15">
@@ -8261,7 +8258,7 @@
         <v>10</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>6</v>
@@ -8270,7 +8267,7 @@
         <v>2000</v>
       </c>
       <c r="H237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24000</v>
       </c>
     </row>
@@ -8282,7 +8279,7 @@
         <v>10</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>6</v>
@@ -8291,7 +8288,7 @@
         <v>2000</v>
       </c>
       <c r="H238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24000</v>
       </c>
     </row>
@@ -8303,7 +8300,7 @@
         <v>10</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>6</v>
@@ -8312,7 +8309,7 @@
         <v>2000</v>
       </c>
       <c r="H239">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24000</v>
       </c>
     </row>
@@ -8324,7 +8321,7 @@
         <v>10</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>6</v>
@@ -8333,7 +8330,7 @@
         <v>2000</v>
       </c>
       <c r="H240">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24000</v>
       </c>
     </row>
@@ -8345,16 +8342,16 @@
         <v>10</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E241" s="4">
         <v>2000</v>
       </c>
       <c r="H241">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24000</v>
       </c>
     </row>
@@ -8366,7 +8363,7 @@
         <v>10</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>6</v>
@@ -8375,7 +8372,7 @@
         <v>2000</v>
       </c>
       <c r="H242">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24000</v>
       </c>
     </row>
@@ -8387,7 +8384,7 @@
         <v>10</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>6</v>
@@ -8396,7 +8393,7 @@
         <v>1200</v>
       </c>
       <c r="H243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14400</v>
       </c>
     </row>
@@ -8408,20 +8405,20 @@
         <v>10</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E244" s="5">
         <v>1200</v>
       </c>
       <c r="H244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14400</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -8432,7 +8429,7 @@
         <v>10</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>21</v>
@@ -8441,7 +8438,7 @@
         <v>2000</v>
       </c>
       <c r="H245">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>24000</v>
       </c>
     </row>
@@ -8453,7 +8450,7 @@
         <v>4</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>6</v>
@@ -8475,7 +8472,7 @@
         <v>19500</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -8486,7 +8483,7 @@
         <v>4</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>6</v>
@@ -8508,7 +8505,7 @@
         <v>16500</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -8519,7 +8516,7 @@
         <v>4</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>6</v>
@@ -8544,7 +8541,7 @@
         <v>10</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>6</v>
@@ -8553,7 +8550,7 @@
         <v>3000</v>
       </c>
       <c r="H249">
-        <f t="shared" ref="H249:H257" si="25">E249*12</f>
+        <f t="shared" ref="H249:H257" si="26">E249*12</f>
         <v>36000</v>
       </c>
     </row>
@@ -8565,7 +8562,7 @@
         <v>10</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>6</v>
@@ -8574,7 +8571,7 @@
         <v>2500</v>
       </c>
       <c r="H250">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>30000</v>
       </c>
     </row>
@@ -8586,16 +8583,16 @@
         <v>10</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E251" s="9">
         <v>2500</v>
       </c>
       <c r="H251">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>30000</v>
       </c>
     </row>
@@ -8607,7 +8604,7 @@
         <v>10</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>6</v>
@@ -8616,7 +8613,7 @@
         <v>2500</v>
       </c>
       <c r="H252">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>30000</v>
       </c>
     </row>
@@ -8628,7 +8625,7 @@
         <v>10</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>6</v>
@@ -8637,7 +8634,7 @@
         <v>2500</v>
       </c>
       <c r="H253">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>30000</v>
       </c>
     </row>
@@ -8649,16 +8646,16 @@
         <v>10</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E254" s="9">
         <v>2500</v>
       </c>
       <c r="H254">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>30000</v>
       </c>
     </row>
@@ -8670,16 +8667,16 @@
         <v>10</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E255" s="9">
         <v>2500</v>
       </c>
       <c r="H255">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>30000</v>
       </c>
     </row>
@@ -8691,7 +8688,7 @@
         <v>10</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>6</v>
@@ -8700,7 +8697,7 @@
         <v>2500</v>
       </c>
       <c r="H256">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>30000</v>
       </c>
     </row>
@@ -8712,16 +8709,16 @@
         <v>10</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E257" s="5">
         <v>1500</v>
       </c>
       <c r="H257">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>18000</v>
       </c>
     </row>
@@ -8733,10 +8730,10 @@
         <v>4</v>
       </c>
       <c r="C258" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D258" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="E258" s="4">
         <v>4000</v>
@@ -8755,7 +8752,7 @@
         <v>6000</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -8766,7 +8763,7 @@
         <v>10</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>6</v>
@@ -8787,7 +8784,7 @@
         <v>10</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>6</v>
@@ -8796,7 +8793,7 @@
         <v>1200</v>
       </c>
       <c r="H260">
-        <f t="shared" ref="H260:H263" si="26">E260*12</f>
+        <f t="shared" ref="H260:H263" si="27">E260*12</f>
         <v>14400</v>
       </c>
     </row>
@@ -8808,7 +8805,7 @@
         <v>10</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>6</v>
@@ -8817,7 +8814,7 @@
         <v>1500</v>
       </c>
       <c r="H261">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18000</v>
       </c>
     </row>
@@ -8829,16 +8826,16 @@
         <v>10</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E262" s="4">
         <v>1400</v>
       </c>
       <c r="H262">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16800</v>
       </c>
     </row>
@@ -8850,7 +8847,7 @@
         <v>10</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>6</v>
@@ -8859,11 +8856,11 @@
         <v>7500</v>
       </c>
       <c r="H263">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>90000</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -8874,7 +8871,7 @@
         <v>4</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>6</v>
@@ -8883,7 +8880,7 @@
         <v>6000</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G264" s="4">
         <v>0</v>
@@ -8892,10 +8889,10 @@
         <v>72000</v>
       </c>
       <c r="I264" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J264" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="J264" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -8906,7 +8903,7 @@
         <v>10</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>6</v>
@@ -8919,7 +8916,7 @@
         <v>14400</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -8930,20 +8927,20 @@
         <v>10</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E266" s="9">
         <v>1500</v>
       </c>
       <c r="H266">
-        <f t="shared" ref="H266:H274" si="27">E266*12</f>
+        <f t="shared" ref="H266:H274" si="28">E266*12</f>
         <v>18000</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -8954,7 +8951,7 @@
         <v>10</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>6</v>
@@ -8963,11 +8960,11 @@
         <v>1500</v>
       </c>
       <c r="H267">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>18000</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -8978,16 +8975,16 @@
         <v>10</v>
       </c>
       <c r="C268" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D268" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="E268" s="4">
         <v>1500</v>
       </c>
       <c r="H268">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>18000</v>
       </c>
     </row>
@@ -8999,20 +8996,20 @@
         <v>10</v>
       </c>
       <c r="C269" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D269" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="D269" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="E269" s="4">
         <v>1500</v>
       </c>
       <c r="H269">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>18000</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9023,7 +9020,7 @@
         <v>10</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>6</v>
@@ -9032,11 +9029,11 @@
         <v>6000</v>
       </c>
       <c r="H270">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>72000</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9047,7 +9044,7 @@
         <v>10</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>6</v>
@@ -9056,7 +9053,7 @@
         <v>1200</v>
       </c>
       <c r="H271">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>14400</v>
       </c>
     </row>
@@ -9068,7 +9065,7 @@
         <v>10</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>6</v>
@@ -9077,7 +9074,7 @@
         <v>4500</v>
       </c>
       <c r="H272">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>54000</v>
       </c>
     </row>
@@ -9089,7 +9086,7 @@
         <v>10</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>6</v>
@@ -9098,7 +9095,7 @@
         <v>2000</v>
       </c>
       <c r="H273">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>24000</v>
       </c>
     </row>
@@ -9110,7 +9107,7 @@
         <v>10</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>6</v>
@@ -9119,7 +9116,7 @@
         <v>1200</v>
       </c>
       <c r="H274">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>14400</v>
       </c>
     </row>
@@ -9128,13 +9125,13 @@
         <v>44807.788677777775</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C275" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D275" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E275" s="4">
         <v>10000</v>
@@ -9146,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="J275" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9157,7 +9154,7 @@
         <v>10</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>6</v>
@@ -9178,16 +9175,16 @@
         <v>10</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E277" s="4">
         <v>1800</v>
       </c>
       <c r="H277">
-        <f t="shared" ref="H277:H281" si="28">E277*12</f>
+        <f t="shared" ref="H277:H281" si="29">E277*12</f>
         <v>21600</v>
       </c>
     </row>
@@ -9199,7 +9196,7 @@
         <v>10</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>6</v>
@@ -9208,7 +9205,7 @@
         <v>1800</v>
       </c>
       <c r="H278">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>21600</v>
       </c>
     </row>
@@ -9220,16 +9217,16 @@
         <v>10</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E279" s="4">
         <v>1200</v>
       </c>
       <c r="H279">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14400</v>
       </c>
     </row>
@@ -9241,7 +9238,7 @@
         <v>10</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>6</v>
@@ -9250,7 +9247,7 @@
         <v>1200</v>
       </c>
       <c r="H280">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14400</v>
       </c>
     </row>
@@ -9262,16 +9259,16 @@
         <v>10</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E281" s="9">
         <v>1500</v>
       </c>
       <c r="H281">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>18000</v>
       </c>
     </row>
@@ -9283,7 +9280,7 @@
         <v>4</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>6</v>
@@ -9310,7 +9307,7 @@
         <v>4</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>6</v>
@@ -9333,7 +9330,7 @@
         <v>4900.0000000000009</v>
       </c>
       <c r="J283" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9344,10 +9341,10 @@
         <v>4</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E284" s="4">
         <v>8750</v>
@@ -9363,11 +9360,11 @@
         <v>173000</v>
       </c>
       <c r="I284" s="4">
-        <f t="shared" ref="I284:I285" si="29">H284*0.1</f>
+        <f t="shared" ref="I284:I285" si="30">H284*0.1</f>
         <v>17300</v>
       </c>
       <c r="J284" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9378,7 +9375,7 @@
         <v>4</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>6</v>
@@ -9397,11 +9394,11 @@
         <v>173000</v>
       </c>
       <c r="I285" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17300</v>
       </c>
       <c r="J285" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9412,7 +9409,7 @@
         <v>4</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>6</v>
@@ -9442,7 +9439,7 @@
         <v>4</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>6</v>
@@ -9468,7 +9465,7 @@
         <v>10</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>6</v>
@@ -9489,7 +9486,7 @@
         <v>10</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>6</v>
@@ -9510,7 +9507,7 @@
         <v>4</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>6</v>
@@ -9536,7 +9533,7 @@
         <v>4</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>6</v>
@@ -9555,7 +9552,7 @@
         <v>7000</v>
       </c>
       <c r="J291" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9566,7 +9563,7 @@
         <v>10</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>6</v>
@@ -9587,7 +9584,7 @@
         <v>4</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>6</v>
@@ -9609,7 +9606,7 @@
         <v>9000</v>
       </c>
       <c r="J293" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9620,7 +9617,7 @@
         <v>10</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>6</v>
@@ -9641,7 +9638,7 @@
         <v>10</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>6</v>
@@ -9650,11 +9647,11 @@
         <v>2500</v>
       </c>
       <c r="H295">
-        <f t="shared" ref="H295:H297" si="30">E295*12</f>
+        <f t="shared" ref="H295:H297" si="31">E295*12</f>
         <v>30000</v>
       </c>
       <c r="J295" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9665,7 +9662,7 @@
         <v>10</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>6</v>
@@ -9674,11 +9671,11 @@
         <v>2000</v>
       </c>
       <c r="H296">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>24000</v>
       </c>
       <c r="J296" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="297" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9689,16 +9686,16 @@
         <v>10</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E297" s="9">
         <v>1500</v>
       </c>
       <c r="H297">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>18000</v>
       </c>
     </row>
@@ -9710,10 +9707,10 @@
         <v>4</v>
       </c>
       <c r="C298" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D298" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="D298" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="E298" s="9">
         <v>3700</v>
@@ -9811,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="H301">
-        <f t="shared" ref="H301:H302" si="31">E301*12+G301+F301</f>
+        <f t="shared" ref="H301:H302" si="32">E301*12+G301+F301</f>
         <v>300000</v>
       </c>
     </row>
@@ -9832,7 +9829,7 @@
         <v>30000</v>
       </c>
       <c r="H302">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>360000</v>
       </c>
     </row>
@@ -9877,7 +9874,7 @@
         <v>4</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>6</v>
@@ -9895,10 +9892,10 @@
         <v>80000</v>
       </c>
       <c r="I304" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J304" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="J304" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9909,7 +9906,7 @@
         <v>10</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>6</v>
@@ -9930,7 +9927,7 @@
         <v>10</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>6</v>
@@ -9951,7 +9948,7 @@
         <v>4</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>6</v>
@@ -9963,7 +9960,7 @@
         <v>70000</v>
       </c>
       <c r="J307" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9974,7 +9971,7 @@
         <v>10</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>6</v>
@@ -9987,7 +9984,7 @@
         <v>69996</v>
       </c>
       <c r="J308" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -9998,7 +9995,7 @@
         <v>10</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>6</v>
@@ -10007,11 +10004,11 @@
         <v>5833</v>
       </c>
       <c r="H309">
-        <f t="shared" ref="H309:H311" si="32">E309*12</f>
+        <f t="shared" ref="H309:H311" si="33">E309*12</f>
         <v>69996</v>
       </c>
       <c r="J309" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10022,7 +10019,7 @@
         <v>10</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>6</v>
@@ -10031,7 +10028,7 @@
         <v>5833</v>
       </c>
       <c r="H310">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>69996</v>
       </c>
     </row>
@@ -10043,7 +10040,7 @@
         <v>10</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>6</v>
@@ -10052,11 +10049,11 @@
         <v>5833</v>
       </c>
       <c r="H311">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>69996</v>
       </c>
       <c r="J311" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10067,7 +10064,7 @@
         <v>4</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>6</v>
@@ -10085,10 +10082,10 @@
         <v>75000</v>
       </c>
       <c r="I312" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J312" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="J312" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10099,7 +10096,7 @@
         <v>4</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>6</v>
@@ -10120,7 +10117,7 @@
         <v>5667</v>
       </c>
       <c r="J313" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10131,7 +10128,7 @@
         <v>4</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>6</v>
@@ -10157,7 +10154,7 @@
         <v>10</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>6</v>
@@ -10190,20 +10187,20 @@
         <v>10</v>
       </c>
       <c r="C316" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D316" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D316" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E316" s="9">
         <v>11000</v>
       </c>
       <c r="H316" s="4">
-        <f t="shared" ref="H316:H318" si="33">E316*12</f>
+        <f t="shared" ref="H316:H318" si="34">E316*12</f>
         <v>132000</v>
       </c>
       <c r="J316" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10214,16 +10211,16 @@
         <v>10</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E317" s="9">
         <v>11000</v>
       </c>
       <c r="H317" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>132000</v>
       </c>
     </row>
@@ -10235,7 +10232,7 @@
         <v>10</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>6</v>
@@ -10244,11 +10241,11 @@
         <v>850</v>
       </c>
       <c r="H318" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>10200</v>
       </c>
       <c r="J318" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10259,7 +10256,7 @@
         <v>4</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>6</v>
@@ -10278,7 +10275,7 @@
         <v>7500</v>
       </c>
       <c r="J319" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10289,10 +10286,10 @@
         <v>10</v>
       </c>
       <c r="C320" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D320" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="D320" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="E320" s="9">
         <v>1500</v>
@@ -10302,7 +10299,7 @@
         <v>18000</v>
       </c>
       <c r="J320" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10313,10 +10310,10 @@
         <v>10</v>
       </c>
       <c r="C321" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D321" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="D321" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="E321" s="9">
         <v>4000</v>
@@ -10357,7 +10354,7 @@
         <v>17199.600000000002</v>
       </c>
       <c r="J322" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10390,7 +10387,7 @@
         <v>13820</v>
       </c>
       <c r="J323" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="324" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10431,11 +10428,11 @@
         <v>6000</v>
       </c>
       <c r="H325">
-        <f t="shared" ref="H325:H334" si="34">E325*12</f>
+        <f t="shared" ref="H325:H334" si="35">E325*12</f>
         <v>72000</v>
       </c>
       <c r="J325" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10455,11 +10452,11 @@
         <v>6000</v>
       </c>
       <c r="H326">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>72000</v>
       </c>
       <c r="J326" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10479,7 +10476,7 @@
         <v>10250</v>
       </c>
       <c r="H327">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>123000</v>
       </c>
     </row>
@@ -10500,7 +10497,7 @@
         <v>10001</v>
       </c>
       <c r="H328">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>120012</v>
       </c>
     </row>
@@ -10521,11 +10518,11 @@
         <v>10000</v>
       </c>
       <c r="H329">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>120000</v>
       </c>
       <c r="J329" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10545,7 +10542,7 @@
         <v>10000</v>
       </c>
       <c r="H330">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>120000</v>
       </c>
     </row>
@@ -10566,7 +10563,7 @@
         <v>10000</v>
       </c>
       <c r="H331">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>120000</v>
       </c>
     </row>
@@ -10578,16 +10575,16 @@
         <v>10</v>
       </c>
       <c r="C332" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D332" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="D332" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="E332" s="5">
         <v>1500</v>
       </c>
       <c r="H332">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>18000</v>
       </c>
     </row>
@@ -10599,16 +10596,16 @@
         <v>10</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E333" s="9">
         <v>1500</v>
       </c>
       <c r="H333">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>18000</v>
       </c>
     </row>
@@ -10620,16 +10617,16 @@
         <v>4</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E334" s="4">
         <v>5000</v>
       </c>
       <c r="H334">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>60000</v>
       </c>
       <c r="I334" s="4">
@@ -10645,7 +10642,7 @@
         <v>4</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>6</v>
@@ -10666,7 +10663,7 @@
         <v>10000</v>
       </c>
       <c r="J335" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10677,10 +10674,10 @@
         <v>4</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E336" s="4">
         <v>3900</v>
@@ -10702,7 +10699,7 @@
         <v>10</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>6</v>
@@ -10722,7 +10719,7 @@
         <v>10</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>6</v>
@@ -10743,7 +10740,7 @@
         <v>4</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>6</v>
@@ -10765,7 +10762,7 @@
         <v>10400</v>
       </c>
       <c r="J339" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10776,7 +10773,7 @@
         <v>4</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>6</v>
@@ -10788,7 +10785,7 @@
         <v>96000</v>
       </c>
       <c r="J340" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10799,7 +10796,7 @@
         <v>10</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>6</v>
@@ -10820,7 +10817,7 @@
         <v>4</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>6</v>
@@ -10851,7 +10848,7 @@
         <v>4</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>6</v>
@@ -10868,7 +10865,7 @@
         <v>17034</v>
       </c>
       <c r="J343" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="344" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10879,7 +10876,7 @@
         <v>4</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>6</v>
@@ -10888,7 +10885,7 @@
         <v>5400</v>
       </c>
       <c r="H344">
-        <f t="shared" ref="H344:H349" si="35">E344*12</f>
+        <f t="shared" ref="H344:H349" si="36">E344*12</f>
         <v>64800</v>
       </c>
       <c r="I344" s="4">
@@ -10904,7 +10901,7 @@
         <v>4</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>6</v>
@@ -10913,7 +10910,7 @@
         <v>5200</v>
       </c>
       <c r="H345">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>62400</v>
       </c>
     </row>
@@ -10925,7 +10922,7 @@
         <v>4</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>6</v>
@@ -10934,7 +10931,7 @@
         <v>4800</v>
       </c>
       <c r="H346">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>57600</v>
       </c>
     </row>
@@ -10946,10 +10943,10 @@
         <v>4</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E347" s="4">
         <v>4800</v>
@@ -10962,7 +10959,7 @@
         <v>9600</v>
       </c>
       <c r="J347" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -10970,19 +10967,19 @@
         <v>44748.802577094903</v>
       </c>
       <c r="B348" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D348" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="C348" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D348" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="E348" s="4">
         <v>4800</v>
       </c>
       <c r="H348">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>57600</v>
       </c>
     </row>
@@ -10994,7 +10991,7 @@
         <v>4</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>6</v>
@@ -11003,11 +11000,11 @@
         <v>4800</v>
       </c>
       <c r="H349">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>57600</v>
       </c>
       <c r="I349" s="4">
-        <f t="shared" ref="I349:I354" si="36">2*E349</f>
+        <f t="shared" ref="I349:I353" si="37">2*E349</f>
         <v>9600</v>
       </c>
     </row>
@@ -11019,7 +11016,7 @@
         <v>4</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>6</v>
@@ -11037,11 +11034,11 @@
         <v>54000</v>
       </c>
       <c r="I350" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9000</v>
       </c>
       <c r="J350" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11052,7 +11049,7 @@
         <v>4</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>6</v>
@@ -11064,11 +11061,11 @@
         <v>54000</v>
       </c>
       <c r="I351" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9000</v>
       </c>
       <c r="J351" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11079,7 +11076,7 @@
         <v>4</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>6</v>
@@ -11088,21 +11085,21 @@
         <v>4200</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H352" s="4">
         <f>4200*12+600</f>
         <v>51000</v>
       </c>
       <c r="I352" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8400</v>
       </c>
       <c r="J352" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="353" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11113,7 +11110,7 @@
         <v>4</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>6</v>
@@ -11132,11 +11129,11 @@
         <v>48000</v>
       </c>
       <c r="I353" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8000</v>
       </c>
       <c r="J353" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="354" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11147,7 +11144,7 @@
         <v>10</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D354" s="4" t="s">
         <v>6</v>
@@ -11166,10 +11163,10 @@
         <v>44813.827488726849</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>6</v>
@@ -11185,7 +11182,7 @@
         <v>13200</v>
       </c>
       <c r="J355" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="356" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11196,7 +11193,7 @@
         <v>4</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>6</v>
@@ -11223,7 +11220,7 @@
         <v>4</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>6</v>
@@ -11232,11 +11229,11 @@
         <v>5500</v>
       </c>
       <c r="H357">
-        <f t="shared" ref="H357:H362" si="37">E357*12+F357</f>
+        <f t="shared" ref="H357:H362" si="38">E357*12+F357</f>
         <v>66000</v>
       </c>
       <c r="J357" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="358" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11247,7 +11244,7 @@
         <v>4</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>6</v>
@@ -11259,14 +11256,14 @@
         <v>24750</v>
       </c>
       <c r="G358" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H358">
+        <f t="shared" si="38"/>
+        <v>90750</v>
+      </c>
+      <c r="J358" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="H358">
-        <f t="shared" si="37"/>
-        <v>90750</v>
-      </c>
-      <c r="J358" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="359" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11277,16 +11274,16 @@
         <v>10</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E359" s="4">
         <v>2800</v>
       </c>
       <c r="H359">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>33600</v>
       </c>
     </row>
@@ -11298,7 +11295,7 @@
         <v>10</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>6</v>
@@ -11307,7 +11304,7 @@
         <v>1000</v>
       </c>
       <c r="H360">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>12000</v>
       </c>
     </row>
@@ -11319,16 +11316,16 @@
         <v>4</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E361" s="4">
         <v>4100</v>
       </c>
       <c r="H361">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>49200</v>
       </c>
     </row>
@@ -11340,16 +11337,16 @@
         <v>10</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E362" s="9">
         <v>1500</v>
       </c>
       <c r="H362">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>18000</v>
       </c>
     </row>
@@ -11379,11 +11376,11 @@
         <v>134792</v>
       </c>
       <c r="I363" s="4">
-        <f t="shared" ref="I363:I369" si="38">E363*3</f>
+        <f t="shared" ref="H363:I369" si="39">E363*3</f>
         <v>28884</v>
       </c>
       <c r="J363" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="364" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11403,17 +11400,17 @@
         <v>9000</v>
       </c>
       <c r="G364" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H364" s="4">
         <v>135000</v>
       </c>
       <c r="I364" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>27000</v>
       </c>
       <c r="J364" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="365" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11442,7 +11439,7 @@
         <v>134790</v>
       </c>
       <c r="I365" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>26958</v>
       </c>
     </row>
@@ -11460,17 +11457,18 @@
         <v>6</v>
       </c>
       <c r="E366" s="9">
-        <v>115500</v>
+        <f>115500/12</f>
+        <v>9625</v>
       </c>
       <c r="G366" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H366" s="4" t="s">
-        <v>30</v>
+      <c r="H366" s="4">
+        <v>115500</v>
       </c>
       <c r="I366" s="4">
-        <f t="shared" si="38"/>
-        <v>346500</v>
+        <f t="shared" si="39"/>
+        <v>28875</v>
       </c>
     </row>
     <row r="367" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11496,11 +11494,11 @@
         <v>134792</v>
       </c>
       <c r="I367" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>28884</v>
       </c>
       <c r="J367" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="368" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11526,7 +11524,7 @@
         <v>135000</v>
       </c>
       <c r="I368" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>27000</v>
       </c>
     </row>
@@ -11547,7 +11545,7 @@
         <v>7770</v>
       </c>
       <c r="F369" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G369" s="4">
         <v>15540</v>
@@ -11556,11 +11554,11 @@
         <v>116550</v>
       </c>
       <c r="I369" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>23310</v>
       </c>
       <c r="J369" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="370" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11631,7 +11629,7 @@
         <v>4500</v>
       </c>
       <c r="H372">
-        <f t="shared" ref="H372:H389" si="39">E372*12+F372+G372</f>
+        <f t="shared" ref="H372:H389" si="40">E372*12+F372+G372</f>
         <v>54000</v>
       </c>
     </row>
@@ -11646,13 +11644,13 @@
         <v>28</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E373" s="9">
         <v>4500</v>
       </c>
       <c r="H373">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>54000</v>
       </c>
     </row>
@@ -11673,7 +11671,7 @@
         <v>3000</v>
       </c>
       <c r="H374">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>36000</v>
       </c>
     </row>
@@ -11694,7 +11692,7 @@
         <v>3000</v>
       </c>
       <c r="H375">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>36000</v>
       </c>
     </row>
@@ -11715,7 +11713,7 @@
         <v>3000</v>
       </c>
       <c r="H376">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>36000</v>
       </c>
     </row>
@@ -11736,7 +11734,7 @@
         <v>20000</v>
       </c>
       <c r="H377">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>240000</v>
       </c>
       <c r="J377" s="4" t="s">
@@ -11754,13 +11752,13 @@
         <v>22</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E378" s="4">
         <v>24000</v>
       </c>
       <c r="H378">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>288000</v>
       </c>
     </row>
@@ -11769,13 +11767,13 @@
         <v>44821.643170023148</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C379" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D379" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="D379" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="E379" s="4">
         <v>3000</v>
@@ -11787,14 +11785,14 @@
         <v>0</v>
       </c>
       <c r="H379">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>36000</v>
       </c>
       <c r="I379" s="4">
         <v>0</v>
       </c>
       <c r="J379" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="380" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11805,7 +11803,7 @@
         <v>10</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>6</v>
@@ -11814,7 +11812,7 @@
         <v>1500</v>
       </c>
       <c r="H380">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>18000</v>
       </c>
     </row>
@@ -11826,7 +11824,7 @@
         <v>10</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>6</v>
@@ -11835,11 +11833,11 @@
         <v>3000</v>
       </c>
       <c r="H381">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>36000</v>
       </c>
       <c r="J381" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="382" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11850,7 +11848,7 @@
         <v>10</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>6</v>
@@ -11859,11 +11857,11 @@
         <v>3000</v>
       </c>
       <c r="H382">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>36000</v>
       </c>
       <c r="J382" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="383" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -11874,7 +11872,7 @@
         <v>10</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>6</v>
@@ -11883,7 +11881,7 @@
         <v>2000</v>
       </c>
       <c r="H383">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>24000</v>
       </c>
     </row>
@@ -11895,7 +11893,7 @@
         <v>10</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>6</v>
@@ -11904,7 +11902,7 @@
         <v>2000</v>
       </c>
       <c r="H384">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>24000</v>
       </c>
     </row>
@@ -11916,7 +11914,7 @@
         <v>10</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>6</v>
@@ -11925,7 +11923,7 @@
         <v>2000</v>
       </c>
       <c r="H385">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>24000</v>
       </c>
     </row>
@@ -11937,16 +11935,16 @@
         <v>10</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E386" s="9">
         <v>2000</v>
       </c>
       <c r="H386">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>24000</v>
       </c>
     </row>
@@ -11958,16 +11956,16 @@
         <v>10</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E387" s="9">
         <v>2000</v>
       </c>
       <c r="H387">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>24000</v>
       </c>
     </row>
@@ -11979,16 +11977,16 @@
         <v>10</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E388" s="9">
         <v>2000</v>
       </c>
       <c r="H388">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>24000</v>
       </c>
     </row>
@@ -12000,7 +11998,7 @@
         <v>10</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>6</v>
@@ -12009,7 +12007,7 @@
         <v>800</v>
       </c>
       <c r="H389">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>9600</v>
       </c>
     </row>
@@ -12021,10 +12019,10 @@
         <v>4</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E390" s="4">
         <v>5500</v>
@@ -12045,10 +12043,10 @@
         <v>10</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E391" s="4">
         <v>2000</v>
@@ -12066,10 +12064,10 @@
         <v>4</v>
       </c>
       <c r="C392" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D392" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="D392" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="E392" s="4">
         <v>3600</v>
@@ -12081,7 +12079,7 @@
         <v>3</v>
       </c>
       <c r="J392" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="393" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12092,10 +12090,10 @@
         <v>4</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E393" s="9">
         <v>2500</v>
@@ -12117,16 +12115,16 @@
         <v>10</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E394" s="4">
         <v>2000</v>
       </c>
       <c r="H394">
-        <f t="shared" ref="H394:H398" si="40">E394*12+F394+G394</f>
+        <f t="shared" ref="H394:H398" si="41">E394*12+F394+G394</f>
         <v>24000</v>
       </c>
     </row>
@@ -12138,13 +12136,13 @@
         <v>10</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H395">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -12156,16 +12154,16 @@
         <v>10</v>
       </c>
       <c r="C396" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D396" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="D396" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="E396" s="9">
         <v>810</v>
       </c>
       <c r="H396">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>9720</v>
       </c>
     </row>
@@ -12177,7 +12175,7 @@
         <v>10</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>6</v>
@@ -12186,11 +12184,11 @@
         <v>11000</v>
       </c>
       <c r="H397">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>132000</v>
       </c>
       <c r="J397" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="398" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12201,7 +12199,7 @@
         <v>10</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>6</v>
@@ -12210,7 +12208,7 @@
         <v>11000</v>
       </c>
       <c r="H398">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>132000</v>
       </c>
     </row>
@@ -12222,7 +12220,7 @@
         <v>4</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>6</v>
@@ -12242,7 +12240,7 @@
         <v>6960</v>
       </c>
       <c r="J399" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="400" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12253,10 +12251,10 @@
         <v>4</v>
       </c>
       <c r="C400" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D400" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="D400" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="E400" s="4">
         <v>5000</v>
@@ -12275,7 +12273,7 @@
         <v>5000</v>
       </c>
       <c r="J400" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="401" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12286,7 +12284,7 @@
         <v>10</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D401" s="4" t="s">
         <v>6</v>
@@ -12306,16 +12304,16 @@
         <v>4</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E402" s="4">
         <v>6000</v>
       </c>
       <c r="F402" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H402">
         <f>E402*12</f>
@@ -12330,10 +12328,10 @@
         <v>10</v>
       </c>
       <c r="C403" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D403" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="E403" s="4">
         <v>770</v>
@@ -12342,17 +12340,17 @@
         <v>0</v>
       </c>
       <c r="G403" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H403">
-        <f t="shared" ref="H403:H409" si="41">E403*12</f>
+        <f t="shared" ref="H403:H409" si="42">E403*12</f>
         <v>9240</v>
       </c>
       <c r="I403" s="4">
         <v>0</v>
       </c>
       <c r="J403" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="404" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12363,16 +12361,16 @@
         <v>10</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E404" s="9">
         <v>1400</v>
       </c>
       <c r="H404">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16800</v>
       </c>
     </row>
@@ -12384,16 +12382,16 @@
         <v>10</v>
       </c>
       <c r="C405" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D405" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="D405" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="E405" s="5">
         <v>1400</v>
       </c>
       <c r="H405">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16800</v>
       </c>
     </row>
@@ -12405,7 +12403,7 @@
         <v>10</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>6</v>
@@ -12414,7 +12412,7 @@
         <v>1200</v>
       </c>
       <c r="H406">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14400</v>
       </c>
     </row>
@@ -12426,7 +12424,7 @@
         <v>10</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>6</v>
@@ -12435,7 +12433,7 @@
         <v>1500</v>
       </c>
       <c r="H407">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>18000</v>
       </c>
     </row>
@@ -12447,16 +12445,16 @@
         <v>10</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E408" s="9">
         <v>2000</v>
       </c>
       <c r="H408">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>24000</v>
       </c>
     </row>
@@ -12468,7 +12466,7 @@
         <v>10</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>6</v>
@@ -12477,7 +12475,7 @@
         <v>2000</v>
       </c>
       <c r="H409">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>24000</v>
       </c>
     </row>
@@ -12489,7 +12487,7 @@
         <v>4</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>6</v>
@@ -12507,7 +12505,7 @@
         <v>112000</v>
       </c>
       <c r="I410" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="411" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12518,7 +12516,7 @@
         <v>10</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>6</v>
@@ -12539,10 +12537,10 @@
         <v>10</v>
       </c>
       <c r="C412" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D412" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="D412" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="E412" s="9">
         <v>1300</v>
@@ -12560,7 +12558,7 @@
         <v>4</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>6</v>
@@ -12569,7 +12567,7 @@
         <v>5500</v>
       </c>
       <c r="F413" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H413" s="4">
         <f>5500*15</f>
@@ -12588,7 +12586,7 @@
         <v>10</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>6</v>
@@ -12597,20 +12595,20 @@
         <v>1500</v>
       </c>
       <c r="F414" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G414" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H414" s="4">
         <f>E414*12</f>
         <v>18000</v>
       </c>
       <c r="I414" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J414" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="415" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12621,20 +12619,20 @@
         <v>10</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E415" s="5">
         <v>3000</v>
       </c>
       <c r="H415" s="4">
-        <f t="shared" ref="H415:H417" si="42">E415*12</f>
+        <f t="shared" ref="H415:H417" si="43">E415*12</f>
         <v>36000</v>
       </c>
       <c r="J415" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="416" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12645,29 +12643,29 @@
         <v>10</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E416" s="4">
         <v>4200</v>
       </c>
       <c r="F416" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H416" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>50400</v>
       </c>
       <c r="I416" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J416" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="417" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12678,7 +12676,7 @@
         <v>4</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>6</v>
@@ -12690,10 +12688,10 @@
         <v>50000</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H417" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>84000</v>
       </c>
       <c r="I417" s="4">
@@ -12701,7 +12699,7 @@
         <v>14000</v>
       </c>
       <c r="J417" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="418" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12712,7 +12710,7 @@
         <v>10</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>6</v>
@@ -12733,7 +12731,7 @@
         <v>10</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>6</v>
@@ -12742,7 +12740,7 @@
         <v>1000</v>
       </c>
       <c r="H419" s="4">
-        <f t="shared" ref="H419:H420" si="43">E419*12</f>
+        <f t="shared" ref="H419:H420" si="44">E419*12</f>
         <v>12000</v>
       </c>
     </row>
@@ -12754,7 +12752,7 @@
         <v>4</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>6</v>
@@ -12763,11 +12761,11 @@
         <v>12000</v>
       </c>
       <c r="H420" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>144000</v>
       </c>
       <c r="J420" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="421" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12778,7 +12776,7 @@
         <v>4</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>6</v>
@@ -12796,7 +12794,7 @@
         <v>140000</v>
       </c>
       <c r="I421" s="4">
-        <f t="shared" ref="I421:I426" si="44">2*E421</f>
+        <f t="shared" ref="I421:I426" si="45">2*E421</f>
         <v>16000</v>
       </c>
     </row>
@@ -12808,7 +12806,7 @@
         <v>4</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>6</v>
@@ -12823,11 +12821,11 @@
         <v>140000</v>
       </c>
       <c r="I422" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15000</v>
       </c>
       <c r="J422" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12838,7 +12836,7 @@
         <v>4</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>6</v>
@@ -12856,7 +12854,7 @@
         <v>140000</v>
       </c>
       <c r="I423" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15000</v>
       </c>
     </row>
@@ -12868,7 +12866,7 @@
         <v>4</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>6</v>
@@ -12886,11 +12884,11 @@
         <v>120000</v>
       </c>
       <c r="I424" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14400</v>
       </c>
       <c r="J424" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="425" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12901,7 +12899,7 @@
         <v>4</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>6</v>
@@ -12919,7 +12917,7 @@
         <v>104200</v>
       </c>
       <c r="I425" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13600</v>
       </c>
     </row>
@@ -12931,7 +12929,7 @@
         <v>4</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>6</v>
@@ -12949,11 +12947,11 @@
         <v>105000</v>
       </c>
       <c r="I426" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>13600</v>
       </c>
       <c r="J426" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="427" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -12964,7 +12962,7 @@
         <v>4</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>6</v>
@@ -12991,7 +12989,7 @@
         <v>4</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>6</v>
@@ -13012,7 +13010,7 @@
         <v>4</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>6</v>
@@ -13034,7 +13032,7 @@
         <v>19500</v>
       </c>
       <c r="J429" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="430" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -13045,7 +13043,7 @@
         <v>4</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>6</v>
@@ -13058,14 +13056,14 @@
         <v>12250</v>
       </c>
       <c r="G430" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H430">
         <f>E430*12+F430</f>
         <v>86650</v>
       </c>
       <c r="I430" s="4">
-        <f t="shared" ref="I430:I435" si="45">E430*2</f>
+        <f t="shared" ref="I430:I435" si="46">E430*2</f>
         <v>12400</v>
       </c>
     </row>
@@ -13077,7 +13075,7 @@
         <v>4</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>6</v>
@@ -13086,7 +13084,7 @@
         <v>6200</v>
       </c>
       <c r="F431" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G431" s="4">
         <v>0</v>
@@ -13095,11 +13093,11 @@
         <v>104000</v>
       </c>
       <c r="I431" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>12400</v>
       </c>
       <c r="J431" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="432" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -13110,7 +13108,7 @@
         <v>4</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>6</v>
@@ -13119,16 +13117,16 @@
         <v>5800</v>
       </c>
       <c r="F432" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G432" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H432" s="4">
         <v>70000</v>
       </c>
       <c r="I432" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>11600</v>
       </c>
     </row>
@@ -13140,10 +13138,10 @@
         <v>4</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E433" s="4">
         <v>5000</v>
@@ -13162,24 +13160,24 @@
         <v>4</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E434" s="4">
         <v>5000</v>
       </c>
       <c r="H434">
-        <f t="shared" ref="H434:H458" si="46">E434*12</f>
+        <f t="shared" ref="H434:H458" si="47">E434*12</f>
         <v>60000</v>
       </c>
       <c r="I434" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10000</v>
       </c>
       <c r="J434" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -13190,24 +13188,24 @@
         <v>4</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E435" s="9">
         <v>4500</v>
       </c>
       <c r="H435">
+        <f t="shared" si="47"/>
+        <v>54000</v>
+      </c>
+      <c r="I435" s="4">
         <f t="shared" si="46"/>
-        <v>54000</v>
-      </c>
-      <c r="I435" s="4">
-        <f t="shared" si="45"/>
         <v>9000</v>
       </c>
       <c r="J435" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="436" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -13218,16 +13216,16 @@
         <v>4</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E436" s="4">
         <v>4500</v>
       </c>
       <c r="H436">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>54000</v>
       </c>
       <c r="I436" s="4">
@@ -13243,7 +13241,7 @@
         <v>10</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>6</v>
@@ -13252,7 +13250,7 @@
         <v>4200</v>
       </c>
       <c r="H437">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50400</v>
       </c>
     </row>
@@ -13264,7 +13262,7 @@
         <v>10</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>6</v>
@@ -13273,7 +13271,7 @@
         <v>4200</v>
       </c>
       <c r="H438">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50400</v>
       </c>
     </row>
@@ -13285,7 +13283,7 @@
         <v>10</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>6</v>
@@ -13294,7 +13292,7 @@
         <v>4200</v>
       </c>
       <c r="H439">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50400</v>
       </c>
     </row>
@@ -13306,16 +13304,16 @@
         <v>10</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E440" s="9">
         <v>4200</v>
       </c>
       <c r="H440">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50400</v>
       </c>
     </row>
@@ -13327,7 +13325,7 @@
         <v>10</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>6</v>
@@ -13336,7 +13334,7 @@
         <v>4200</v>
       </c>
       <c r="H441">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50400</v>
       </c>
     </row>
@@ -13348,7 +13346,7 @@
         <v>10</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>6</v>
@@ -13357,7 +13355,7 @@
         <v>4200</v>
       </c>
       <c r="H442">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50400</v>
       </c>
     </row>
@@ -13369,16 +13367,16 @@
         <v>10</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E443" s="9">
         <v>4200</v>
       </c>
       <c r="H443">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50400</v>
       </c>
     </row>
@@ -13390,7 +13388,7 @@
         <v>10</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>6</v>
@@ -13399,7 +13397,7 @@
         <v>4200</v>
       </c>
       <c r="H444">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>50400</v>
       </c>
     </row>
@@ -13411,16 +13409,16 @@
         <v>10</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E445" s="9">
         <v>2000</v>
       </c>
       <c r="H445">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>24000</v>
       </c>
     </row>
@@ -13432,16 +13430,16 @@
         <v>10</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E446" s="5">
         <v>1200</v>
       </c>
       <c r="H446">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>14400</v>
       </c>
     </row>
@@ -13453,16 +13451,16 @@
         <v>10</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E447" s="5">
         <v>1200</v>
       </c>
       <c r="H447">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>14400</v>
       </c>
     </row>
@@ -13474,16 +13472,16 @@
         <v>10</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E448" s="9">
         <v>1200</v>
       </c>
       <c r="H448">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>14400</v>
       </c>
     </row>
@@ -13495,20 +13493,20 @@
         <v>10</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E449" s="9">
         <v>1200</v>
       </c>
       <c r="H449">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>14400</v>
       </c>
       <c r="J449" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="450" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -13519,16 +13517,16 @@
         <v>10</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E450" s="9">
         <v>1200</v>
       </c>
       <c r="H450">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>14400</v>
       </c>
     </row>
@@ -13540,16 +13538,16 @@
         <v>10</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E451" s="4">
         <v>1200</v>
       </c>
       <c r="H451">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>14400</v>
       </c>
     </row>
@@ -13561,16 +13559,16 @@
         <v>10</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E452" s="9">
         <v>1000</v>
       </c>
       <c r="H452">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>12000</v>
       </c>
     </row>
@@ -13579,10 +13577,10 @@
         <v>44595.909172326385</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>6</v>
@@ -13597,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="H453">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>62400</v>
       </c>
       <c r="I453" s="4">
@@ -13613,16 +13611,16 @@
         <v>10</v>
       </c>
       <c r="C454" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D454" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="D454" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="E454" s="4">
         <v>1700</v>
       </c>
       <c r="H454">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>20400</v>
       </c>
     </row>
@@ -13634,7 +13632,7 @@
         <v>10</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>6</v>
@@ -13643,7 +13641,7 @@
         <v>1700</v>
       </c>
       <c r="H455">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>20400</v>
       </c>
     </row>
@@ -13655,20 +13653,20 @@
         <v>10</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E456" s="4">
         <v>1700</v>
       </c>
       <c r="H456">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>20400</v>
       </c>
       <c r="J456" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="457" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -13679,16 +13677,16 @@
         <v>4</v>
       </c>
       <c r="C457" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D457" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="D457" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="E457" s="4">
         <v>3800</v>
       </c>
       <c r="H457">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>45600</v>
       </c>
       <c r="I457" s="4">
@@ -13703,7 +13701,7 @@
         <v>10</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>6</v>
@@ -13712,7 +13710,7 @@
         <v>1600</v>
       </c>
       <c r="H458">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>19200</v>
       </c>
     </row>
@@ -13724,25 +13722,25 @@
         <v>4</v>
       </c>
       <c r="C459" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D459" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="D459" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="E459" s="4">
         <v>5200</v>
       </c>
       <c r="F459" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H459" s="4">
         <v>62400</v>
       </c>
       <c r="I459" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J459" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="J459" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="460" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -13753,7 +13751,7 @@
         <v>4</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>6</v>
@@ -13777,7 +13775,7 @@
         <v>10</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>6</v>
@@ -13786,7 +13784,7 @@
         <v>6000</v>
       </c>
       <c r="H461">
-        <f t="shared" ref="H461:I475" si="47">E461*12</f>
+        <f t="shared" ref="H461:H475" si="48">E461*12</f>
         <v>72000</v>
       </c>
     </row>
@@ -13798,7 +13796,7 @@
         <v>10</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>6</v>
@@ -13807,7 +13805,7 @@
         <v>7083</v>
       </c>
       <c r="H462">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>84996</v>
       </c>
     </row>
@@ -13819,7 +13817,7 @@
         <v>4</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>6</v>
@@ -13831,11 +13829,11 @@
         <v>20000</v>
       </c>
       <c r="H463">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>84996</v>
       </c>
       <c r="J463" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="464" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -13846,7 +13844,7 @@
         <v>4</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>6</v>
@@ -13858,7 +13856,7 @@
         <v>10000</v>
       </c>
       <c r="H464">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>84996</v>
       </c>
       <c r="I464" s="4">
@@ -13873,7 +13871,7 @@
         <v>10</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>6</v>
@@ -13882,7 +13880,7 @@
         <v>7000</v>
       </c>
       <c r="H465">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>84000</v>
       </c>
     </row>
@@ -13894,7 +13892,7 @@
         <v>4</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>6</v>
@@ -13909,11 +13907,11 @@
         <v>0</v>
       </c>
       <c r="H466">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>57600</v>
       </c>
       <c r="J466" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="467" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -13924,7 +13922,7 @@
         <v>10</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>6</v>
@@ -13933,7 +13931,7 @@
         <v>1200</v>
       </c>
       <c r="H467">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>14400</v>
       </c>
     </row>
@@ -13942,19 +13940,19 @@
         <v>44790.628037858798</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E468" s="4">
         <v>5500</v>
       </c>
       <c r="H468">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>66000</v>
       </c>
       <c r="I468" s="4">
@@ -13970,7 +13968,7 @@
         <v>10</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>6</v>
@@ -13979,7 +13977,7 @@
         <v>2900</v>
       </c>
       <c r="H469">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>34800</v>
       </c>
     </row>
@@ -13988,10 +13986,10 @@
         <v>44616.733977534721</v>
       </c>
       <c r="B470" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>6</v>
@@ -14000,7 +13998,7 @@
         <v>5700</v>
       </c>
       <c r="H470">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>68400</v>
       </c>
       <c r="I470">
@@ -14016,16 +14014,16 @@
         <v>10</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E471" s="4">
         <v>2900</v>
       </c>
       <c r="H471">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>34800</v>
       </c>
     </row>
@@ -14037,7 +14035,7 @@
         <v>10</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>6</v>
@@ -14046,7 +14044,7 @@
         <v>1000</v>
       </c>
       <c r="H472">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>12000</v>
       </c>
     </row>
@@ -14058,7 +14056,7 @@
         <v>10</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>6</v>
@@ -14067,7 +14065,7 @@
         <v>4000</v>
       </c>
       <c r="H473">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>48000</v>
       </c>
     </row>
@@ -14079,7 +14077,7 @@
         <v>10</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>6</v>
@@ -14088,7 +14086,7 @@
         <v>3000</v>
       </c>
       <c r="H474">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>36000</v>
       </c>
     </row>
@@ -14100,7 +14098,7 @@
         <v>10</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>6</v>
@@ -14109,7 +14107,7 @@
         <v>9800</v>
       </c>
       <c r="H475">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>117600</v>
       </c>
     </row>
@@ -14121,7 +14119,7 @@
         <v>4</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>6</v>
@@ -14143,7 +14141,7 @@
         <v>17000</v>
       </c>
       <c r="J476" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="477" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -14154,7 +14152,7 @@
         <v>10</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>6</v>
@@ -14167,7 +14165,7 @@
         <v>72000</v>
       </c>
       <c r="J477" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="478" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -14178,20 +14176,20 @@
         <v>10</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E478" s="4">
         <v>1300</v>
       </c>
       <c r="H478">
-        <f t="shared" ref="H478:H479" si="48">E478*12</f>
+        <f t="shared" ref="H478:H479" si="49">E478*12</f>
         <v>15600</v>
       </c>
       <c r="J478" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="479" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -14202,7 +14200,7 @@
         <v>10</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D479" s="4" t="s">
         <v>6</v>
@@ -14211,7 +14209,7 @@
         <v>1000</v>
       </c>
       <c r="H479">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>12000</v>
       </c>
     </row>
@@ -14223,10 +14221,10 @@
         <v>4</v>
       </c>
       <c r="C480" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D480" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D480" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="E480" s="4">
         <v>9800</v>
@@ -14250,7 +14248,7 @@
         <v>4</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>6</v>
@@ -14275,7 +14273,7 @@
         <v>10</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>6</v>
@@ -14284,7 +14282,7 @@
         <v>2000</v>
       </c>
       <c r="H482">
-        <f t="shared" ref="H482:H485" si="49">E482*12</f>
+        <f t="shared" ref="H482:H485" si="50">E482*12</f>
         <v>24000</v>
       </c>
     </row>
@@ -14296,7 +14294,7 @@
         <v>10</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D483" s="4" t="s">
         <v>6</v>
@@ -14305,7 +14303,7 @@
         <v>1500</v>
       </c>
       <c r="H483">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>18000</v>
       </c>
     </row>
@@ -14317,7 +14315,7 @@
         <v>10</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D484" s="4" t="s">
         <v>6</v>
@@ -14326,7 +14324,7 @@
         <v>1200</v>
       </c>
       <c r="H484">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>14400</v>
       </c>
     </row>
@@ -14338,7 +14336,7 @@
         <v>4</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D485" s="4" t="s">
         <v>6</v>
@@ -14347,7 +14345,7 @@
         <v>4000</v>
       </c>
       <c r="H485">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>48000</v>
       </c>
     </row>
@@ -14359,10 +14357,10 @@
         <v>4</v>
       </c>
       <c r="C486" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D486" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="D486" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="E486" s="4">
         <v>5400</v>
@@ -14375,7 +14373,7 @@
         <v>5400</v>
       </c>
       <c r="J486" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="487" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -14386,7 +14384,7 @@
         <v>4</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D487" s="4" t="s">
         <v>6</v>
@@ -14481,11 +14479,11 @@
         <v>150000</v>
       </c>
       <c r="I490" s="4">
-        <f t="shared" ref="I490:I492" si="50">E490*3</f>
+        <f t="shared" ref="I490:I492" si="51">E490*3</f>
         <v>24600</v>
       </c>
       <c r="J490" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="491" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -14511,7 +14509,7 @@
         <v>120000</v>
       </c>
       <c r="I491" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>24000</v>
       </c>
     </row>
@@ -14541,7 +14539,7 @@
         <v>118500</v>
       </c>
       <c r="I492" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>23700</v>
       </c>
     </row>
@@ -14576,7 +14574,7 @@
         <v>23700</v>
       </c>
       <c r="J493" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="494" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -14640,7 +14638,7 @@
         <v>22500</v>
       </c>
       <c r="J495" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="496" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -14718,7 +14716,7 @@
         <v>10500</v>
       </c>
       <c r="J498" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="499" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -14759,7 +14757,7 @@
         <v>4000</v>
       </c>
       <c r="H500">
-        <f t="shared" ref="H500:H507" si="51">E500*12</f>
+        <f t="shared" ref="H500:H507" si="52">E500*12</f>
         <v>48000</v>
       </c>
     </row>
@@ -14780,7 +14778,7 @@
         <v>4000</v>
       </c>
       <c r="H501">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>48000</v>
       </c>
     </row>
@@ -14795,13 +14793,13 @@
         <v>5</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E502" s="5">
         <v>3900</v>
       </c>
       <c r="H502">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>46800</v>
       </c>
     </row>
@@ -14822,7 +14820,7 @@
         <v>3700</v>
       </c>
       <c r="H503">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>44400</v>
       </c>
     </row>
@@ -14843,7 +14841,7 @@
         <v>3700</v>
       </c>
       <c r="H504">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>44400</v>
       </c>
     </row>
@@ -14870,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="H505">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>44400</v>
       </c>
     </row>
@@ -14894,7 +14892,7 @@
         <v>500</v>
       </c>
       <c r="H506">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>38400</v>
       </c>
     </row>
@@ -14909,13 +14907,13 @@
         <v>5</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E507" s="5">
         <v>1400</v>
       </c>
       <c r="H507">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>16800</v>
       </c>
     </row>
@@ -14949,7 +14947,7 @@
         <v>21600</v>
       </c>
       <c r="J508" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="509" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -14982,7 +14980,7 @@
         <v>11100</v>
       </c>
       <c r="J509" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="510" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -14993,10 +14991,10 @@
         <v>4</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E510" s="4">
         <v>6000</v>
@@ -15009,7 +15007,7 @@
         <v>6000</v>
       </c>
       <c r="J510" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="511" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15020,10 +15018,10 @@
         <v>4</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E511" s="4">
         <v>4913</v>
@@ -15038,10 +15036,10 @@
         <v>58956</v>
       </c>
       <c r="I511" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J511" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="J511" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="512" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15052,10 +15050,10 @@
         <v>10</v>
       </c>
       <c r="C512" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D512" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D512" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E512" s="4">
         <v>9600</v>
@@ -15073,20 +15071,20 @@
         <v>10</v>
       </c>
       <c r="C513" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D513" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D513" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E513" s="5">
         <v>9200</v>
       </c>
       <c r="H513">
-        <f t="shared" ref="H513:H520" si="52">E513*12</f>
+        <f t="shared" ref="H513:H520" si="53">E513*12</f>
         <v>110400</v>
       </c>
       <c r="J513" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="514" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15097,20 +15095,20 @@
         <v>10</v>
       </c>
       <c r="C514" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D514" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D514" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E514" s="9">
         <v>3424</v>
       </c>
       <c r="H514">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>41088</v>
       </c>
       <c r="J514" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="515" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15121,20 +15119,20 @@
         <v>10</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E515" s="4">
         <v>1800</v>
       </c>
       <c r="H515">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>21600</v>
       </c>
       <c r="J515" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="516" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15145,23 +15143,23 @@
         <v>4</v>
       </c>
       <c r="C516" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D516" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D516" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="E516" s="5">
         <v>5600</v>
       </c>
       <c r="H516">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>67200</v>
       </c>
       <c r="I516" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J516" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="J516" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="517" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15172,23 +15170,23 @@
         <v>4</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E517" s="5">
         <v>5400</v>
       </c>
       <c r="H517">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>64800</v>
       </c>
       <c r="I517" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J517" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="J517" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="518" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15199,23 +15197,23 @@
         <v>4</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E518" s="9">
         <v>5000</v>
       </c>
       <c r="H518">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>60000</v>
       </c>
       <c r="I518" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="J518" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="J518" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="519" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15226,23 +15224,23 @@
         <v>4</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E519" s="9">
         <v>5000</v>
       </c>
       <c r="H519">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>60000</v>
       </c>
       <c r="I519" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="J519" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="J519" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="520" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15253,23 +15251,23 @@
         <v>4</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E520" s="9">
         <v>5000</v>
       </c>
       <c r="H520">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>60000</v>
       </c>
       <c r="I520" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J520" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="J520" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="521" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15280,10 +15278,10 @@
         <v>4</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E521" s="5">
         <v>3800</v>
@@ -15292,16 +15290,16 @@
         <v>0</v>
       </c>
       <c r="G521" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H521" s="8">
         <v>45600</v>
       </c>
       <c r="I521" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J521" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="J521" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="522" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15312,10 +15310,10 @@
         <v>4</v>
       </c>
       <c r="C522" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D522" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D522" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="E522" s="5">
         <v>3700</v>
@@ -15325,7 +15323,7 @@
         <v>44400</v>
       </c>
       <c r="J522" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="523" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15336,10 +15334,10 @@
         <v>4</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E523" s="9">
         <v>3600</v>
@@ -15351,14 +15349,14 @@
         <v>0</v>
       </c>
       <c r="H523">
-        <f t="shared" ref="H523:H527" si="53">E523*12</f>
+        <f t="shared" ref="H523:H527" si="54">E523*12</f>
         <v>43200</v>
       </c>
       <c r="I523" s="4">
         <v>5</v>
       </c>
       <c r="J523" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="524" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15369,10 +15367,10 @@
         <v>10</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E524" s="9">
         <v>1000</v>
@@ -15384,14 +15382,14 @@
         <v>0</v>
       </c>
       <c r="H524">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>12000</v>
       </c>
       <c r="I524" s="4">
         <v>0</v>
       </c>
       <c r="J524" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="525" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15402,7 +15400,7 @@
         <v>10</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D525" s="4" t="s">
         <v>6</v>
@@ -15411,7 +15409,7 @@
         <v>1000</v>
       </c>
       <c r="H525">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>12000</v>
       </c>
     </row>
@@ -15423,20 +15421,20 @@
         <v>10</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E526" s="4">
         <v>1300</v>
       </c>
       <c r="H526">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15600</v>
       </c>
       <c r="J526" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="527" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15447,7 +15445,7 @@
         <v>10</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D527" s="4" t="s">
         <v>6</v>
@@ -15456,7 +15454,7 @@
         <v>1500</v>
       </c>
       <c r="H527">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>18000</v>
       </c>
     </row>
@@ -15468,7 +15466,7 @@
         <v>4</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D528" s="4" t="s">
         <v>6</v>
@@ -15498,7 +15496,7 @@
         <v>4</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D529" s="4" t="s">
         <v>6</v>
@@ -15523,7 +15521,7 @@
         <v>10</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>6</v>
@@ -15555,7 +15553,7 @@
         <v>4</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D531" s="4" t="s">
         <v>6</v>
@@ -15570,7 +15568,7 @@
         <v>80000</v>
       </c>
       <c r="J531" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="532" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15581,7 +15579,7 @@
         <v>4</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D532" s="4" t="s">
         <v>6</v>
@@ -15600,7 +15598,7 @@
         <v>86900</v>
       </c>
       <c r="I532" s="4">
-        <f t="shared" ref="I532:I533" si="54">H532*0.15</f>
+        <f t="shared" ref="I532:I533" si="55">H532*0.15</f>
         <v>13035</v>
       </c>
     </row>
@@ -15612,7 +15610,7 @@
         <v>4</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D533" s="4" t="s">
         <v>6</v>
@@ -15630,11 +15628,11 @@
         <v>79100</v>
       </c>
       <c r="I533" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>11865</v>
       </c>
       <c r="J533" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="534" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15645,7 +15643,7 @@
         <v>4</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D534" s="4" t="s">
         <v>6</v>
@@ -15668,7 +15666,7 @@
         <v>16800</v>
       </c>
       <c r="J534" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="535" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15679,7 +15677,7 @@
         <v>4</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D535" s="4" t="s">
         <v>6</v>
@@ -15698,7 +15696,7 @@
         <v>84500</v>
       </c>
       <c r="J535" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="536" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15709,7 +15707,7 @@
         <v>10</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>6</v>
@@ -15718,7 +15716,7 @@
         <v>2500</v>
       </c>
       <c r="H536">
-        <f t="shared" ref="H536:H546" si="55">E536*12+F536+G536</f>
+        <f t="shared" ref="H536:H546" si="56">E536*12+F536+G536</f>
         <v>30000</v>
       </c>
     </row>
@@ -15730,7 +15728,7 @@
         <v>10</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>6</v>
@@ -15739,7 +15737,7 @@
         <v>2500</v>
       </c>
       <c r="H537">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>30000</v>
       </c>
     </row>
@@ -15751,7 +15749,7 @@
         <v>10</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>6</v>
@@ -15760,7 +15758,7 @@
         <v>2200</v>
       </c>
       <c r="H538">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>26400</v>
       </c>
     </row>
@@ -15772,7 +15770,7 @@
         <v>10</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>6</v>
@@ -15781,7 +15779,7 @@
         <v>2200</v>
       </c>
       <c r="H539">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>26400</v>
       </c>
     </row>
@@ -15793,7 +15791,7 @@
         <v>10</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D540" s="4" t="s">
         <v>6</v>
@@ -15802,7 +15800,7 @@
         <v>2200</v>
       </c>
       <c r="H540">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>26400</v>
       </c>
     </row>
@@ -15814,7 +15812,7 @@
         <v>10</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D541" s="4" t="s">
         <v>6</v>
@@ -15823,11 +15821,11 @@
         <v>2200</v>
       </c>
       <c r="H541">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>26400</v>
       </c>
       <c r="J541" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="542" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15838,7 +15836,7 @@
         <v>10</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D542" s="4" t="s">
         <v>6</v>
@@ -15847,7 +15845,7 @@
         <v>2200</v>
       </c>
       <c r="H542">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>26400</v>
       </c>
     </row>
@@ -15859,7 +15857,7 @@
         <v>10</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D543" s="4" t="s">
         <v>6</v>
@@ -15868,7 +15866,7 @@
         <v>2200</v>
       </c>
       <c r="H543">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>26400</v>
       </c>
     </row>
@@ -15880,7 +15878,7 @@
         <v>10</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D544" s="4" t="s">
         <v>6</v>
@@ -15889,7 +15887,7 @@
         <v>2200</v>
       </c>
       <c r="H544">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>26400</v>
       </c>
     </row>
@@ -15901,20 +15899,20 @@
         <v>10</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E545" s="9">
         <v>2200</v>
       </c>
       <c r="H545">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>26400</v>
       </c>
       <c r="J545" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="546" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -15925,7 +15923,7 @@
         <v>10</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D546" s="4" t="s">
         <v>6</v>
@@ -15934,7 +15932,7 @@
         <v>2200</v>
       </c>
       <c r="H546">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>26400</v>
       </c>
     </row>
@@ -16001,7 +15999,7 @@
         <v>10</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D549" s="4" t="s">
         <v>6</v>
@@ -16022,7 +16020,7 @@
         <v>10</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D550" s="4" t="s">
         <v>6</v>
@@ -16031,11 +16029,11 @@
         <v>5500</v>
       </c>
       <c r="H550">
-        <f t="shared" ref="H550:H553" si="56">E550*12</f>
+        <f t="shared" ref="H550:H553" si="57">E550*12</f>
         <v>66000</v>
       </c>
       <c r="J550" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="551" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -16046,7 +16044,7 @@
         <v>10</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D551" s="4" t="s">
         <v>6</v>
@@ -16055,7 +16053,7 @@
         <v>1500</v>
       </c>
       <c r="H551">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>18000</v>
       </c>
     </row>
@@ -16067,7 +16065,7 @@
         <v>10</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D552" s="4" t="s">
         <v>6</v>
@@ -16076,7 +16074,7 @@
         <v>1500</v>
       </c>
       <c r="H552">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>18000</v>
       </c>
     </row>
@@ -16088,7 +16086,7 @@
         <v>10</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D553" s="4" t="s">
         <v>6</v>
@@ -16097,11 +16095,11 @@
         <v>1120</v>
       </c>
       <c r="H553">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>13440</v>
       </c>
       <c r="J553" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="554" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -16112,7 +16110,7 @@
         <v>4</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D554" s="4" t="s">
         <v>6</v>
@@ -16141,7 +16139,7 @@
         <v>4</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D555" s="4" t="s">
         <v>6</v>
@@ -16171,7 +16169,7 @@
         <v>4</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D556" s="4" t="s">
         <v>6</v>
@@ -16180,11 +16178,11 @@
         <v>7000</v>
       </c>
       <c r="H556">
-        <f t="shared" ref="H556:H560" si="57">E556*12</f>
+        <f t="shared" ref="H556:H560" si="58">E556*12</f>
         <v>84000</v>
       </c>
       <c r="J556" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="557" spans="1:10" ht="13" x14ac:dyDescent="0.15">
@@ -16195,7 +16193,7 @@
         <v>10</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D557" s="4" t="s">
         <v>6</v>
@@ -16204,7 +16202,7 @@
         <v>2610</v>
       </c>
       <c r="H557">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>31320</v>
       </c>
     </row>
@@ -16216,7 +16214,7 @@
         <v>10</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D558" s="4" t="s">
         <v>6</v>
@@ -16225,7 +16223,7 @@
         <v>2500</v>
       </c>
       <c r="H558">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>30000</v>
       </c>
     </row>
@@ -16237,7 +16235,7 @@
         <v>10</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D559" s="4" t="s">
         <v>6</v>
@@ -16246,7 +16244,7 @@
         <v>2500</v>
       </c>
       <c r="H559">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>30000</v>
       </c>
     </row>
@@ -16258,7 +16256,7 @@
         <v>10</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D560" s="4" t="s">
         <v>21</v>
@@ -16267,7 +16265,7 @@
         <v>2610</v>
       </c>
       <c r="H560">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>31320</v>
       </c>
     </row>
@@ -16573,12 +16571,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{96159FB4-A41E-41F0-82FC-34B374954062}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4839B331-E2E3-46A1-91FC-3920C5B6BEA7}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:P626" xr:uid="{0FE71BE3-B14B-2E4C-9406-99AF914C8869}">
+      <autoFilter ref="A2:P626" xr:uid="{D2CAC67A-EDDF-EC44-ACAE-C1EF52C4EA5F}">
         <filterColumn colId="1">
           <filters>
-            <filter val="Internship"/>
+            <filter val="Fresh Grad"/>
+            <filter val="International Graduate program"/>
+            <filter val="Junior (0 - 3 years)"/>
+            <filter val="Mid (4 - 7 years)"/>
             <filter val="Mid Career Switch"/>
             <filter val="Semi-mid"/>
             <filter val="Senior (8+ years)"/>
@@ -16587,17 +16588,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{2C57CA31-A5F3-4298-AAC2-CF1BEC295330}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{FF2CC13D-313E-4E5D-948E-15A6E3D40D82}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:P44" xr:uid="{1BAC6DB2-5C5F-5842-9617-CCED3E9807AB}"/>
-    </customSheetView>
-    <customSheetView guid="{05BF6B27-78E1-41B6-89CC-B623511C44F1}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="E1:E661" xr:uid="{23983FE3-DB00-974E-AF04-FDAAB6D2DEC7}"/>
+      <autoFilter ref="A1:J607" xr:uid="{B22679D9-C19C-C143-8CC6-DDA400E933EE}"/>
     </customSheetView>
     <customSheetView guid="{95B52AD4-CE9C-43B5-ADDC-C1B3B279BDF7}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:P630" xr:uid="{174EAE8E-7568-0E45-8598-5B84CA5258FE}">
+      <autoFilter ref="A2:P630" xr:uid="{0605810A-DCB8-3743-A9F9-DE6C8992F650}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="Fresh Grad"/>
@@ -16670,19 +16667,20 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{FF2CC13D-313E-4E5D-948E-15A6E3D40D82}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{05BF6B27-78E1-41B6-89CC-B623511C44F1}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:J607" xr:uid="{A6B463CE-1A37-ED4D-BE4E-17D1373B9B4C}"/>
+      <autoFilter ref="E1:E661" xr:uid="{219330B4-2652-ED40-8755-8B9027B2010E}"/>
     </customSheetView>
-    <customSheetView guid="{4839B331-E2E3-46A1-91FC-3920C5B6BEA7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2C57CA31-A5F3-4298-AAC2-CF1BEC295330}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:P626" xr:uid="{D32758C0-C131-0441-ABA9-7A92FE142028}">
+      <autoFilter ref="A2:P44" xr:uid="{67D6F03F-25F9-904D-B804-4C5767A51F79}"/>
+    </customSheetView>
+    <customSheetView guid="{96159FB4-A41E-41F0-82FC-34B374954062}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:P626" xr:uid="{6D59B895-3F7C-0947-B5DC-53BEFE81FC31}">
         <filterColumn colId="1">
           <filters>
-            <filter val="Fresh Grad"/>
-            <filter val="International Graduate program"/>
-            <filter val="Junior (0 - 3 years)"/>
-            <filter val="Mid (4 - 7 years)"/>
+            <filter val="Internship"/>
             <filter val="Mid Career Switch"/>
             <filter val="Semi-mid"/>
             <filter val="Senior (8+ years)"/>

--- a/apps/portal/prisma/salaries.xlsx
+++ b/apps/portal/prisma/salaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartlong/Desktop/tech-interview-handbook/apps/portal/prisma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD5D64F-759E-5E47-ABE2-E65941BCE8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A645B7-19E9-B54F-909E-60CA88EF3664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="All" guid="{FF2CC13D-313E-4E5D-948E-15A6E3D40D82}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Shopee Fresh Grads" guid="{95B52AD4-CE9C-43B5-ADDC-C1B3B279BDF7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 1" guid="{05BF6B27-78E1-41B6-89CC-B623511C44F1}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter for all" guid="{2C57CA31-A5F3-4298-AAC2-CF1BEC295330}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Internships" guid="{96159FB4-A41E-41F0-82FC-34B374954062}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Fresh Grad" guid="{4839B331-E2E3-46A1-91FC-3920C5B6BEA7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Internships" guid="{96159FB4-A41E-41F0-82FC-34B374954062}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter for all" guid="{2C57CA31-A5F3-4298-AAC2-CF1BEC295330}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{05BF6B27-78E1-41B6-89CC-B623511C44F1}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Shopee Fresh Grads" guid="{95B52AD4-CE9C-43B5-ADDC-C1B3B279BDF7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="All" guid="{FF2CC13D-313E-4E5D-948E-15A6E3D40D82}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2106,7 +2106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AM660"/>
@@ -2115,7 +2115,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2181,12 +2181,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
+        <f>K2</f>
+        <v>8333</v>
+      </c>
+      <c r="H2">
         <f>K2*12</f>
         <v>99996</v>
-      </c>
-      <c r="H2">
-        <f>E2*12</f>
-        <v>1199952</v>
       </c>
       <c r="K2" s="9">
         <v>8333</v>
@@ -2195,7 +2195,7 @@
       <c r="AJ2" s="4"/>
       <c r="AM2" s="4"/>
     </row>
-    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>44546.68898146991</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="AJ3" s="7"/>
       <c r="AM3" s="7"/>
     </row>
-    <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>44510.553654108793</v>
       </c>
@@ -2249,7 +2249,7 @@
       <c r="AJ4" s="4"/>
       <c r="AM4" s="4"/>
     </row>
-    <row r="5" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>44510.677436840277</v>
       </c>
@@ -2293,8 +2293,8 @@
         <v>6</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" ref="E6:E7" si="1">K6*12</f>
-        <v>69000</v>
+        <f t="shared" ref="E6:E7" si="1">K6</f>
+        <v>5750</v>
       </c>
       <c r="G6" s="4">
         <v>1000</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>64800</v>
+        <v>5400</v>
       </c>
       <c r="H7" s="4">
         <v>72300</v>
@@ -2346,7 +2346,7 @@
       <c r="AJ7" s="4"/>
       <c r="AM7" s="4"/>
     </row>
-    <row r="8" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>44510.851196979165</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="AJ8" s="4"/>
       <c r="AM8" s="4"/>
     </row>
-    <row r="9" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>44511.006280370369</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="AJ9" s="4"/>
       <c r="AM9" s="4"/>
     </row>
-    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>44511.134967094906</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="AJ10" s="4"/>
       <c r="AM10" s="4"/>
     </row>
-    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>44557.489040439817</v>
       </c>
@@ -2468,16 +2468,16 @@
         <v>291</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" ref="E12:E13" si="3">K12*12</f>
+        <f t="shared" ref="E12:E13" si="3">K12</f>
+        <v>4167</v>
+      </c>
+      <c r="H12">
+        <f>K12*12</f>
         <v>50004</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>600048</v>
       </c>
       <c r="I12" s="4">
         <f>H12*0.25</f>
-        <v>150012</v>
+        <v>12501</v>
       </c>
       <c r="K12" s="4">
         <v>4167</v>
@@ -2501,11 +2501,11 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
+        <v>4600</v>
+      </c>
+      <c r="H13">
+        <f>K13*12</f>
         <v>55200</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>662400</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>117</v>
@@ -2517,7 +2517,7 @@
       <c r="AJ13" s="4"/>
       <c r="AM13" s="4"/>
     </row>
-    <row r="14" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>44515.483632083335</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="AJ14" s="4"/>
       <c r="AM14" s="4"/>
     </row>
-    <row r="15" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>44515.628042442127</v>
       </c>
@@ -2585,8 +2585,8 @@
         <v>6</v>
       </c>
       <c r="E16" s="9">
-        <f>K16*12</f>
-        <v>78000</v>
+        <f>K16</f>
+        <v>6500</v>
       </c>
       <c r="H16" s="4">
         <v>250000</v>
@@ -2602,7 +2602,7 @@
       <c r="AJ16" s="4"/>
       <c r="AM16" s="4"/>
     </row>
-    <row r="17" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>44510.487800277777</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="AJ17" s="4"/>
       <c r="AM17" s="4"/>
     </row>
-    <row r="18" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>44510.564924097227</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="AJ18" s="4"/>
       <c r="AM18" s="4"/>
     </row>
-    <row r="19" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>44548.666597337964</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="AJ19" s="4"/>
       <c r="AM19" s="4"/>
     </row>
-    <row r="20" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>44511.529611053236</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="AJ20" s="4"/>
       <c r="AM20" s="4"/>
     </row>
-    <row r="21" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>44593.816985567129</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="AJ21" s="4"/>
       <c r="AM21" s="4"/>
     </row>
-    <row r="22" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>44510.630256168981</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="AJ22" s="4"/>
       <c r="AM22" s="4"/>
     </row>
-    <row r="23" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>44709.080166782413</v>
       </c>
@@ -2811,8 +2811,8 @@
         <v>6</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" ref="E24:E25" si="5">K24*12</f>
-        <v>67200</v>
+        <f t="shared" ref="E24:E25" si="5">K24</f>
+        <v>5600</v>
       </c>
       <c r="F24" s="4">
         <v>40000</v>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="5"/>
-        <v>60000</v>
+        <v>5000</v>
       </c>
       <c r="H25" s="4">
         <v>65000</v>
@@ -2865,7 +2865,7 @@
       <c r="AJ25" s="4"/>
       <c r="AM25" s="4"/>
     </row>
-    <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>44511.920327384258</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="AJ26" s="4"/>
       <c r="AM26" s="4"/>
     </row>
-    <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>44656.168807835653</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="AJ27" s="4"/>
       <c r="AM27" s="4"/>
     </row>
-    <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>44510.480836666669</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="AJ28" s="4"/>
       <c r="AM28" s="4"/>
     </row>
-    <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>44510.629012870369</v>
       </c>
@@ -2987,8 +2987,8 @@
         <v>169</v>
       </c>
       <c r="E30" s="9">
-        <f>K30*12</f>
-        <v>34800</v>
+        <f>K30</f>
+        <v>2900</v>
       </c>
       <c r="H30" s="4">
         <v>37700</v>
@@ -3003,7 +3003,7 @@
       <c r="AJ30" s="4"/>
       <c r="AM30" s="4"/>
     </row>
-    <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>44514.43615991898</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="AJ31" s="4"/>
       <c r="AM31" s="4"/>
     </row>
-    <row r="32" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>44586.929047754631</v>
       </c>
@@ -3074,8 +3074,8 @@
         <v>74</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" ref="E33:E34" si="7">K33*12</f>
-        <v>60000</v>
+        <f t="shared" ref="E33:E34" si="7">K33</f>
+        <v>5000</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="E34" s="9">
         <f t="shared" si="7"/>
-        <v>72996</v>
+        <v>6083</v>
       </c>
       <c r="F34" s="4">
         <v>25000</v>
@@ -3136,7 +3136,7 @@
       <c r="AJ34" s="4"/>
       <c r="AM34" s="4"/>
     </row>
-    <row r="35" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>44510.566767442127</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="AJ35" s="4"/>
       <c r="AM35" s="4"/>
     </row>
-    <row r="36" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>44511.849501874996</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="AJ36" s="4"/>
       <c r="AM36" s="4"/>
     </row>
-    <row r="37" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>44624.739614965278</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="AJ37" s="4"/>
       <c r="AM37" s="4"/>
     </row>
-    <row r="38" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>44510.557097650468</v>
       </c>
@@ -3244,7 +3244,7 @@
       <c r="AJ38" s="4"/>
       <c r="AM38" s="4"/>
     </row>
-    <row r="39" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>44510.711727395828</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="AJ39" s="4"/>
       <c r="AM39" s="4"/>
     </row>
-    <row r="40" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>44513.102915706018</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="AJ40" s="4"/>
       <c r="AM40" s="7"/>
     </row>
-    <row r="41" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>44535.87282971065</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="AJ41" s="7"/>
       <c r="AM41" s="4"/>
     </row>
-    <row r="42" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>44596.762471585651</v>
       </c>
@@ -3369,12 +3369,12 @@
         <v>6</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" ref="E43:E45" si="9">K43*12</f>
+        <f t="shared" ref="E43:E45" si="9">K43</f>
+        <v>4000</v>
+      </c>
+      <c r="H43">
+        <f>K43*12</f>
         <v>48000</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="8"/>
-        <v>576000</v>
       </c>
       <c r="K43" s="4">
         <v>4000</v>
@@ -3398,11 +3398,11 @@
       </c>
       <c r="E44" s="9">
         <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="H44">
+        <f>K44*12</f>
         <v>48000</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="8"/>
-        <v>576000</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>307</v>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="E45" s="9">
         <f t="shared" si="9"/>
-        <v>84000</v>
+        <v>7000</v>
       </c>
       <c r="F45" s="4">
         <v>20000</v>
@@ -3450,7 +3450,7 @@
       <c r="AJ45" s="4"/>
       <c r="AM45" s="4"/>
     </row>
-    <row r="46" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44520.601552245367</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="AJ46" s="4"/>
       <c r="AM46" s="4"/>
     </row>
-    <row r="47" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>44521.487961678242</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="AJ47" s="4"/>
       <c r="AM47" s="4"/>
     </row>
-    <row r="48" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>44510.552713923607</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="AJ48" s="4"/>
       <c r="AM48" s="4"/>
     </row>
-    <row r="49" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>44533.301966851854</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="AJ49" s="4"/>
       <c r="AM49" s="4"/>
     </row>
-    <row r="50" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>44529.842463599532</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="AJ50" s="4"/>
       <c r="AM50" s="4"/>
     </row>
-    <row r="51" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>44791.900657615741</v>
       </c>
@@ -3635,8 +3635,8 @@
         <v>6</v>
       </c>
       <c r="E52" s="9">
-        <f>K52*12</f>
-        <v>61200</v>
+        <f>K52</f>
+        <v>5100</v>
       </c>
       <c r="H52" s="4">
         <v>61200</v>
@@ -3651,7 +3651,7 @@
       <c r="AJ52" s="4"/>
       <c r="AM52" s="4"/>
     </row>
-    <row r="53" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>44511.88322319444</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="AJ53" s="4"/>
       <c r="AM53" s="4"/>
     </row>
-    <row r="54" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>44832.695674664355</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="AJ54" s="4"/>
       <c r="AM54" s="4"/>
     </row>
-    <row r="55" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>44511.899079826384</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="AJ55" s="4"/>
       <c r="AM55" s="4"/>
     </row>
-    <row r="56" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:39" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>44700.581303379629</v>
       </c>
@@ -3776,8 +3776,8 @@
         <v>6</v>
       </c>
       <c r="E57" s="9">
-        <f>K57*12</f>
-        <v>1620000</v>
+        <f>K57</f>
+        <v>135000</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -3795,7 +3795,7 @@
       <c r="AJ57" s="4"/>
       <c r="AM57" s="4"/>
     </row>
-    <row r="58" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>44565.850571967589</v>
       </c>
@@ -3842,8 +3842,8 @@
         <v>6</v>
       </c>
       <c r="E59" s="9">
-        <f>K59*12</f>
-        <v>108000</v>
+        <f>K59</f>
+        <v>9000</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -3861,7 +3861,7 @@
       <c r="AJ59" s="11"/>
       <c r="AM59" s="4"/>
     </row>
-    <row r="60" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>44539.681102870367</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="AJ60" s="4"/>
       <c r="AM60" s="4"/>
     </row>
-    <row r="61" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>44510.584511921297</v>
       </c>
@@ -3929,8 +3929,8 @@
         <v>39</v>
       </c>
       <c r="E62" s="9">
-        <f t="shared" ref="E62:E74" si="12">K62*12</f>
-        <v>168000</v>
+        <f t="shared" ref="E62:E74" si="12">K62</f>
+        <v>14000</v>
       </c>
       <c r="F62" s="4">
         <v>200000</v>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="I62" s="4">
         <f>E62*3</f>
-        <v>504000</v>
+        <v>42000</v>
       </c>
       <c r="K62" s="4">
         <v>14000</v>
@@ -3967,14 +3967,14 @@
       </c>
       <c r="E63" s="9">
         <f t="shared" si="12"/>
-        <v>100992</v>
+        <v>8416</v>
       </c>
       <c r="F63" s="4">
         <v>80000</v>
       </c>
       <c r="H63">
-        <f>E63*12 + 20000</f>
-        <v>1231904</v>
+        <f>K63*12 + 20000</f>
+        <v>120992</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>79</v>
@@ -4001,18 +4001,18 @@
       </c>
       <c r="E64" s="9">
         <f t="shared" si="12"/>
-        <v>88200</v>
+        <v>7350</v>
       </c>
       <c r="F64" s="4">
         <v>22260</v>
       </c>
       <c r="H64">
-        <f>E64*12+F64</f>
-        <v>1080660</v>
+        <f>K64*12+F64</f>
+        <v>110460</v>
       </c>
       <c r="I64" s="4">
         <f t="shared" ref="I64:I71" si="13">E64*1.5</f>
-        <v>132300</v>
+        <v>11025</v>
       </c>
       <c r="K64" s="9">
         <v>7350</v>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="E65" s="9">
         <f t="shared" si="12"/>
-        <v>86400</v>
+        <v>7200</v>
       </c>
       <c r="F65" s="4">
         <v>0</v>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="I65" s="4">
         <f t="shared" si="13"/>
-        <v>129600</v>
+        <v>10800</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>107</v>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="E66" s="9">
         <f t="shared" si="12"/>
-        <v>86400</v>
+        <v>7200</v>
       </c>
       <c r="F66" s="4">
         <v>0</v>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="I66" s="4">
         <f t="shared" si="13"/>
-        <v>129600</v>
+        <v>10800</v>
       </c>
       <c r="K66" s="4">
         <v>7200</v>
@@ -4113,11 +4113,11 @@
       </c>
       <c r="E67" s="9">
         <f t="shared" si="12"/>
+        <v>7000</v>
+      </c>
+      <c r="H67">
+        <f>K67*12</f>
         <v>84000</v>
-      </c>
-      <c r="H67">
-        <f>E67*12</f>
-        <v>1008000</v>
       </c>
       <c r="I67" s="4"/>
       <c r="K67" s="9">
@@ -4142,11 +4142,11 @@
       </c>
       <c r="E68" s="9">
         <f t="shared" si="12"/>
+        <v>7000</v>
+      </c>
+      <c r="H68">
+        <f>K68*12</f>
         <v>84000</v>
-      </c>
-      <c r="H68">
-        <f>E68*12</f>
-        <v>1008000</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="E69" s="9">
         <f t="shared" si="12"/>
-        <v>84000</v>
+        <v>7000</v>
       </c>
       <c r="F69" s="4">
         <v>0</v>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="I69" s="4">
         <f t="shared" si="13"/>
-        <v>126000</v>
+        <v>10500</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>122</v>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="E70" s="9">
         <f t="shared" si="12"/>
-        <v>84000</v>
+        <v>7000</v>
       </c>
       <c r="F70" s="4">
         <v>0</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="I70" s="4">
         <f t="shared" si="13"/>
-        <v>126000</v>
+        <v>10500</v>
       </c>
       <c r="K70" s="4">
         <v>7000</v>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="E71" s="9">
         <f t="shared" si="12"/>
-        <v>81600</v>
+        <v>6800</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>132</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="I71" s="4">
         <f t="shared" si="13"/>
-        <v>122400</v>
+        <v>10200</v>
       </c>
       <c r="K71" s="9">
         <v>6800</v>
@@ -4288,14 +4288,14 @@
       </c>
       <c r="E72" s="9">
         <f t="shared" si="12"/>
-        <v>81600</v>
+        <v>6800</v>
       </c>
       <c r="H72" s="4">
         <v>93150</v>
       </c>
       <c r="I72" s="4">
         <f>E72*1.5</f>
-        <v>122400</v>
+        <v>10200</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>133</v>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E73" s="9">
         <f t="shared" si="12"/>
-        <v>81600</v>
+        <v>6800</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="I73" s="4">
         <f>E73*3</f>
-        <v>244800</v>
+        <v>20400</v>
       </c>
       <c r="K73" s="4">
         <v>6800</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="E74" s="9">
         <f t="shared" si="12"/>
-        <v>78000</v>
+        <v>6500</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="I74" s="4">
         <f>E74*3</f>
-        <v>234000</v>
+        <v>19500</v>
       </c>
       <c r="K74" s="8">
         <v>6500</v>
@@ -4381,7 +4381,7 @@
       <c r="AJ74" s="4"/>
       <c r="AM74" s="4"/>
     </row>
-    <row r="75" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>44510.728143530097</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="AJ75" s="4"/>
       <c r="AM75" s="4"/>
     </row>
-    <row r="76" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>44818.119529270829</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="AJ76" s="4"/>
       <c r="AM76" s="4"/>
     </row>
-    <row r="77" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>44510.478402326393</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="AJ77" s="4"/>
       <c r="AM77" s="4"/>
     </row>
-    <row r="78" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>44510.541982233801</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="AJ78" s="4"/>
       <c r="AM78" s="4"/>
     </row>
-    <row r="79" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>44510.547441145834</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="AJ79" s="4"/>
       <c r="AM79" s="4"/>
     </row>
-    <row r="80" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>44510.562489467593</v>
       </c>
@@ -4546,7 +4546,7 @@
       <c r="AJ80" s="4"/>
       <c r="AM80" s="4"/>
     </row>
-    <row r="81" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>44510.628581249999</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="AJ81" s="4"/>
       <c r="AM81" s="4"/>
     </row>
-    <row r="82" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>44510.892351539354</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="AJ82" s="4"/>
       <c r="AM82" s="4"/>
     </row>
-    <row r="83" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>44518.816915925927</v>
       </c>
@@ -4636,7 +4636,7 @@
       <c r="AJ83" s="4"/>
       <c r="AM83" s="4"/>
     </row>
-    <row r="84" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>44568.559487824074</v>
       </c>
@@ -4663,7 +4663,7 @@
       <c r="AJ84" s="4"/>
       <c r="AM84" s="4"/>
     </row>
-    <row r="85" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>44611.078805671292</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="AJ85" s="4"/>
       <c r="AM85" s="4"/>
     </row>
-    <row r="86" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>44621.960345543979</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="AJ86" s="4"/>
       <c r="AM86" s="4"/>
     </row>
-    <row r="87" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>44510.580400775463</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="AJ87" s="4"/>
       <c r="AM87" s="4"/>
     </row>
-    <row r="88" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>44511.419728668981</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="AJ88" s="4"/>
       <c r="AM88" s="4"/>
     </row>
-    <row r="89" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>44607.662346157405</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="AJ89" s="4"/>
       <c r="AM89" s="4"/>
     </row>
-    <row r="90" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>44639.551878645834</v>
       </c>
@@ -4854,8 +4854,8 @@
         <v>6</v>
       </c>
       <c r="E91" s="9">
-        <f t="shared" ref="E91:E92" si="15">K91*12</f>
-        <v>78000</v>
+        <f t="shared" ref="E91:E92" si="15">K91</f>
+        <v>6500</v>
       </c>
       <c r="F91" s="4">
         <v>39000</v>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="E92" s="9">
         <f t="shared" si="15"/>
-        <v>78000</v>
+        <v>6500</v>
       </c>
       <c r="F92" s="4">
         <v>39000</v>
@@ -4909,7 +4909,7 @@
       <c r="AJ92" s="4"/>
       <c r="AM92" s="4"/>
     </row>
-    <row r="93" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>44609.948733391204</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="AJ93" s="4"/>
       <c r="AM93" s="4"/>
     </row>
-    <row r="94" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>44587.908816157404</v>
       </c>
@@ -4963,7 +4963,7 @@
       <c r="AJ94" s="4"/>
       <c r="AM94" s="4"/>
     </row>
-    <row r="95" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>44677.164409259261</v>
       </c>
@@ -4993,7 +4993,7 @@
       <c r="AJ95" s="4"/>
       <c r="AM95" s="4"/>
     </row>
-    <row r="96" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>44613.9745333912</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="AJ96" s="4"/>
       <c r="AM96" s="4"/>
     </row>
-    <row r="97" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>44591.050922719907</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="AJ97" s="4"/>
       <c r="AM97" s="4"/>
     </row>
-    <row r="98" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>44512.01155145833</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="AJ98" s="4"/>
       <c r="AM98" s="4"/>
     </row>
-    <row r="99" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>44510.540880324072</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="AJ99" s="4"/>
       <c r="AM99" s="4"/>
     </row>
-    <row r="100" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>44510.54648553241</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="AJ100" s="4"/>
       <c r="AM100" s="4"/>
     </row>
-    <row r="101" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>44763.915913784724</v>
       </c>
@@ -5158,7 +5158,7 @@
       <c r="AJ101" s="4"/>
       <c r="AM101" s="4"/>
     </row>
-    <row r="102" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>44510.554879571762</v>
       </c>
@@ -5199,8 +5199,8 @@
         <v>6</v>
       </c>
       <c r="E103" s="9">
-        <f>K103*12</f>
-        <v>150000</v>
+        <f>K103</f>
+        <v>12500</v>
       </c>
       <c r="H103" s="4">
         <v>150000</v>
@@ -5215,7 +5215,7 @@
       <c r="AJ103" s="4"/>
       <c r="AM103" s="4"/>
     </row>
-    <row r="104" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>44533.4725215625</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="AJ104" s="4"/>
       <c r="AM104" s="4"/>
     </row>
-    <row r="105" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>44600.523325034723</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="AJ105" s="4"/>
       <c r="AM105" s="4"/>
     </row>
-    <row r="106" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>44611.668623078702</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="AJ106" s="4"/>
       <c r="AM106" s="4"/>
     </row>
-    <row r="107" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>44647.922196481479</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="AJ107" s="4"/>
       <c r="AM107" s="4"/>
     </row>
-    <row r="108" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>44705.41298256944</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="AJ108" s="4"/>
       <c r="AM108" s="4"/>
     </row>
-    <row r="109" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>44586.965328634258</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="AJ109" s="4"/>
       <c r="AM109" s="4"/>
     </row>
-    <row r="110" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>44510.542931851851</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="AJ110" s="4"/>
       <c r="AM110" s="4"/>
     </row>
-    <row r="111" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>44663.804541967591</v>
       </c>
@@ -5448,8 +5448,8 @@
         <v>6</v>
       </c>
       <c r="E112" s="9">
-        <f t="shared" ref="E112:E115" si="18">K112*12</f>
-        <v>51600</v>
+        <f t="shared" ref="E112:E115" si="18">K112</f>
+        <v>4300</v>
       </c>
       <c r="H112" s="4">
         <v>51600</v>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E113" s="9">
         <f t="shared" si="18"/>
-        <v>111000</v>
+        <v>9250</v>
       </c>
       <c r="F113" s="4">
         <v>0</v>
@@ -5512,11 +5512,11 @@
       </c>
       <c r="E114" s="9">
         <f t="shared" si="18"/>
+        <v>7916</v>
+      </c>
+      <c r="H114">
+        <f>K114*12</f>
         <v>94992</v>
-      </c>
-      <c r="H114">
-        <f>E114*12</f>
-        <v>1139904</v>
       </c>
       <c r="K114" s="4">
         <v>7916</v>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="E115" s="9">
         <f t="shared" si="18"/>
-        <v>94992</v>
+        <v>7916</v>
       </c>
       <c r="H115" s="4">
         <v>103000</v>
@@ -5555,7 +5555,7 @@
       <c r="AJ115" s="4"/>
       <c r="AM115" s="4"/>
     </row>
-    <row r="116" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>44816.75204983796</v>
       </c>
@@ -5596,15 +5596,15 @@
         <v>6</v>
       </c>
       <c r="E117" s="9">
-        <f>K117*12</f>
-        <v>94992</v>
+        <f>K117</f>
+        <v>7916</v>
       </c>
       <c r="H117" s="4">
         <v>110000</v>
       </c>
       <c r="I117" s="4">
         <f>E117</f>
-        <v>94992</v>
+        <v>7916</v>
       </c>
       <c r="K117" s="4">
         <v>7916</v>
@@ -5613,7 +5613,7 @@
       <c r="AJ117" s="4"/>
       <c r="AM117" s="4"/>
     </row>
-    <row r="118" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>44510.700723912036</v>
       </c>
@@ -5640,7 +5640,7 @@
       <c r="AJ118" s="4"/>
       <c r="AM118" s="4"/>
     </row>
-    <row r="119" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>44516.528977812501</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="AJ119" s="4"/>
       <c r="AM119" s="4"/>
     </row>
-    <row r="120" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>44517.988584537037</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="AJ120" s="4"/>
       <c r="AM120" s="4"/>
     </row>
-    <row r="121" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>44553.55641208333</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="AJ121" s="4"/>
       <c r="AM121" s="4"/>
     </row>
-    <row r="122" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>44604.800185439817</v>
       </c>
@@ -5756,7 +5756,7 @@
       <c r="AJ122" s="4"/>
       <c r="AM122" s="4"/>
     </row>
-    <row r="123" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>44511.135492245376</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="AJ123" s="4"/>
       <c r="AM123" s="4"/>
     </row>
-    <row r="124" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
         <v>44714.456258703707</v>
       </c>
@@ -5813,7 +5813,7 @@
       <c r="AJ124" s="4"/>
       <c r="AM124" s="4"/>
     </row>
-    <row r="125" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
         <v>44511.834435902776</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="AJ125" s="4"/>
       <c r="AM125" s="4"/>
     </row>
-    <row r="126" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
         <v>44624.508427465276</v>
       </c>
@@ -5881,16 +5881,16 @@
         <v>36</v>
       </c>
       <c r="E127" s="9">
-        <f t="shared" ref="E127:E132" si="21">K127*12</f>
+        <f t="shared" ref="E127:E132" si="21">K127</f>
+        <v>15000</v>
+      </c>
+      <c r="H127">
+        <f>K127*12</f>
         <v>180000</v>
-      </c>
-      <c r="H127">
-        <f t="shared" si="20"/>
-        <v>2160000</v>
       </c>
       <c r="I127" s="4">
         <f>H127*0.25</f>
-        <v>540000</v>
+        <v>45000</v>
       </c>
       <c r="J127" s="4" t="s">
         <v>37</v>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="E128" s="9">
         <f t="shared" si="21"/>
-        <v>96000</v>
+        <v>8000</v>
       </c>
       <c r="F128" s="4">
         <v>0</v>
@@ -5953,11 +5953,11 @@
       </c>
       <c r="E129" s="9">
         <f t="shared" si="21"/>
+        <v>6500</v>
+      </c>
+      <c r="H129">
+        <f>K129*12</f>
         <v>78000</v>
-      </c>
-      <c r="H129">
-        <f>E129*12</f>
-        <v>936000</v>
       </c>
       <c r="K129" s="4">
         <v>6500</v>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="E130" s="9">
         <f t="shared" si="21"/>
-        <v>66000</v>
+        <v>5500</v>
       </c>
       <c r="F130" s="4">
         <v>0</v>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="E131" s="9">
         <f t="shared" si="21"/>
-        <v>66000</v>
+        <v>5500</v>
       </c>
       <c r="F131" s="4">
         <v>0</v>
@@ -6059,11 +6059,11 @@
       </c>
       <c r="E132" s="9">
         <f t="shared" si="21"/>
+        <v>5000</v>
+      </c>
+      <c r="H132">
+        <f>K132*12</f>
         <v>60000</v>
-      </c>
-      <c r="H132">
-        <f>E132*12</f>
-        <v>720000</v>
       </c>
       <c r="I132" s="4">
         <v>15000</v>
@@ -6075,7 +6075,7 @@
       <c r="AJ132" s="4"/>
       <c r="AM132" s="4"/>
     </row>
-    <row r="133" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
         <v>44705.589917187499</v>
       </c>
@@ -6102,7 +6102,7 @@
       <c r="AJ133" s="4"/>
       <c r="AM133" s="4"/>
     </row>
-    <row r="134" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
         <v>44512.703900868059</v>
       </c>
@@ -6129,7 +6129,7 @@
       <c r="AJ134" s="4"/>
       <c r="AM134" s="4"/>
     </row>
-    <row r="135" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
         <v>44513.653174039355</v>
       </c>
@@ -6159,7 +6159,7 @@
       <c r="AJ135" s="4"/>
       <c r="AM135" s="4"/>
     </row>
-    <row r="136" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
         <v>44687.594690393518</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="AJ136" s="4"/>
       <c r="AM136" s="4"/>
     </row>
-    <row r="137" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
         <v>44839.901574004631</v>
       </c>
@@ -6239,8 +6239,8 @@
         <v>6</v>
       </c>
       <c r="E138" s="9">
-        <f t="shared" ref="E138:E139" si="23">K138*12</f>
-        <v>85200</v>
+        <f t="shared" ref="E138:E139" si="23">K138</f>
+        <v>7100</v>
       </c>
       <c r="F138" s="4">
         <v>25000</v>
@@ -6280,15 +6280,15 @@
       </c>
       <c r="E139" s="9">
         <f t="shared" si="23"/>
+        <v>5417</v>
+      </c>
+      <c r="H139">
+        <f>K139*12</f>
         <v>65004</v>
-      </c>
-      <c r="H139">
-        <f>E139*12</f>
-        <v>780048</v>
       </c>
       <c r="I139" s="4">
         <f>H139*0.05</f>
-        <v>39002.400000000001</v>
+        <v>3250.2000000000003</v>
       </c>
       <c r="J139" s="4" t="s">
         <v>220</v>
@@ -6300,7 +6300,7 @@
       <c r="AJ139" s="4"/>
       <c r="AM139" s="4"/>
     </row>
-    <row r="140" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
         <v>44568.864931793985</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="AJ140" s="4"/>
       <c r="AM140" s="4"/>
     </row>
-    <row r="141" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
         <v>44799.842059074072</v>
       </c>
@@ -6354,7 +6354,7 @@
       <c r="AJ141" s="4"/>
       <c r="AM141" s="4"/>
     </row>
-    <row r="142" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
         <v>44510.559692418981</v>
       </c>
@@ -6381,7 +6381,7 @@
       <c r="AJ142" s="4"/>
       <c r="AM142" s="4"/>
     </row>
-    <row r="143" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
         <v>44841.073627384263</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="AJ143" s="4"/>
       <c r="AM143" s="4"/>
     </row>
-    <row r="144" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
         <v>44510.655465289354</v>
       </c>
@@ -6446,7 +6446,7 @@
       <c r="AJ144" s="4"/>
       <c r="AM144" s="4"/>
     </row>
-    <row r="145" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
         <v>44583.575910555555</v>
       </c>
@@ -6487,8 +6487,8 @@
         <v>219</v>
       </c>
       <c r="E146" s="9">
-        <f t="shared" ref="E146:E148" si="25">K146*12</f>
-        <v>66000</v>
+        <f t="shared" ref="E146:E148" si="25">K146</f>
+        <v>5500</v>
       </c>
       <c r="F146" s="4">
         <v>0</v>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="I146" s="4">
         <f t="shared" ref="I146:I147" si="26">E146*4</f>
-        <v>264000</v>
+        <v>22000</v>
       </c>
       <c r="K146" s="4">
         <v>5500</v>
@@ -6526,14 +6526,14 @@
       </c>
       <c r="E147" s="9">
         <f t="shared" si="25"/>
-        <v>64800</v>
+        <v>5400</v>
       </c>
       <c r="H147" s="4">
         <v>90000</v>
       </c>
       <c r="I147" s="4">
         <f t="shared" si="26"/>
-        <v>259200</v>
+        <v>21600</v>
       </c>
       <c r="K147" s="9">
         <v>5400</v>
@@ -6557,15 +6557,15 @@
       </c>
       <c r="E148" s="9">
         <f t="shared" si="25"/>
+        <v>5000</v>
+      </c>
+      <c r="H148">
+        <f>K148*12</f>
         <v>60000</v>
-      </c>
-      <c r="H148">
-        <f>E148*12</f>
-        <v>720000</v>
       </c>
       <c r="I148" s="4">
         <f>E148*4</f>
-        <v>240000</v>
+        <v>20000</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>242</v>
@@ -6577,7 +6577,7 @@
       <c r="AJ148" s="4"/>
       <c r="AM148" s="4"/>
     </row>
-    <row r="149" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
         <v>44788.431019976852</v>
       </c>
@@ -6604,7 +6604,7 @@
       <c r="AJ149" s="4"/>
       <c r="AM149" s="4"/>
     </row>
-    <row r="150" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
         <v>44808.782478761575</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="AJ150" s="4"/>
       <c r="AM150" s="4"/>
     </row>
-    <row r="151" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
         <v>44511.894871377313</v>
       </c>
@@ -6658,7 +6658,7 @@
       <c r="AJ151" s="4"/>
       <c r="AM151" s="4"/>
     </row>
-    <row r="152" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
         <v>44517.596870416666</v>
       </c>
@@ -6688,7 +6688,7 @@
       <c r="AJ152" s="4"/>
       <c r="AM152" s="4"/>
     </row>
-    <row r="153" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
         <v>44510.860155601855</v>
       </c>
@@ -6729,16 +6729,16 @@
         <v>169</v>
       </c>
       <c r="E154" s="9">
-        <f t="shared" ref="E154:E159" si="28">K154*12</f>
+        <f t="shared" ref="E154:E159" si="28">K154</f>
+        <v>5400</v>
+      </c>
+      <c r="H154">
+        <f>K154*12</f>
         <v>64800</v>
-      </c>
-      <c r="H154">
-        <f t="shared" si="27"/>
-        <v>777600</v>
       </c>
       <c r="I154" s="4">
         <f t="shared" ref="I154:I155" si="29">E154*3.5</f>
-        <v>226800</v>
+        <v>18900</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>222</v>
@@ -6765,14 +6765,14 @@
       </c>
       <c r="E155" s="9">
         <f t="shared" si="28"/>
-        <v>68400</v>
+        <v>5700</v>
       </c>
       <c r="H155" s="4">
         <v>84300</v>
       </c>
       <c r="I155" s="4">
         <f t="shared" si="29"/>
-        <v>239400</v>
+        <v>19950</v>
       </c>
       <c r="K155" s="4">
         <v>5700</v>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="E156" s="9">
         <f t="shared" si="28"/>
-        <v>60000</v>
+        <v>5000</v>
       </c>
       <c r="F156" s="4">
         <v>0</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="I156" s="4">
         <f>E156*3.5</f>
-        <v>210000</v>
+        <v>17500</v>
       </c>
       <c r="K156" s="9">
         <v>5000</v>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="E157" s="9">
         <f t="shared" si="28"/>
-        <v>60000</v>
+        <v>5000</v>
       </c>
       <c r="H157" s="4">
         <v>60000</v>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="E158" s="9">
         <f t="shared" si="28"/>
-        <v>74400</v>
+        <v>6200</v>
       </c>
       <c r="H158" s="4">
         <v>94700</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="E159" s="9">
         <f t="shared" si="28"/>
-        <v>60000</v>
+        <v>5000</v>
       </c>
       <c r="F159" s="4">
         <v>0</v>
@@ -6923,7 +6923,7 @@
       <c r="AJ159" s="4"/>
       <c r="AM159" s="4"/>
     </row>
-    <row r="160" spans="1:39" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:39" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
         <v>44510.573922638891</v>
       </c>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AJ160" s="4"/>
     </row>
-    <row r="161" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:36" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
         <v>44618.508122812498</v>
       </c>
@@ -6990,16 +6990,16 @@
         <v>6</v>
       </c>
       <c r="E162" s="9">
+        <f>K162</f>
+        <v>4200</v>
+      </c>
+      <c r="H162">
         <f>K162*12</f>
         <v>50400</v>
       </c>
-      <c r="H162">
-        <f t="shared" si="30"/>
-        <v>604800</v>
-      </c>
       <c r="I162" s="4">
         <f>H162*0.2</f>
-        <v>120960</v>
+        <v>10080</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>287</v>
@@ -7008,7 +7008,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:36" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
         <v>44724.434158738426</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:36" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
         <v>44840.536029849536</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:36" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
         <v>44595.56962174768</v>
       </c>
@@ -7094,15 +7094,15 @@
         <v>14</v>
       </c>
       <c r="E166" s="9">
-        <f t="shared" ref="E166:E169" si="31">K166*12</f>
-        <v>48000</v>
+        <f t="shared" ref="E166:E169" si="31">K166</f>
+        <v>4000</v>
       </c>
       <c r="H166" s="4">
         <v>48000</v>
       </c>
       <c r="I166" s="4">
         <f>E166*2</f>
-        <v>96000</v>
+        <v>8000</v>
       </c>
       <c r="K166" s="4">
         <v>4000</v>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="E167" s="9">
         <f t="shared" si="31"/>
-        <v>48000</v>
+        <v>4000</v>
       </c>
       <c r="H167" s="4">
         <v>48000</v>
@@ -7147,11 +7147,11 @@
       </c>
       <c r="E168" s="9">
         <f t="shared" si="31"/>
+        <v>4000</v>
+      </c>
+      <c r="H168">
+        <f>K168*12</f>
         <v>48000</v>
-      </c>
-      <c r="H168">
-        <f>E168*12</f>
-        <v>576000</v>
       </c>
       <c r="K168" s="4">
         <v>4000</v>
@@ -7172,11 +7172,11 @@
       </c>
       <c r="E169" s="9">
         <f t="shared" si="31"/>
+        <v>4000</v>
+      </c>
+      <c r="H169">
+        <f>K169*12</f>
         <v>48000</v>
-      </c>
-      <c r="H169">
-        <f t="shared" ref="H169:H172" si="32">E169*12</f>
-        <v>576000</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>311</v>
@@ -7185,7 +7185,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:36" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
         <v>44657.538136238421</v>
       </c>
@@ -7202,14 +7202,14 @@
         <v>1200</v>
       </c>
       <c r="H170">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="H169:H172" si="32">E170*12</f>
         <v>14400</v>
       </c>
       <c r="K170" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:36" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
         <v>44512.704694803237</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:36" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
         <v>44517.597516539347</v>
       </c>
@@ -7274,8 +7274,8 @@
         <v>6</v>
       </c>
       <c r="E173" s="9">
-        <f t="shared" ref="E173:E180" si="33">K173*12</f>
-        <v>117000</v>
+        <f t="shared" ref="E173:E180" si="33">K173</f>
+        <v>9750</v>
       </c>
       <c r="F173" s="4">
         <v>25000</v>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="E174" s="9">
         <f t="shared" si="33"/>
-        <v>94800</v>
+        <v>7900</v>
       </c>
       <c r="F174" s="4">
         <v>45000</v>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="I174" s="4">
         <f>E175*2</f>
-        <v>182400</v>
+        <v>15200</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>93</v>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="E175" s="9">
         <f t="shared" si="33"/>
-        <v>91200</v>
+        <v>7600</v>
       </c>
       <c r="F175" s="4">
         <v>30000</v>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="E176" s="9">
         <f t="shared" si="33"/>
-        <v>91200</v>
+        <v>7600</v>
       </c>
       <c r="F176" s="4">
         <v>35000</v>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="E177" s="9">
         <f t="shared" si="33"/>
-        <v>84000</v>
+        <v>7000</v>
       </c>
       <c r="F177" s="4">
         <v>35000</v>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="E178" s="9">
         <f t="shared" si="33"/>
-        <v>84000</v>
+        <v>7000</v>
       </c>
       <c r="F178" s="4">
         <v>35000</v>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="E179" s="9">
         <f t="shared" si="33"/>
-        <v>78000</v>
+        <v>6500</v>
       </c>
       <c r="F179" s="4">
         <v>0</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="E180" s="9">
         <f t="shared" si="33"/>
-        <v>72000</v>
+        <v>6000</v>
       </c>
       <c r="F180" s="4">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
         <v>44510.702857025462</v>
       </c>
@@ -7591,8 +7591,8 @@
         <v>488</v>
       </c>
       <c r="E182" s="9">
-        <f t="shared" ref="E182:E185" si="35">K182*12</f>
-        <v>113300</v>
+        <f t="shared" ref="E182:E185" si="35">K182</f>
+        <v>9441.6666666666661</v>
       </c>
       <c r="F182" s="4">
         <v>10200</v>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="E183" s="9">
         <f t="shared" si="35"/>
-        <v>81000</v>
+        <v>6750</v>
       </c>
       <c r="F183" s="4">
         <v>0</v>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="E184" s="9">
         <f t="shared" si="35"/>
-        <v>79200</v>
+        <v>6600</v>
       </c>
       <c r="F184" s="4">
         <v>0</v>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="I184" s="4">
         <f>E184*1.5</f>
-        <v>118800</v>
+        <v>9900</v>
       </c>
       <c r="K184" s="4">
         <v>6600</v>
@@ -7695,17 +7695,17 @@
       </c>
       <c r="E185" s="9">
         <f t="shared" si="35"/>
+        <v>5000</v>
+      </c>
+      <c r="H185">
+        <f>K185*12</f>
         <v>60000</v>
-      </c>
-      <c r="H185">
-        <f>E185*12</f>
-        <v>720000</v>
       </c>
       <c r="K185" s="4">
         <v>5000</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
         <v>44510.729476539353</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
         <v>44510.573025810183</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
         <v>44633.928085914347</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
         <v>44643.227205706018</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
         <v>44510.554286990737</v>
       </c>
@@ -7842,8 +7842,8 @@
         <v>6</v>
       </c>
       <c r="E191" s="9">
-        <f t="shared" ref="E191:E192" si="37">K191*12</f>
-        <v>84000</v>
+        <f t="shared" ref="E191:E192" si="37">K191</f>
+        <v>7000</v>
       </c>
       <c r="H191" s="4">
         <v>117500</v>
@@ -7873,15 +7873,15 @@
       </c>
       <c r="E192" s="9">
         <f t="shared" si="37"/>
+        <v>7000</v>
+      </c>
+      <c r="H192">
+        <f>K192*12</f>
         <v>84000</v>
-      </c>
-      <c r="H192">
-        <f>E192*12</f>
-        <v>1008000</v>
       </c>
       <c r="I192" s="4">
         <f>E192*3</f>
-        <v>252000</v>
+        <v>21000</v>
       </c>
       <c r="J192" s="4" t="s">
         <v>131</v>
@@ -7890,7 +7890,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
         <v>44510.588765462962</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
         <v>44555.597399467588</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
         <v>44591.975462071758</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
         <v>44839.901747083335</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
         <v>44510.658233391208</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
         <v>44512.581357962961</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
         <v>44527.947156099537</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
         <v>44530.426170486113</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
         <v>44510.554438749998</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
         <v>44520.487386446759</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
         <v>44842.736641296295</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
         <v>44510.580732037037</v>
       </c>
@@ -8198,12 +8198,12 @@
         <v>6</v>
       </c>
       <c r="E205" s="9">
-        <f t="shared" ref="E205:E208" si="39">K205*12</f>
+        <f t="shared" ref="E205:E208" si="39">K205</f>
+        <v>7000</v>
+      </c>
+      <c r="H205">
+        <f>K205*12</f>
         <v>84000</v>
-      </c>
-      <c r="H205">
-        <f t="shared" si="38"/>
-        <v>1008000</v>
       </c>
       <c r="K205" s="4">
         <v>7000</v>
@@ -8224,7 +8224,7 @@
       </c>
       <c r="E206" s="9">
         <f t="shared" si="39"/>
-        <v>75000</v>
+        <v>6250</v>
       </c>
       <c r="F206" s="4">
         <v>0</v>
@@ -8260,14 +8260,14 @@
       </c>
       <c r="E207" s="9">
         <f t="shared" si="39"/>
-        <v>75000</v>
+        <v>6250</v>
       </c>
       <c r="G207" s="4">
         <v>16000</v>
       </c>
       <c r="H207">
-        <f>E207*12</f>
-        <v>900000</v>
+        <f>K207*12</f>
+        <v>75000</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>150</v>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="E208" s="9">
         <f t="shared" si="39"/>
-        <v>69996</v>
+        <v>5833</v>
       </c>
       <c r="F208" s="4">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>5833</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
         <v>44510.503388784724</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
         <v>44510.538679143516</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
         <v>44542.29806872685</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
         <v>44704.601943287038</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
         <v>44836.599678229162</v>
       </c>
@@ -8449,8 +8449,8 @@
         <v>6</v>
       </c>
       <c r="E214" s="9">
-        <f t="shared" ref="E214:E216" si="41">K214*12</f>
-        <v>120000</v>
+        <f t="shared" ref="E214:E216" si="41">K214</f>
+        <v>10000</v>
       </c>
       <c r="F214" s="4">
         <v>145000</v>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I214" s="4">
         <f>E214*3</f>
-        <v>360000</v>
+        <v>30000</v>
       </c>
       <c r="K214" s="9">
         <v>10000</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="E215" s="9">
         <f t="shared" si="41"/>
-        <v>86004</v>
+        <v>7167</v>
       </c>
       <c r="F215" s="4">
         <v>70000</v>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="E216" s="9">
         <f t="shared" si="41"/>
-        <v>85992</v>
+        <v>7166</v>
       </c>
       <c r="F216" s="4">
         <v>70000</v>
@@ -8534,7 +8534,7 @@
         <v>7166</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
         <v>44568.504035763894</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
         <v>44510.515276724538</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
         <v>44510.548362118054</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
         <v>44533.364247361111</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
         <v>44518.600393020832</v>
       </c>
@@ -8671,8 +8671,8 @@
         <v>81</v>
       </c>
       <c r="E222" s="9">
-        <f t="shared" ref="E222:E224" si="43">K222*12</f>
-        <v>100800</v>
+        <f t="shared" ref="E222:E224" si="43">K222</f>
+        <v>8400</v>
       </c>
       <c r="F222" s="4">
         <v>0</v>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="E223" s="9">
         <f t="shared" si="43"/>
-        <v>72000</v>
+        <v>6000</v>
       </c>
       <c r="F223" s="4">
         <v>0</v>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="E224" s="9">
         <f t="shared" si="43"/>
-        <v>66000</v>
+        <v>5500</v>
       </c>
       <c r="F224" s="4">
         <v>0</v>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="I224" s="4">
         <f>E224*3</f>
-        <v>198000</v>
+        <v>16500</v>
       </c>
       <c r="J224" s="4" t="s">
         <v>218</v>
@@ -8763,7 +8763,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="225" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
         <v>44735.839935972224</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="226" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
         <v>44752.103124143519</v>
       </c>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="AH226" s="4"/>
     </row>
-    <row r="227" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
         <v>44782.19337439815</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="228" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
         <v>44789.912154189813</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="229" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
         <v>44793.00409913194</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="230" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
         <v>44847.669199837968</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="231" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
         <v>44510.56808751158</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="232" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
         <v>44510.651135902779</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="233" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="3">
         <v>44530.42529053241</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="234" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="3">
         <v>44563.673711249998</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="235" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="3">
         <v>44605.854865972222</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="236" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="3">
         <v>44627.827896192131</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="237" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="3">
         <v>44510.509296203702</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="238" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="3">
         <v>44510.545164837968</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="239" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="3">
         <v>44536.631599212968</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="240" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:34" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="3">
         <v>44608.581287256944</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="3">
         <v>44621.901670289357</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="3">
         <v>44635.195055555552</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="3">
         <v>44546.689118379625</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="3">
         <v>44591.738654525463</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="3">
         <v>44510.729338171295</v>
       </c>
@@ -9303,8 +9303,8 @@
         <v>6</v>
       </c>
       <c r="E246" s="9">
-        <f t="shared" ref="E246:E248" si="45">K246*12</f>
-        <v>96000</v>
+        <f t="shared" ref="E246:E248" si="45">K246</f>
+        <v>8000</v>
       </c>
       <c r="F246" s="4">
         <v>36920</v>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="E247" s="9">
         <f t="shared" si="45"/>
-        <v>78000</v>
+        <v>6500</v>
       </c>
       <c r="F247" s="4">
         <v>36920</v>
@@ -9378,21 +9378,21 @@
       </c>
       <c r="E248" s="9">
         <f t="shared" si="45"/>
+        <v>5500</v>
+      </c>
+      <c r="H248">
+        <f>K248*12</f>
         <v>66000</v>
-      </c>
-      <c r="H248">
-        <f>E248*12</f>
-        <v>792000</v>
       </c>
       <c r="I248" s="4">
         <f>E248*2</f>
-        <v>132000</v>
+        <v>11000</v>
       </c>
       <c r="K248" s="4">
         <v>5500</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="3">
         <v>44656.57399686343</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
         <v>44510.565382233792</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="3">
         <v>44510.638123009259</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="3">
         <v>44511.61445025463</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="3">
         <v>44518.60000903935</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
         <v>44580.827542453699</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="3">
         <v>44584.899014814815</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="3">
         <v>44811.092607303246</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
         <v>44510.566469861107</v>
       </c>
@@ -9622,8 +9622,8 @@
         <v>309</v>
       </c>
       <c r="E258" s="9">
-        <f>K258*12</f>
-        <v>48000</v>
+        <f>K258</f>
+        <v>4000</v>
       </c>
       <c r="F258" s="4">
         <v>0</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="I258" s="4">
         <f>E258*1.5</f>
-        <v>72000</v>
+        <v>6000</v>
       </c>
       <c r="J258" s="4" t="s">
         <v>310</v>
@@ -9645,7 +9645,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="3">
         <v>44769.98936068287</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="3">
         <v>44510.541092500003</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="3">
         <v>44631.535798518518</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="3">
         <v>44789.494943611113</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="3">
         <v>44520.710423194439</v>
       </c>
@@ -9782,8 +9782,8 @@
         <v>6</v>
       </c>
       <c r="E264" s="9">
-        <f>K264*12</f>
-        <v>72000</v>
+        <f>K264</f>
+        <v>6000</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>165</v>
@@ -9804,7 +9804,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="3">
         <v>44619.709855520836</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="3">
         <v>44511.612277199078</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="3">
         <v>44568.850585196764</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
         <v>44806.700686365744</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="3">
         <v>44826.617369282409</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="3">
         <v>44534.728780196761</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="3">
         <v>44511.633398530088</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
         <v>44536.498636874996</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="3">
         <v>44530.425578958333</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="3">
         <v>44510.54134625</v>
       </c>
@@ -10073,8 +10073,8 @@
         <v>54</v>
       </c>
       <c r="E275" s="9">
-        <f>K275*12</f>
-        <v>120000</v>
+        <f>K275</f>
+        <v>10000</v>
       </c>
       <c r="H275" s="4">
         <v>120000</v>
@@ -10089,7 +10089,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
         <v>44636.578424259264</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="3">
         <v>44734.90145474537</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="3">
         <v>44840.531029409722</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="3">
         <v>44622.599503356483</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
         <v>44510.594589548607</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="3">
         <v>44517.596517094906</v>
       </c>
@@ -10247,8 +10247,8 @@
         <v>6</v>
       </c>
       <c r="E282" s="9">
-        <f t="shared" ref="E282:E287" si="50">K282*12</f>
-        <v>95000</v>
+        <f t="shared" ref="E282:E287" si="50">K282</f>
+        <v>7916.666666666667</v>
       </c>
       <c r="F282" s="4">
         <v>50000</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E283" s="9">
         <f t="shared" si="50"/>
-        <v>65000</v>
+        <v>5416.666666666667</v>
       </c>
       <c r="F283" s="4">
         <v>5000</v>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="E284" s="9">
         <f t="shared" si="50"/>
-        <v>105000</v>
+        <v>8750</v>
       </c>
       <c r="F284" s="4">
         <v>53000</v>
@@ -10326,12 +10326,12 @@
         <v>15000</v>
       </c>
       <c r="H284">
-        <f>E284*12+F284+G284</f>
-        <v>1328000</v>
+        <f>K284*12+F284+G284</f>
+        <v>173000</v>
       </c>
       <c r="I284" s="4">
         <f t="shared" ref="I284:I285" si="51">H284*0.1</f>
-        <v>132800</v>
+        <v>17300</v>
       </c>
       <c r="J284" s="4" t="s">
         <v>75</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="E285" s="9">
         <f t="shared" si="50"/>
-        <v>105000</v>
+        <v>8750</v>
       </c>
       <c r="F285" s="4">
         <v>53000</v>
@@ -10364,12 +10364,12 @@
         <v>15000</v>
       </c>
       <c r="H285">
-        <f>E285*12+F285+G285</f>
-        <v>1328000</v>
+        <f>K285*12+F285+G285</f>
+        <v>173000</v>
       </c>
       <c r="I285" s="4">
         <f t="shared" si="51"/>
-        <v>132800</v>
+        <v>17300</v>
       </c>
       <c r="J285" s="4" t="s">
         <v>76</v>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="E286" s="9">
         <f t="shared" si="50"/>
-        <v>94800</v>
+        <v>7900</v>
       </c>
       <c r="F286" s="4">
         <v>50000</v>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="E287" s="9">
         <f t="shared" si="50"/>
-        <v>69996</v>
+        <v>5833</v>
       </c>
       <c r="F287" s="4">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>5833</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="3">
         <v>44530.419725983797</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="3">
         <v>44601.717800451384</v>
       </c>
@@ -10504,8 +10504,8 @@
         <v>6</v>
       </c>
       <c r="E290" s="9">
-        <f t="shared" ref="E290:E291" si="52">K290*12</f>
-        <v>65004</v>
+        <f t="shared" ref="E290:E291" si="52">K290</f>
+        <v>5417</v>
       </c>
       <c r="F290" s="4">
         <v>0</v>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="E291" s="9">
         <f t="shared" si="52"/>
-        <v>65004</v>
+        <v>5417</v>
       </c>
       <c r="F291" s="4">
         <v>5000</v>
@@ -10554,7 +10554,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="3">
         <v>44510.921285393517</v>
       </c>
@@ -10592,8 +10592,8 @@
         <v>6</v>
       </c>
       <c r="E293" s="9">
-        <f>K293*12</f>
-        <v>60000</v>
+        <f>K293</f>
+        <v>5000</v>
       </c>
       <c r="F293" s="4">
         <v>10000</v>
@@ -10615,7 +10615,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="3">
         <v>44518.779995798614</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="3">
         <v>44612.803322280088</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="3">
         <v>44515.940455439813</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="3">
         <v>44510.833445706019</v>
       </c>
@@ -10731,8 +10731,8 @@
         <v>322</v>
       </c>
       <c r="E298" s="9">
-        <f t="shared" ref="E298:E299" si="54">K298*12</f>
-        <v>44400</v>
+        <f t="shared" ref="E298:E299" si="54">K298</f>
+        <v>3700</v>
       </c>
       <c r="F298" s="4">
         <v>0</v>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="I298" s="4">
         <f>E298*3</f>
-        <v>133200</v>
+        <v>11100</v>
       </c>
       <c r="K298" s="9">
         <v>3700</v>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="E299" s="9">
         <f t="shared" si="54"/>
-        <v>300000</v>
+        <v>25000</v>
       </c>
       <c r="F299" s="4">
         <v>0</v>
@@ -10787,7 +10787,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="3">
         <v>44585.488853541669</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="3">
         <v>44842.685372812499</v>
       </c>
@@ -10858,18 +10858,18 @@
         <v>6</v>
       </c>
       <c r="E302" s="9">
-        <f>K302*12</f>
+        <f>K302</f>
+        <v>30000</v>
+      </c>
+      <c r="H302">
+        <f>K302*12+G302+F302</f>
         <v>360000</v>
-      </c>
-      <c r="H302">
-        <f t="shared" si="55"/>
-        <v>4320000</v>
       </c>
       <c r="K302" s="9">
         <v>30000</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="3">
         <v>44511.965356261571</v>
       </c>
@@ -10919,8 +10919,8 @@
         <v>6</v>
       </c>
       <c r="E304" s="9">
-        <f>K304*12</f>
-        <v>79992</v>
+        <f>K304</f>
+        <v>6666</v>
       </c>
       <c r="F304" s="4">
         <v>0</v>
@@ -10941,7 +10941,7 @@
         <v>6666</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="3">
         <v>44510.552658321758</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>5883</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="3">
         <v>44511.135148923611</v>
       </c>
@@ -11003,8 +11003,8 @@
         <v>6</v>
       </c>
       <c r="E307" s="9">
-        <f>K307*12</f>
-        <v>69999.959999999992</v>
+        <f>K307</f>
+        <v>5833.33</v>
       </c>
       <c r="H307" s="4">
         <v>70000</v>
@@ -11016,7 +11016,7 @@
         <v>5833.33</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="3">
         <v>44510.570177268513</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>5833</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="3">
         <v>44510.69841571759</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>5833</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="3">
         <v>44510.700937766203</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>5833</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="3">
         <v>44510.712634594907</v>
       </c>
@@ -11135,8 +11135,8 @@
         <v>6</v>
       </c>
       <c r="E312" s="9">
-        <f t="shared" ref="E312:E314" si="57">K312*12</f>
-        <v>69996</v>
+        <f t="shared" ref="E312:E314" si="57">K312</f>
+        <v>5833</v>
       </c>
       <c r="F312" s="4">
         <v>0</v>
@@ -11172,7 +11172,7 @@
       </c>
       <c r="E313" s="9">
         <f t="shared" si="57"/>
-        <v>68004</v>
+        <v>5667</v>
       </c>
       <c r="F313" s="4">
         <v>0</v>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="E314" s="9">
         <f t="shared" si="57"/>
-        <v>64992</v>
+        <v>5416</v>
       </c>
       <c r="F314" s="4">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>5416</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="3">
         <v>44538.833973125002</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>5883</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="3">
         <v>44510.538348969909</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="3">
         <v>44536.923530914355</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="3">
         <v>44510.555254039355</v>
       </c>
@@ -11351,8 +11351,8 @@
         <v>6</v>
       </c>
       <c r="E319" s="9">
-        <f>K319*12</f>
-        <v>60000</v>
+        <f>K319</f>
+        <v>5000</v>
       </c>
       <c r="F319" s="4">
         <v>0</v>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="I319" s="4">
         <f>E319*1.5</f>
-        <v>90000</v>
+        <v>7500</v>
       </c>
       <c r="J319" s="4" t="s">
         <v>248</v>
@@ -11371,7 +11371,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="3">
         <v>44539.429729629628</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="3">
         <v>44559.865034884264</v>
       </c>
@@ -11436,8 +11436,8 @@
         <v>6</v>
       </c>
       <c r="E322" s="9">
-        <f t="shared" ref="E322:E323" si="59">K322*12</f>
-        <v>111996</v>
+        <f t="shared" ref="E322:E323" si="59">K322</f>
+        <v>9333</v>
       </c>
       <c r="F322" s="4">
         <v>50000</v>
@@ -11446,12 +11446,12 @@
         <v>10000</v>
       </c>
       <c r="H322" s="4">
-        <f>12*E322+F322+G322</f>
-        <v>1403952</v>
+        <f>12*K322+F322+G322</f>
+        <v>171996</v>
       </c>
       <c r="I322" s="4">
         <f>H322*0.1</f>
-        <v>140395.20000000001</v>
+        <v>17199.600000000002</v>
       </c>
       <c r="J322" s="4" t="s">
         <v>66</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E323" s="9">
         <f t="shared" si="59"/>
-        <v>111996</v>
+        <v>9333</v>
       </c>
       <c r="F323" s="4">
         <v>50000</v>
@@ -11497,7 +11497,7 @@
         <v>9333</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="3">
         <v>44577.712501006943</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="3">
         <v>44510.540358402781</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="3">
         <v>44510.80415300926</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="3">
         <v>44636.564236909719</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="3">
         <v>44640.722855775464</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" s="3">
         <v>44636.560663020835</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="3">
         <v>44637.669576944449</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="3">
         <v>44640.41357045139</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="3">
         <v>44510.936144780091</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="3">
         <v>44512.581696620371</v>
       </c>
@@ -11760,16 +11760,16 @@
         <v>256</v>
       </c>
       <c r="E334" s="9">
-        <f t="shared" ref="E334:E336" si="61">K334*12</f>
+        <f t="shared" ref="E334:E336" si="61">K334</f>
+        <v>5000</v>
+      </c>
+      <c r="H334">
+        <f>K334*12</f>
         <v>60000</v>
-      </c>
-      <c r="H334">
-        <f t="shared" si="60"/>
-        <v>720000</v>
       </c>
       <c r="I334" s="4">
         <f>H334*0.1</f>
-        <v>72000</v>
+        <v>6000</v>
       </c>
       <c r="K334" s="4">
         <v>5000</v>
@@ -11790,7 +11790,7 @@
       </c>
       <c r="E335" s="9">
         <f t="shared" si="61"/>
-        <v>75000</v>
+        <v>6250</v>
       </c>
       <c r="F335" s="4">
         <v>0</v>
@@ -11826,21 +11826,21 @@
       </c>
       <c r="E336" s="9">
         <f t="shared" si="61"/>
+        <v>3900</v>
+      </c>
+      <c r="H336">
+        <f>K336*12</f>
         <v>46800</v>
-      </c>
-      <c r="H336">
-        <f>E336*12</f>
-        <v>561600</v>
       </c>
       <c r="I336" s="4">
         <f>E336*4</f>
-        <v>187200</v>
+        <v>15600</v>
       </c>
       <c r="K336" s="4">
         <v>3900</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="3">
         <v>44510.561463900463</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="3">
         <v>44517.988962476855</v>
       </c>
@@ -11901,8 +11901,8 @@
         <v>6</v>
       </c>
       <c r="E339" s="9">
-        <f t="shared" ref="E339:E340" si="62">K339*12</f>
-        <v>102000</v>
+        <f t="shared" ref="E339:E340" si="62">K339</f>
+        <v>8500</v>
       </c>
       <c r="F339" s="4">
         <v>20000</v>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="E340" s="9">
         <f t="shared" si="62"/>
-        <v>96000</v>
+        <v>8000</v>
       </c>
       <c r="H340" s="4">
         <v>96000</v>
@@ -11951,7 +11951,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="3">
         <v>44530.758811111111</v>
       </c>
@@ -11989,8 +11989,8 @@
         <v>6</v>
       </c>
       <c r="E342" s="9">
-        <f t="shared" ref="E342:E353" si="63">K342*12</f>
-        <v>72000</v>
+        <f t="shared" ref="E342:E353" si="63">K342</f>
+        <v>6000</v>
       </c>
       <c r="F342" s="4">
         <v>0</v>
@@ -11999,12 +11999,12 @@
         <v>0</v>
       </c>
       <c r="H342">
-        <f>E342*12</f>
-        <v>864000</v>
+        <f>K342*12</f>
+        <v>72000</v>
       </c>
       <c r="I342" s="4">
         <f>2*E342</f>
-        <v>144000</v>
+        <v>12000</v>
       </c>
       <c r="K342" s="9">
         <v>6000</v>
@@ -12025,15 +12025,15 @@
       </c>
       <c r="E343" s="9">
         <f t="shared" si="63"/>
+        <v>5678</v>
+      </c>
+      <c r="H343">
+        <f>K343*12</f>
         <v>68136</v>
-      </c>
-      <c r="H343">
-        <f>E343*12</f>
-        <v>817632</v>
       </c>
       <c r="I343" s="4">
         <f>3*E343</f>
-        <v>204408</v>
+        <v>17034</v>
       </c>
       <c r="J343" s="4" t="s">
         <v>191</v>
@@ -12057,15 +12057,15 @@
       </c>
       <c r="E344" s="9">
         <f t="shared" si="63"/>
+        <v>5400</v>
+      </c>
+      <c r="H344">
+        <f>K344*12</f>
         <v>64800</v>
-      </c>
-      <c r="H344">
-        <f t="shared" ref="H344:H349" si="64">E344*12</f>
-        <v>777600</v>
       </c>
       <c r="I344" s="4">
         <f>2*E344</f>
-        <v>129600</v>
+        <v>10800</v>
       </c>
       <c r="K344" s="4">
         <v>5400</v>
@@ -12086,11 +12086,11 @@
       </c>
       <c r="E345" s="9">
         <f t="shared" si="63"/>
+        <v>5200</v>
+      </c>
+      <c r="H345">
+        <f>K345*12</f>
         <v>62400</v>
-      </c>
-      <c r="H345">
-        <f t="shared" si="64"/>
-        <v>748800</v>
       </c>
       <c r="K345" s="9">
         <v>5200</v>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="E346" s="9">
         <f t="shared" si="63"/>
+        <v>4800</v>
+      </c>
+      <c r="H346">
+        <f>K346*12</f>
         <v>57600</v>
-      </c>
-      <c r="H346">
-        <f t="shared" si="64"/>
-        <v>691200</v>
       </c>
       <c r="K346" s="9">
         <v>4800</v>
@@ -12136,14 +12136,14 @@
       </c>
       <c r="E347" s="9">
         <f t="shared" si="63"/>
-        <v>57600</v>
+        <v>4800</v>
       </c>
       <c r="H347" s="4">
         <v>62400</v>
       </c>
       <c r="I347" s="4">
         <f>E347*2</f>
-        <v>115200</v>
+        <v>9600</v>
       </c>
       <c r="J347" s="4" t="s">
         <v>266</v>
@@ -12167,11 +12167,11 @@
       </c>
       <c r="E348" s="9">
         <f t="shared" si="63"/>
+        <v>4800</v>
+      </c>
+      <c r="H348">
+        <f>K348*12</f>
         <v>57600</v>
-      </c>
-      <c r="H348">
-        <f t="shared" si="64"/>
-        <v>691200</v>
       </c>
       <c r="K348" s="4">
         <v>4800</v>
@@ -12192,15 +12192,15 @@
       </c>
       <c r="E349" s="9">
         <f t="shared" si="63"/>
+        <v>4800</v>
+      </c>
+      <c r="H349">
+        <f>K349*12</f>
         <v>57600</v>
       </c>
-      <c r="H349">
-        <f t="shared" si="64"/>
-        <v>691200</v>
-      </c>
       <c r="I349" s="4">
-        <f t="shared" ref="I349:I353" si="65">2*E349</f>
-        <v>115200</v>
+        <f t="shared" ref="I349:I353" si="64">2*E349</f>
+        <v>9600</v>
       </c>
       <c r="K349" s="4">
         <v>4800</v>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="E350" s="9">
         <f t="shared" si="63"/>
-        <v>54000</v>
+        <v>4500</v>
       </c>
       <c r="F350" s="4">
         <v>0</v>
@@ -12233,8 +12233,8 @@
         <v>54000</v>
       </c>
       <c r="I350" s="4">
-        <f t="shared" si="65"/>
-        <v>108000</v>
+        <f t="shared" si="64"/>
+        <v>9000</v>
       </c>
       <c r="J350" s="4" t="s">
         <v>276</v>
@@ -12258,14 +12258,14 @@
       </c>
       <c r="E351" s="9">
         <f t="shared" si="63"/>
-        <v>54000</v>
+        <v>4500</v>
       </c>
       <c r="H351" s="4">
         <v>54000</v>
       </c>
       <c r="I351" s="4">
-        <f t="shared" si="65"/>
-        <v>108000</v>
+        <f t="shared" si="64"/>
+        <v>9000</v>
       </c>
       <c r="J351" s="4" t="s">
         <v>278</v>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="E352" s="9">
         <f t="shared" si="63"/>
-        <v>50400</v>
+        <v>4200</v>
       </c>
       <c r="F352" s="4" t="s">
         <v>283</v>
@@ -12302,8 +12302,8 @@
         <v>51000</v>
       </c>
       <c r="I352" s="4">
-        <f t="shared" si="65"/>
-        <v>100800</v>
+        <f t="shared" si="64"/>
+        <v>8400</v>
       </c>
       <c r="J352" s="4" t="s">
         <v>284</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="E353" s="9">
         <f t="shared" si="63"/>
-        <v>48000</v>
+        <v>4000</v>
       </c>
       <c r="F353" s="4">
         <v>0</v>
@@ -12340,8 +12340,8 @@
         <v>48000</v>
       </c>
       <c r="I353" s="4">
-        <f t="shared" si="65"/>
-        <v>96000</v>
+        <f t="shared" si="64"/>
+        <v>8000</v>
       </c>
       <c r="J353" s="4" t="s">
         <v>303</v>
@@ -12350,7 +12350,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="3">
         <v>44510.542559351852</v>
       </c>
@@ -12389,15 +12389,15 @@
         <v>6</v>
       </c>
       <c r="E355" s="9">
-        <f t="shared" ref="E355:E358" si="66">K355*12</f>
-        <v>79200</v>
+        <f t="shared" ref="E355:E358" si="65">K355</f>
+        <v>6600</v>
       </c>
       <c r="H355" s="4">
         <v>96000</v>
       </c>
       <c r="I355" s="4">
         <f>2*E355</f>
-        <v>158400</v>
+        <v>13200</v>
       </c>
       <c r="J355" s="4" t="s">
         <v>140</v>
@@ -12420,8 +12420,8 @@
         <v>6</v>
       </c>
       <c r="E356" s="9">
-        <f t="shared" si="66"/>
-        <v>78000</v>
+        <f t="shared" si="65"/>
+        <v>6500</v>
       </c>
       <c r="F356" s="4">
         <v>21000</v>
@@ -12430,8 +12430,8 @@
         <v>0</v>
       </c>
       <c r="H356">
-        <f>E356*12+F356</f>
-        <v>957000</v>
+        <f>K356*12+F356</f>
+        <v>99000</v>
       </c>
       <c r="K356" s="4">
         <v>6500</v>
@@ -12451,12 +12451,12 @@
         <v>6</v>
       </c>
       <c r="E357" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
+        <v>5500</v>
+      </c>
+      <c r="H357">
+        <f>K357*12+F357</f>
         <v>66000</v>
-      </c>
-      <c r="H357">
-        <f t="shared" ref="H357:H362" si="67">E357*12+F357</f>
-        <v>792000</v>
       </c>
       <c r="J357" s="4" t="s">
         <v>204</v>
@@ -12479,8 +12479,8 @@
         <v>6</v>
       </c>
       <c r="E358" s="9">
-        <f t="shared" si="66"/>
-        <v>66000</v>
+        <f t="shared" si="65"/>
+        <v>5500</v>
       </c>
       <c r="F358" s="4">
         <v>24750</v>
@@ -12489,8 +12489,8 @@
         <v>205</v>
       </c>
       <c r="H358">
-        <f t="shared" si="67"/>
-        <v>816750</v>
+        <f>K358*12+F358</f>
+        <v>90750</v>
       </c>
       <c r="J358" s="4" t="s">
         <v>206</v>
@@ -12499,7 +12499,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" s="3">
         <v>44802.4487672338</v>
       </c>
@@ -12516,14 +12516,14 @@
         <v>2800</v>
       </c>
       <c r="H359">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="H357:H362" si="66">E359*12+F359</f>
         <v>33600</v>
       </c>
       <c r="K359" s="4">
         <v>2800</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="3">
         <v>44510.677211493057</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>1000</v>
       </c>
       <c r="H360">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>12000</v>
       </c>
       <c r="K360" s="9">
@@ -12561,18 +12561,18 @@
         <v>292</v>
       </c>
       <c r="E361" s="9">
-        <f>K361*12</f>
+        <f>K361</f>
+        <v>4100</v>
+      </c>
+      <c r="H361">
+        <f>K361*12+F361</f>
         <v>49200</v>
-      </c>
-      <c r="H361">
-        <f t="shared" si="67"/>
-        <v>590400</v>
       </c>
       <c r="K361" s="4">
         <v>4100</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="3">
         <v>44543.79643869213</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>1500</v>
       </c>
       <c r="H362">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>18000</v>
       </c>
       <c r="K362" s="9">
@@ -12610,8 +12610,8 @@
         <v>6</v>
       </c>
       <c r="E363" s="9">
-        <f t="shared" ref="E363:E370" si="68">K363*12</f>
-        <v>115536</v>
+        <f t="shared" ref="E363:E370" si="67">K363</f>
+        <v>9628</v>
       </c>
       <c r="F363" s="4">
         <v>0</v>
@@ -12623,8 +12623,8 @@
         <v>134792</v>
       </c>
       <c r="I363" s="4">
-        <f t="shared" ref="I363:I369" si="69">E363*3</f>
-        <v>346608</v>
+        <f t="shared" ref="I363:I369" si="68">E363*3</f>
+        <v>28884</v>
       </c>
       <c r="J363" s="4" t="s">
         <v>63</v>
@@ -12647,8 +12647,8 @@
         <v>6</v>
       </c>
       <c r="E364" s="9">
-        <f t="shared" si="68"/>
-        <v>108000</v>
+        <f t="shared" si="67"/>
+        <v>9000</v>
       </c>
       <c r="G364" s="4" t="s">
         <v>72</v>
@@ -12657,8 +12657,8 @@
         <v>135000</v>
       </c>
       <c r="I364" s="4">
-        <f t="shared" si="69"/>
-        <v>324000</v>
+        <f t="shared" si="68"/>
+        <v>27000</v>
       </c>
       <c r="J364" s="4" t="s">
         <v>73</v>
@@ -12681,8 +12681,8 @@
         <v>6</v>
       </c>
       <c r="E365" s="9">
-        <f t="shared" si="68"/>
-        <v>107832</v>
+        <f t="shared" si="67"/>
+        <v>8986</v>
       </c>
       <c r="F365" s="4">
         <v>0</v>
@@ -12694,8 +12694,8 @@
         <v>134790</v>
       </c>
       <c r="I365" s="4">
-        <f t="shared" si="69"/>
-        <v>323496</v>
+        <f t="shared" si="68"/>
+        <v>26958</v>
       </c>
       <c r="K365" s="4">
         <v>8986</v>
@@ -12715,8 +12715,8 @@
         <v>6</v>
       </c>
       <c r="E366" s="9">
-        <f t="shared" si="68"/>
-        <v>115500</v>
+        <f t="shared" si="67"/>
+        <v>9625</v>
       </c>
       <c r="G366" s="4" t="s">
         <v>29</v>
@@ -12725,8 +12725,8 @@
         <v>115500</v>
       </c>
       <c r="I366" s="4">
-        <f t="shared" si="69"/>
-        <v>346500</v>
+        <f t="shared" si="68"/>
+        <v>28875</v>
       </c>
       <c r="K366" s="9">
         <f>115500/12</f>
@@ -12747,8 +12747,8 @@
         <v>6</v>
       </c>
       <c r="E367" s="9">
-        <f t="shared" si="68"/>
-        <v>115536</v>
+        <f t="shared" si="67"/>
+        <v>9628</v>
       </c>
       <c r="G367" s="4">
         <v>19256</v>
@@ -12757,8 +12757,8 @@
         <v>134792</v>
       </c>
       <c r="I367" s="4">
-        <f t="shared" si="69"/>
-        <v>346608</v>
+        <f t="shared" si="68"/>
+        <v>28884</v>
       </c>
       <c r="J367" s="4" t="s">
         <v>62</v>
@@ -12781,8 +12781,8 @@
         <v>6</v>
       </c>
       <c r="E368" s="9">
-        <f t="shared" si="68"/>
-        <v>108000</v>
+        <f t="shared" si="67"/>
+        <v>9000</v>
       </c>
       <c r="G368" s="4">
         <v>18000</v>
@@ -12791,8 +12791,8 @@
         <v>135000</v>
       </c>
       <c r="I368" s="4">
-        <f t="shared" si="69"/>
-        <v>324000</v>
+        <f t="shared" si="68"/>
+        <v>27000</v>
       </c>
       <c r="K368" s="4">
         <v>9000</v>
@@ -12812,8 +12812,8 @@
         <v>6</v>
       </c>
       <c r="E369" s="9">
-        <f t="shared" si="68"/>
-        <v>93240</v>
+        <f t="shared" si="67"/>
+        <v>7770</v>
       </c>
       <c r="F369" s="4" t="s">
         <v>95</v>
@@ -12825,8 +12825,8 @@
         <v>116550</v>
       </c>
       <c r="I369" s="4">
-        <f t="shared" si="69"/>
-        <v>279720</v>
+        <f t="shared" si="68"/>
+        <v>23310</v>
       </c>
       <c r="J369" s="4" t="s">
         <v>96</v>
@@ -12849,8 +12849,8 @@
         <v>6</v>
       </c>
       <c r="E370" s="9">
-        <f t="shared" si="68"/>
-        <v>93240</v>
+        <f t="shared" si="67"/>
+        <v>7770</v>
       </c>
       <c r="F370" s="4">
         <v>0</v>
@@ -12863,13 +12863,13 @@
       </c>
       <c r="I370" s="4">
         <f>E370*3</f>
-        <v>279720</v>
+        <v>23310</v>
       </c>
       <c r="K370" s="9">
         <v>7770</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" s="3">
         <v>44827.765748692131</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372" s="3">
         <v>44532.536465046302</v>
       </c>
@@ -12910,14 +12910,14 @@
         <v>4500</v>
       </c>
       <c r="H372">
-        <f t="shared" ref="H372:H389" si="70">E372*12+F372+G372</f>
+        <f t="shared" ref="H372:H389" si="69">E372*12+F372+G372</f>
         <v>54000</v>
       </c>
       <c r="K372" s="9">
         <v>4500</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373" s="3">
         <v>44577.712326770838</v>
       </c>
@@ -12934,14 +12934,14 @@
         <v>4500</v>
       </c>
       <c r="H373">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>54000</v>
       </c>
       <c r="K373" s="9">
         <v>4500</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374" s="3">
         <v>44510.501358587964</v>
       </c>
@@ -12958,14 +12958,14 @@
         <v>3000</v>
       </c>
       <c r="H374">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>36000</v>
       </c>
       <c r="K374" s="9">
         <v>3000</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" s="3">
         <v>44510.565760231482</v>
       </c>
@@ -12982,14 +12982,14 @@
         <v>3000</v>
       </c>
       <c r="H375">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>36000</v>
       </c>
       <c r="K375" s="9">
         <v>3000</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" s="3">
         <v>44510.701080567131</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>3000</v>
       </c>
       <c r="H376">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>36000</v>
       </c>
       <c r="K376" s="9">
@@ -13027,12 +13027,12 @@
         <v>6</v>
       </c>
       <c r="E377" s="9">
-        <f>K377*12</f>
+        <f>K377</f>
+        <v>20000</v>
+      </c>
+      <c r="H377">
+        <f>K377*12+F377+G377</f>
         <v>240000</v>
-      </c>
-      <c r="H377">
-        <f t="shared" si="70"/>
-        <v>2880000</v>
       </c>
       <c r="J377" s="4" t="s">
         <v>23</v>
@@ -13041,7 +13041,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378" s="3">
         <v>44841.074723252314</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>24000</v>
       </c>
       <c r="H378">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>288000</v>
       </c>
       <c r="K378" s="4">
@@ -13079,8 +13079,8 @@
         <v>347</v>
       </c>
       <c r="E379" s="9">
-        <f>K379*12</f>
-        <v>36000</v>
+        <f>K379</f>
+        <v>3000</v>
       </c>
       <c r="F379" s="4">
         <v>0</v>
@@ -13089,8 +13089,8 @@
         <v>0</v>
       </c>
       <c r="H379">
-        <f t="shared" si="70"/>
-        <v>432000</v>
+        <f>K379*12+F379+G379</f>
+        <v>36000</v>
       </c>
       <c r="I379" s="4">
         <v>0</v>
@@ -13102,7 +13102,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380" s="3">
         <v>44631.536368240741</v>
       </c>
@@ -13119,14 +13119,14 @@
         <v>1500</v>
       </c>
       <c r="H380">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>18000</v>
       </c>
       <c r="K380" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381" s="3">
         <v>44600.615690474537</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>3000</v>
       </c>
       <c r="H381">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>36000</v>
       </c>
       <c r="J381" s="4" t="s">
@@ -13153,7 +13153,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382" s="3">
         <v>44607.990337719908</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>3000</v>
       </c>
       <c r="H382">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>36000</v>
       </c>
       <c r="J382" s="4" t="s">
@@ -13180,7 +13180,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383" s="3">
         <v>44510.565915023151</v>
       </c>
@@ -13197,14 +13197,14 @@
         <v>2000</v>
       </c>
       <c r="H383">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>24000</v>
       </c>
       <c r="K383" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384" s="3">
         <v>44510.582985023153</v>
       </c>
@@ -13221,14 +13221,14 @@
         <v>2000</v>
       </c>
       <c r="H384">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>24000</v>
       </c>
       <c r="K384" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385" s="3">
         <v>44510.595113263887</v>
       </c>
@@ -13245,14 +13245,14 @@
         <v>2000</v>
       </c>
       <c r="H385">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>24000</v>
       </c>
       <c r="K385" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386" s="3">
         <v>44512.071543182872</v>
       </c>
@@ -13269,14 +13269,14 @@
         <v>2000</v>
       </c>
       <c r="H386">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>24000</v>
       </c>
       <c r="K386" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387" s="3">
         <v>44527.946899918985</v>
       </c>
@@ -13293,14 +13293,14 @@
         <v>2000</v>
       </c>
       <c r="H387">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>24000</v>
       </c>
       <c r="K387" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" s="3">
         <v>44530.426603043983</v>
       </c>
@@ -13317,14 +13317,14 @@
         <v>2000</v>
       </c>
       <c r="H388">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>24000</v>
       </c>
       <c r="K388" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" s="3">
         <v>44631.488881481477</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>800</v>
       </c>
       <c r="H389">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>9600</v>
       </c>
       <c r="K389" s="4">
@@ -13362,21 +13362,21 @@
         <v>74</v>
       </c>
       <c r="E390" s="9">
-        <f>K390*12</f>
-        <v>66000</v>
+        <f>K390</f>
+        <v>5500</v>
       </c>
       <c r="H390" s="4">
         <v>79000</v>
       </c>
       <c r="I390" s="4">
         <f>E390*4</f>
-        <v>264000</v>
+        <v>22000</v>
       </c>
       <c r="K390" s="4">
         <v>5500</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391" s="3">
         <v>44735.497782708335</v>
       </c>
@@ -13414,8 +13414,8 @@
         <v>328</v>
       </c>
       <c r="E392" s="9">
-        <f t="shared" ref="E392:E393" si="71">K392*12</f>
-        <v>43200</v>
+        <f t="shared" ref="E392:E393" si="70">K392</f>
+        <v>3600</v>
       </c>
       <c r="H392" s="4">
         <v>66000</v>
@@ -13444,22 +13444,22 @@
         <v>358</v>
       </c>
       <c r="E393" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
+        <v>2500</v>
+      </c>
+      <c r="H393">
+        <f>K393*12+F393+G393</f>
         <v>30000</v>
-      </c>
-      <c r="H393">
-        <f>E393*12+F393+G393</f>
-        <v>360000</v>
       </c>
       <c r="I393" s="4">
         <f>E393*3</f>
-        <v>90000</v>
+        <v>7500</v>
       </c>
       <c r="K393" s="9">
         <v>2500</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" s="3">
         <v>44810.892064548607</v>
       </c>
@@ -13476,14 +13476,14 @@
         <v>2000</v>
       </c>
       <c r="H394">
-        <f t="shared" ref="H394:H398" si="72">E394*12+F394+G394</f>
+        <f t="shared" ref="H394:H398" si="71">E394*12+F394+G394</f>
         <v>24000</v>
       </c>
       <c r="K394" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" s="3">
         <v>44767.91190230324</v>
       </c>
@@ -13497,11 +13497,11 @@
         <v>6</v>
       </c>
       <c r="H395">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396" s="3">
         <v>44572.719172164347</v>
       </c>
@@ -13518,14 +13518,14 @@
         <v>810</v>
       </c>
       <c r="H396">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>9720</v>
       </c>
       <c r="K396" s="9">
         <v>810</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397" s="3">
         <v>44665.287406504634</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>11000</v>
       </c>
       <c r="H397">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>132000</v>
       </c>
       <c r="J397" s="4" t="s">
@@ -13552,7 +13552,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398" s="3">
         <v>44723.064306863424</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>11000</v>
       </c>
       <c r="H398">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>132000</v>
       </c>
       <c r="K398" s="4">
@@ -13590,8 +13590,8 @@
         <v>6</v>
       </c>
       <c r="E399" s="9">
-        <f t="shared" ref="E399:E400" si="73">K399*12</f>
-        <v>69600</v>
+        <f t="shared" ref="E399:E400" si="72">K399</f>
+        <v>5800</v>
       </c>
       <c r="F399" s="6">
         <v>0.1</v>
@@ -13625,8 +13625,8 @@
         <v>254</v>
       </c>
       <c r="E400" s="9">
-        <f t="shared" si="73"/>
-        <v>60000</v>
+        <f t="shared" si="72"/>
+        <v>5000</v>
       </c>
       <c r="F400" s="4">
         <v>0</v>
@@ -13639,7 +13639,7 @@
       </c>
       <c r="I400" s="4">
         <f>E400*1</f>
-        <v>60000</v>
+        <v>5000</v>
       </c>
       <c r="J400" s="4" t="s">
         <v>255</v>
@@ -13648,7 +13648,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401" s="3">
         <v>44510.502314791665</v>
       </c>
@@ -13685,21 +13685,21 @@
         <v>169</v>
       </c>
       <c r="E402" s="9">
+        <f>K402</f>
+        <v>6000</v>
+      </c>
+      <c r="F402" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H402">
         <f>K402*12</f>
         <v>72000</v>
       </c>
-      <c r="F402" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H402">
-        <f>E402*12</f>
-        <v>864000</v>
-      </c>
       <c r="K402" s="4">
         <v>6000</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403" s="3">
         <v>44643.407263379631</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>483</v>
       </c>
       <c r="H403">
-        <f t="shared" ref="H403:H409" si="74">E403*12</f>
+        <f t="shared" ref="H403:H409" si="73">E403*12</f>
         <v>9240</v>
       </c>
       <c r="I403" s="4">
@@ -13735,7 +13735,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" s="3">
         <v>44510.577848912042</v>
       </c>
@@ -13752,14 +13752,14 @@
         <v>1400</v>
       </c>
       <c r="H404">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>16800</v>
       </c>
       <c r="K404" s="9">
         <v>1400</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405" s="3">
         <v>44510.589794953703</v>
       </c>
@@ -13776,14 +13776,14 @@
         <v>1400</v>
       </c>
       <c r="H405">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>16800</v>
       </c>
       <c r="K405" s="9">
         <v>1400</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406" s="3">
         <v>44510.58121329861</v>
       </c>
@@ -13800,14 +13800,14 @@
         <v>1200</v>
       </c>
       <c r="H406">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>14400</v>
       </c>
       <c r="K406" s="9">
         <v>1200</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407" s="3">
         <v>44744.404898136578</v>
       </c>
@@ -13824,14 +13824,14 @@
         <v>1500</v>
       </c>
       <c r="H407">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>18000</v>
       </c>
       <c r="K407" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408" s="3">
         <v>44510.568554027777</v>
       </c>
@@ -13848,14 +13848,14 @@
         <v>2000</v>
       </c>
       <c r="H408">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>24000</v>
       </c>
       <c r="K408" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409" s="3">
         <v>44511.500685752311</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>2000</v>
       </c>
       <c r="H409">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>24000</v>
       </c>
       <c r="K409" s="9">
@@ -13893,8 +13893,8 @@
         <v>6</v>
       </c>
       <c r="E410" s="9">
-        <f>K410*12</f>
-        <v>84000</v>
+        <f>K410</f>
+        <v>7000</v>
       </c>
       <c r="F410" s="4">
         <v>28000</v>
@@ -13912,7 +13912,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411" s="3">
         <v>44517.776401782408</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412" s="3">
         <v>44514.853282199074</v>
       </c>
@@ -13974,8 +13974,8 @@
         <v>6</v>
       </c>
       <c r="E413" s="9">
-        <f>K413*12</f>
-        <v>66000</v>
+        <f>K413</f>
+        <v>5500</v>
       </c>
       <c r="F413" s="4" t="s">
         <v>210</v>
@@ -13986,13 +13986,13 @@
       </c>
       <c r="I413" s="4">
         <f>E413*3</f>
-        <v>198000</v>
+        <v>16500</v>
       </c>
       <c r="K413" s="4">
         <v>5500</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414" s="3">
         <v>44510.650771377317</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415" s="3">
         <v>44510.695930324073</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>3000</v>
       </c>
       <c r="H415" s="4">
-        <f t="shared" ref="H415:H417" si="75">E415*12</f>
+        <f t="shared" ref="H415:H417" si="74">E415*12</f>
         <v>36000</v>
       </c>
       <c r="J415" s="4" t="s">
@@ -14055,7 +14055,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416" s="3">
         <v>44764.78843961806</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>154</v>
       </c>
       <c r="H416" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>50400</v>
       </c>
       <c r="I416" s="4" t="s">
@@ -14105,22 +14105,22 @@
         <v>6</v>
       </c>
       <c r="E417" s="9">
+        <f>K417</f>
+        <v>7000</v>
+      </c>
+      <c r="F417" s="4">
+        <v>50000</v>
+      </c>
+      <c r="G417" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H417" s="4">
         <f>K417*12</f>
         <v>84000</v>
       </c>
-      <c r="F417" s="4">
-        <v>50000</v>
-      </c>
-      <c r="G417" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H417" s="4">
-        <f t="shared" si="75"/>
-        <v>1008000</v>
-      </c>
       <c r="I417" s="4">
         <f>2*E417</f>
-        <v>168000</v>
+        <v>14000</v>
       </c>
       <c r="J417" s="4" t="s">
         <v>115</v>
@@ -14129,7 +14129,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418" s="3">
         <v>44621.008516782407</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" s="3">
         <v>44510.565593194449</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>1000</v>
       </c>
       <c r="H419" s="4">
-        <f t="shared" ref="H419:H420" si="76">E419*12</f>
+        <f t="shared" ref="H419:H420" si="75">E419*12</f>
         <v>12000</v>
       </c>
       <c r="K419" s="9">
@@ -14191,12 +14191,12 @@
         <v>6</v>
       </c>
       <c r="E420" s="9">
-        <f t="shared" ref="E420:E436" si="77">K420*12</f>
+        <f t="shared" ref="E420:E436" si="76">K420</f>
+        <v>12000</v>
+      </c>
+      <c r="H420" s="4">
+        <f>K420*12</f>
         <v>144000</v>
-      </c>
-      <c r="H420" s="4">
-        <f t="shared" si="76"/>
-        <v>1728000</v>
       </c>
       <c r="J420" s="4" t="s">
         <v>43</v>
@@ -14219,8 +14219,8 @@
         <v>6</v>
       </c>
       <c r="E421" s="9">
-        <f t="shared" si="77"/>
-        <v>96000</v>
+        <f t="shared" si="76"/>
+        <v>8000</v>
       </c>
       <c r="F421" s="4">
         <v>112000</v>
@@ -14232,8 +14232,8 @@
         <v>140000</v>
       </c>
       <c r="I421" s="4">
-        <f t="shared" ref="I421:I426" si="78">2*E421</f>
-        <v>192000</v>
+        <f t="shared" ref="I421:I426" si="77">2*E421</f>
+        <v>16000</v>
       </c>
       <c r="K421" s="9">
         <v>8000</v>
@@ -14253,8 +14253,8 @@
         <v>6</v>
       </c>
       <c r="E422" s="9">
-        <f t="shared" si="77"/>
-        <v>90000</v>
+        <f t="shared" si="76"/>
+        <v>7500</v>
       </c>
       <c r="F422" s="4">
         <v>140000</v>
@@ -14263,8 +14263,8 @@
         <v>140000</v>
       </c>
       <c r="I422" s="4">
-        <f t="shared" si="78"/>
-        <v>180000</v>
+        <f t="shared" si="77"/>
+        <v>15000</v>
       </c>
       <c r="J422" s="4" t="s">
         <v>100</v>
@@ -14287,8 +14287,8 @@
         <v>6</v>
       </c>
       <c r="E423" s="9">
-        <f t="shared" si="77"/>
-        <v>90000</v>
+        <f t="shared" si="76"/>
+        <v>7500</v>
       </c>
       <c r="F423" s="4">
         <v>140000</v>
@@ -14300,8 +14300,8 @@
         <v>140000</v>
       </c>
       <c r="I423" s="4">
-        <f t="shared" si="78"/>
-        <v>180000</v>
+        <f t="shared" si="77"/>
+        <v>15000</v>
       </c>
       <c r="K423" s="9">
         <v>7500</v>
@@ -14321,8 +14321,8 @@
         <v>6</v>
       </c>
       <c r="E424" s="9">
-        <f t="shared" si="77"/>
-        <v>86400</v>
+        <f t="shared" si="76"/>
+        <v>7200</v>
       </c>
       <c r="F424" s="4">
         <v>77000</v>
@@ -14334,8 +14334,8 @@
         <v>120000</v>
       </c>
       <c r="I424" s="4">
-        <f t="shared" si="78"/>
-        <v>172800</v>
+        <f t="shared" si="77"/>
+        <v>14400</v>
       </c>
       <c r="J424" s="4" t="s">
         <v>106</v>
@@ -14358,8 +14358,8 @@
         <v>6</v>
       </c>
       <c r="E425" s="9">
-        <f t="shared" si="77"/>
-        <v>81600</v>
+        <f t="shared" si="76"/>
+        <v>6800</v>
       </c>
       <c r="F425" s="4">
         <v>36000</v>
@@ -14371,8 +14371,8 @@
         <v>104200</v>
       </c>
       <c r="I425" s="4">
-        <f t="shared" si="78"/>
-        <v>163200</v>
+        <f t="shared" si="77"/>
+        <v>13600</v>
       </c>
       <c r="K425" s="9">
         <v>6800</v>
@@ -14392,8 +14392,8 @@
         <v>6</v>
       </c>
       <c r="E426" s="9">
-        <f t="shared" si="77"/>
-        <v>81600</v>
+        <f t="shared" si="76"/>
+        <v>6800</v>
       </c>
       <c r="F426" s="4">
         <v>39200</v>
@@ -14405,8 +14405,8 @@
         <v>105000</v>
       </c>
       <c r="I426" s="4">
-        <f t="shared" si="78"/>
-        <v>163200</v>
+        <f t="shared" si="77"/>
+        <v>13600</v>
       </c>
       <c r="J426" s="4" t="s">
         <v>134</v>
@@ -14429,8 +14429,8 @@
         <v>6</v>
       </c>
       <c r="E427" s="9">
-        <f t="shared" si="77"/>
-        <v>78000</v>
+        <f t="shared" si="76"/>
+        <v>6500</v>
       </c>
       <c r="F427" s="4">
         <v>170000</v>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="I427" s="4">
         <f>2*E427</f>
-        <v>156000</v>
+        <v>13000</v>
       </c>
       <c r="K427" s="9">
         <v>6500</v>
@@ -14460,12 +14460,12 @@
         <v>6</v>
       </c>
       <c r="E428" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
+        <v>6500</v>
+      </c>
+      <c r="H428">
+        <f>K428*12</f>
         <v>78000</v>
-      </c>
-      <c r="H428">
-        <f>E428*12</f>
-        <v>936000</v>
       </c>
       <c r="K428" s="9">
         <v>6500</v>
@@ -14485,8 +14485,8 @@
         <v>6</v>
       </c>
       <c r="E429" s="9">
-        <f t="shared" si="77"/>
-        <v>78000</v>
+        <f t="shared" si="76"/>
+        <v>6500</v>
       </c>
       <c r="F429" s="4">
         <v>9000</v>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="I429" s="4">
         <f>E429*3</f>
-        <v>234000</v>
+        <v>19500</v>
       </c>
       <c r="J429" s="4" t="s">
         <v>144</v>
@@ -14522,8 +14522,8 @@
         <v>6</v>
       </c>
       <c r="E430" s="9">
-        <f t="shared" si="77"/>
-        <v>74400</v>
+        <f t="shared" si="76"/>
+        <v>6200</v>
       </c>
       <c r="F430" s="4">
         <f>49000/4</f>
@@ -14533,12 +14533,12 @@
         <v>154</v>
       </c>
       <c r="H430">
-        <f>E430*12+F430</f>
-        <v>905050</v>
+        <f>K430*12+F430</f>
+        <v>86650</v>
       </c>
       <c r="I430" s="4">
-        <f t="shared" ref="I430:I435" si="79">E430*2</f>
-        <v>148800</v>
+        <f t="shared" ref="I430:I435" si="78">E430*2</f>
+        <v>12400</v>
       </c>
       <c r="K430" s="9">
         <v>6200</v>
@@ -14558,8 +14558,8 @@
         <v>6</v>
       </c>
       <c r="E431" s="9">
-        <f t="shared" si="77"/>
-        <v>74400</v>
+        <f t="shared" si="76"/>
+        <v>6200</v>
       </c>
       <c r="F431" s="4" t="s">
         <v>155</v>
@@ -14571,8 +14571,8 @@
         <v>104000</v>
       </c>
       <c r="I431" s="4">
-        <f t="shared" si="79"/>
-        <v>148800</v>
+        <f t="shared" si="78"/>
+        <v>12400</v>
       </c>
       <c r="J431" s="4" t="s">
         <v>156</v>
@@ -14595,8 +14595,8 @@
         <v>6</v>
       </c>
       <c r="E432" s="9">
-        <f t="shared" si="77"/>
-        <v>69600</v>
+        <f t="shared" si="76"/>
+        <v>5800</v>
       </c>
       <c r="F432" s="4" t="s">
         <v>132</v>
@@ -14608,8 +14608,8 @@
         <v>70000</v>
       </c>
       <c r="I432" s="4">
-        <f t="shared" si="79"/>
-        <v>139200</v>
+        <f t="shared" si="78"/>
+        <v>11600</v>
       </c>
       <c r="K432" s="9">
         <v>5800</v>
@@ -14629,12 +14629,12 @@
         <v>169</v>
       </c>
       <c r="E433" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
+        <v>5000</v>
+      </c>
+      <c r="H433">
+        <f>K433*12</f>
         <v>60000</v>
-      </c>
-      <c r="H433">
-        <f>E433*12</f>
-        <v>720000</v>
       </c>
       <c r="I433" s="4"/>
       <c r="K433" s="4">
@@ -14655,16 +14655,16 @@
         <v>259</v>
       </c>
       <c r="E434" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
+        <v>5000</v>
+      </c>
+      <c r="H434">
+        <f>K434*12</f>
         <v>60000</v>
       </c>
-      <c r="H434">
-        <f t="shared" ref="H434:H458" si="80">E434*12</f>
-        <v>720000</v>
-      </c>
       <c r="I434" s="4">
-        <f t="shared" si="79"/>
-        <v>120000</v>
+        <f t="shared" si="78"/>
+        <v>10000</v>
       </c>
       <c r="J434" s="4" t="s">
         <v>260</v>
@@ -14687,16 +14687,16 @@
         <v>274</v>
       </c>
       <c r="E435" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
+        <v>4500</v>
+      </c>
+      <c r="H435">
+        <f>K435*12</f>
         <v>54000</v>
       </c>
-      <c r="H435">
-        <f t="shared" si="80"/>
-        <v>648000</v>
-      </c>
       <c r="I435" s="4">
-        <f t="shared" si="79"/>
-        <v>108000</v>
+        <f t="shared" si="78"/>
+        <v>9000</v>
       </c>
       <c r="J435" s="4" t="s">
         <v>275</v>
@@ -14719,22 +14719,22 @@
         <v>169</v>
       </c>
       <c r="E436" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
+        <v>4500</v>
+      </c>
+      <c r="H436">
+        <f>K436*12</f>
         <v>54000</v>
-      </c>
-      <c r="H436">
-        <f t="shared" si="80"/>
-        <v>648000</v>
       </c>
       <c r="I436" s="4">
         <f>E436*2</f>
-        <v>108000</v>
+        <v>9000</v>
       </c>
       <c r="K436" s="4">
         <v>4500</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" s="3">
         <v>44510.425779803241</v>
       </c>
@@ -14751,14 +14751,14 @@
         <v>4200</v>
       </c>
       <c r="H437">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="H434:H458" si="79">E437*12</f>
         <v>50400</v>
       </c>
       <c r="K437" s="9">
         <v>4200</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438" s="3">
         <v>44510.509134016203</v>
       </c>
@@ -14775,14 +14775,14 @@
         <v>4200</v>
       </c>
       <c r="H438">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>50400</v>
       </c>
       <c r="K438" s="9">
         <v>4200</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" s="3">
         <v>44510.537691539357</v>
       </c>
@@ -14799,14 +14799,14 @@
         <v>4200</v>
       </c>
       <c r="H439">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>50400</v>
       </c>
       <c r="K439" s="9">
         <v>4200</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" s="3">
         <v>44510.547140740746</v>
       </c>
@@ -14823,14 +14823,14 @@
         <v>4200</v>
       </c>
       <c r="H440">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>50400</v>
       </c>
       <c r="K440" s="9">
         <v>4200</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" s="3">
         <v>44510.566127048616</v>
       </c>
@@ -14847,14 +14847,14 @@
         <v>4200</v>
       </c>
       <c r="H441">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>50400</v>
       </c>
       <c r="K441" s="9">
         <v>4200</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" s="3">
         <v>44510.573631458334</v>
       </c>
@@ -14871,14 +14871,14 @@
         <v>4200</v>
       </c>
       <c r="H442">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>50400</v>
       </c>
       <c r="K442" s="9">
         <v>4200</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" s="3">
         <v>44578.813452233793</v>
       </c>
@@ -14895,14 +14895,14 @@
         <v>4200</v>
       </c>
       <c r="H443">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>50400</v>
       </c>
       <c r="K443" s="9">
         <v>4200</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="3">
         <v>44685.655321840277</v>
       </c>
@@ -14919,14 +14919,14 @@
         <v>4200</v>
       </c>
       <c r="H444">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>50400</v>
       </c>
       <c r="K444" s="4">
         <v>4200</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445" s="3">
         <v>44510.501704432871</v>
       </c>
@@ -14943,14 +14943,14 @@
         <v>2000</v>
       </c>
       <c r="H445">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>24000</v>
       </c>
       <c r="K445" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" s="3">
         <v>44510.483025694441</v>
       </c>
@@ -14967,14 +14967,14 @@
         <v>1200</v>
       </c>
       <c r="H446">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>14400</v>
       </c>
       <c r="K446" s="9">
         <v>1200</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" s="3">
         <v>44510.568885636574</v>
       </c>
@@ -14991,14 +14991,14 @@
         <v>1200</v>
       </c>
       <c r="H447">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>14400</v>
       </c>
       <c r="K447" s="9">
         <v>1200</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448" s="3">
         <v>44510.676884120374</v>
       </c>
@@ -15015,14 +15015,14 @@
         <v>1200</v>
       </c>
       <c r="H448">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>14400</v>
       </c>
       <c r="K448" s="9">
         <v>1200</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449" s="3">
         <v>44522.398684143518</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>1200</v>
       </c>
       <c r="H449">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>14400</v>
       </c>
       <c r="J449" s="4" t="s">
@@ -15049,7 +15049,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450" s="3">
         <v>44565.603168865739</v>
       </c>
@@ -15066,14 +15066,14 @@
         <v>1200</v>
       </c>
       <c r="H450">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>14400</v>
       </c>
       <c r="K450" s="9">
         <v>1200</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451" s="3">
         <v>44735.498091319445</v>
       </c>
@@ -15090,14 +15090,14 @@
         <v>1200</v>
       </c>
       <c r="H451">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>14400</v>
       </c>
       <c r="K451" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A452" s="3">
         <v>44510.578171793983</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>1000</v>
       </c>
       <c r="H452">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>12000</v>
       </c>
       <c r="K452" s="9">
@@ -15135,28 +15135,28 @@
         <v>6</v>
       </c>
       <c r="E453" s="9">
+        <f>K453</f>
+        <v>5200</v>
+      </c>
+      <c r="F453" s="4">
+        <v>0</v>
+      </c>
+      <c r="G453" s="4">
+        <v>0</v>
+      </c>
+      <c r="H453">
         <f>K453*12</f>
         <v>62400</v>
       </c>
-      <c r="F453" s="4">
-        <v>0</v>
-      </c>
-      <c r="G453" s="4">
-        <v>0</v>
-      </c>
-      <c r="H453">
-        <f t="shared" si="80"/>
-        <v>748800</v>
-      </c>
       <c r="I453" s="4">
         <f>E453*3</f>
-        <v>187200</v>
+        <v>15600</v>
       </c>
       <c r="K453" s="4">
         <v>5200</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454" s="3">
         <v>44724.913970555557</v>
       </c>
@@ -15173,14 +15173,14 @@
         <v>1700</v>
       </c>
       <c r="H454">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>20400</v>
       </c>
       <c r="K454" s="4">
         <v>1700</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" s="3">
         <v>44791.855665833333</v>
       </c>
@@ -15197,14 +15197,14 @@
         <v>1700</v>
       </c>
       <c r="H455">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>20400</v>
       </c>
       <c r="K455" s="4">
         <v>1700</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456" s="3">
         <v>44798.692438194441</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>1700</v>
       </c>
       <c r="H456">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>20400</v>
       </c>
       <c r="J456" s="4" t="s">
@@ -15245,13 +15245,13 @@
         <v>320</v>
       </c>
       <c r="E457" s="9">
+        <f>K457</f>
+        <v>3800</v>
+      </c>
+      <c r="H457">
         <f>K457*12</f>
         <v>45600</v>
       </c>
-      <c r="H457">
-        <f t="shared" si="80"/>
-        <v>547200</v>
-      </c>
       <c r="I457" s="4">
         <v>3800</v>
       </c>
@@ -15259,7 +15259,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458" s="3">
         <v>44617.174286620371</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>1600</v>
       </c>
       <c r="H458">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>19200</v>
       </c>
       <c r="K458" s="4">
@@ -15297,8 +15297,8 @@
         <v>232</v>
       </c>
       <c r="E459" s="9">
-        <f t="shared" ref="E459:E460" si="81">K459*12</f>
-        <v>62400</v>
+        <f t="shared" ref="E459:E460" si="80">K459</f>
+        <v>5200</v>
       </c>
       <c r="F459" s="4" t="s">
         <v>233</v>
@@ -15330,21 +15330,21 @@
         <v>6</v>
       </c>
       <c r="E460" s="9">
-        <f t="shared" si="81"/>
-        <v>99996</v>
+        <f t="shared" si="80"/>
+        <v>8333</v>
       </c>
       <c r="F460" s="4">
         <v>20000</v>
       </c>
       <c r="H460">
-        <f>E460*12</f>
-        <v>1199952</v>
+        <f>K460*12</f>
+        <v>99996</v>
       </c>
       <c r="K460" s="9">
         <v>8333</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461" s="3">
         <v>44510.936769780092</v>
       </c>
@@ -15361,14 +15361,14 @@
         <v>6000</v>
       </c>
       <c r="H461">
-        <f t="shared" ref="H461:H475" si="82">E461*12</f>
+        <f t="shared" ref="H461:H475" si="81">E461*12</f>
         <v>72000</v>
       </c>
       <c r="K461" s="9">
         <v>6000</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462" s="3">
         <v>44511.259961782409</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>7083</v>
       </c>
       <c r="H462">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>84996</v>
       </c>
       <c r="K462" s="9">
@@ -15406,15 +15406,15 @@
         <v>6</v>
       </c>
       <c r="E463" s="9">
-        <f t="shared" ref="E463:E464" si="83">K463*12</f>
-        <v>84996</v>
+        <f t="shared" ref="E463:E464" si="82">K463</f>
+        <v>7083</v>
       </c>
       <c r="G463" s="4">
         <v>20000</v>
       </c>
       <c r="H463">
-        <f t="shared" si="82"/>
-        <v>1019952</v>
+        <f>K463*12</f>
+        <v>84996</v>
       </c>
       <c r="J463" s="4" t="s">
         <v>112</v>
@@ -15437,15 +15437,15 @@
         <v>6</v>
       </c>
       <c r="E464" s="9">
-        <f t="shared" si="83"/>
-        <v>84996</v>
+        <f t="shared" si="82"/>
+        <v>7083</v>
       </c>
       <c r="G464" s="4">
         <v>10000</v>
       </c>
       <c r="H464">
-        <f t="shared" si="82"/>
-        <v>1019952</v>
+        <f>K464*12</f>
+        <v>84996</v>
       </c>
       <c r="I464" s="4">
         <v>10000</v>
@@ -15454,7 +15454,7 @@
         <v>7083</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465" s="3">
         <v>44510.579666157406</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>7000</v>
       </c>
       <c r="H465">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>84000</v>
       </c>
       <c r="K465" s="9">
@@ -15492,19 +15492,19 @@
         <v>6</v>
       </c>
       <c r="E466" s="9">
+        <f>K466</f>
+        <v>4800</v>
+      </c>
+      <c r="F466" s="4">
+        <v>0</v>
+      </c>
+      <c r="G466" s="4">
+        <v>0</v>
+      </c>
+      <c r="H466">
         <f>K466*12</f>
         <v>57600</v>
       </c>
-      <c r="F466" s="4">
-        <v>0</v>
-      </c>
-      <c r="G466" s="4">
-        <v>0</v>
-      </c>
-      <c r="H466">
-        <f t="shared" si="82"/>
-        <v>691200</v>
-      </c>
       <c r="J466" s="4" t="s">
         <v>270</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467" s="3">
         <v>44571.283074803243</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>1200</v>
       </c>
       <c r="H467">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>14400</v>
       </c>
       <c r="K467" s="9">
@@ -15550,22 +15550,22 @@
         <v>217</v>
       </c>
       <c r="E468" s="9">
+        <f>K468</f>
+        <v>5500</v>
+      </c>
+      <c r="H468">
         <f>K468*12</f>
         <v>66000</v>
       </c>
-      <c r="H468">
-        <f t="shared" si="82"/>
-        <v>792000</v>
-      </c>
       <c r="I468" s="4">
         <f>E468*1.25</f>
-        <v>82500</v>
+        <v>6875</v>
       </c>
       <c r="K468" s="4">
         <v>5500</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" s="3">
         <v>44639.368235578702</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>2900</v>
       </c>
       <c r="H469">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>34800</v>
       </c>
       <c r="K469" s="4">
@@ -15603,22 +15603,22 @@
         <v>6</v>
       </c>
       <c r="E470" s="9">
+        <f>K470</f>
+        <v>5700</v>
+      </c>
+      <c r="H470">
         <f>K470*12</f>
         <v>68400</v>
       </c>
-      <c r="H470">
-        <f t="shared" si="82"/>
-        <v>820800</v>
-      </c>
       <c r="I470">
         <f>H470*0.1</f>
-        <v>82080</v>
+        <v>6840</v>
       </c>
       <c r="K470" s="4">
         <v>5700</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471" s="3">
         <v>44749.503709456018</v>
       </c>
@@ -15635,14 +15635,14 @@
         <v>2900</v>
       </c>
       <c r="H471">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>34800</v>
       </c>
       <c r="K471" s="4">
         <v>2900</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472" s="3">
         <v>44511.737055821759</v>
       </c>
@@ -15659,14 +15659,14 @@
         <v>1000</v>
       </c>
       <c r="H472">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>12000</v>
       </c>
       <c r="K472" s="9">
         <v>1000</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473" s="3">
         <v>44541.696197500001</v>
       </c>
@@ -15683,14 +15683,14 @@
         <v>4000</v>
       </c>
       <c r="H473">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>48000</v>
       </c>
       <c r="K473" s="9">
         <v>4000</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474" s="3">
         <v>44530.424324548614</v>
       </c>
@@ -15707,14 +15707,14 @@
         <v>3000</v>
       </c>
       <c r="H474">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>36000</v>
       </c>
       <c r="K474" s="9">
         <v>3000</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" s="3">
         <v>44638.038237824076</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>9800</v>
       </c>
       <c r="H475">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>117600</v>
       </c>
       <c r="K475" s="4">
@@ -15752,8 +15752,8 @@
         <v>6</v>
       </c>
       <c r="E476" s="9">
-        <f>K476*12</f>
-        <v>99996</v>
+        <f>K476</f>
+        <v>8333</v>
       </c>
       <c r="F476" s="4">
         <v>30000</v>
@@ -15775,7 +15775,7 @@
         <v>8333</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477" s="3">
         <v>44510.503114270832</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478" s="3">
         <v>44840.530435370369</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>1300</v>
       </c>
       <c r="H478">
-        <f t="shared" ref="H478:H479" si="84">E478*12</f>
+        <f t="shared" ref="H478:H479" si="83">E478*12</f>
         <v>15600</v>
       </c>
       <c r="J478" s="4" t="s">
@@ -15829,7 +15829,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479" s="3">
         <v>44776.946519490739</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>1000</v>
       </c>
       <c r="H479">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>12000</v>
       </c>
       <c r="K479" s="4">
@@ -15867,8 +15867,8 @@
         <v>59</v>
       </c>
       <c r="E480" s="9">
-        <f t="shared" ref="E480:E481" si="85">K480*12</f>
-        <v>117600</v>
+        <f t="shared" ref="E480:E481" si="84">K480</f>
+        <v>9800</v>
       </c>
       <c r="F480" s="4">
         <v>20000</v>
@@ -15878,7 +15878,7 @@
       </c>
       <c r="I480" s="4">
         <f>E480*4</f>
-        <v>470400</v>
+        <v>39200</v>
       </c>
       <c r="K480" s="4">
         <v>9800</v>
@@ -15898,22 +15898,22 @@
         <v>6</v>
       </c>
       <c r="E481" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
+        <v>4200</v>
+      </c>
+      <c r="H481">
+        <f>K481*12</f>
         <v>50400</v>
-      </c>
-      <c r="H481">
-        <f>E481*12</f>
-        <v>604800</v>
       </c>
       <c r="I481" s="4">
         <f>H481*0.15</f>
-        <v>90720</v>
+        <v>7560</v>
       </c>
       <c r="K481" s="4">
         <v>4200</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482" s="3">
         <v>44510.543593900467</v>
       </c>
@@ -15930,14 +15930,14 @@
         <v>2000</v>
       </c>
       <c r="H482">
-        <f t="shared" ref="H482:H485" si="86">E482*12</f>
+        <f t="shared" ref="H482:H485" si="85">E482*12</f>
         <v>24000</v>
       </c>
       <c r="K482" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483" s="3">
         <v>44848.411861192129</v>
       </c>
@@ -15954,14 +15954,14 @@
         <v>1500</v>
       </c>
       <c r="H483">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>18000</v>
       </c>
       <c r="K483" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484" s="3">
         <v>44519.53133805556</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>1200</v>
       </c>
       <c r="H484">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>14400</v>
       </c>
       <c r="K484" s="9">
@@ -15999,12 +15999,12 @@
         <v>6</v>
       </c>
       <c r="E485" s="9">
-        <f t="shared" ref="E485:E488" si="87">K485*12</f>
+        <f t="shared" ref="E485:E488" si="86">K485</f>
+        <v>4000</v>
+      </c>
+      <c r="H485">
+        <f>K485*12</f>
         <v>48000</v>
-      </c>
-      <c r="H485">
-        <f t="shared" si="86"/>
-        <v>576000</v>
       </c>
       <c r="K485" s="4">
         <v>4000</v>
@@ -16024,15 +16024,15 @@
         <v>228</v>
       </c>
       <c r="E486" s="9">
-        <f t="shared" si="87"/>
-        <v>64800</v>
+        <f t="shared" si="86"/>
+        <v>5400</v>
       </c>
       <c r="H486" s="4">
         <v>70000</v>
       </c>
       <c r="I486" s="4">
         <f>E486</f>
-        <v>64800</v>
+        <v>5400</v>
       </c>
       <c r="J486" s="4" t="s">
         <v>229</v>
@@ -16055,15 +16055,15 @@
         <v>6</v>
       </c>
       <c r="E487" s="9">
-        <f t="shared" si="87"/>
-        <v>57600</v>
+        <f t="shared" si="86"/>
+        <v>4800</v>
       </c>
       <c r="H487" s="4">
         <v>62400</v>
       </c>
       <c r="I487" s="4">
         <f>E487</f>
-        <v>57600</v>
+        <v>4800</v>
       </c>
       <c r="K487" s="9">
         <v>4800</v>
@@ -16083,8 +16083,8 @@
         <v>6</v>
       </c>
       <c r="E488" s="9">
-        <f t="shared" si="87"/>
-        <v>98400</v>
+        <f t="shared" si="86"/>
+        <v>8200</v>
       </c>
       <c r="F488" s="4">
         <v>26000</v>
@@ -16105,7 +16105,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489" s="3">
         <v>44511.501329155093</v>
       </c>
@@ -16143,8 +16143,8 @@
         <v>6</v>
       </c>
       <c r="E490" s="9">
-        <f t="shared" ref="E490:E498" si="88">K490*12</f>
-        <v>98400</v>
+        <f t="shared" ref="E490:E498" si="87">K490</f>
+        <v>8200</v>
       </c>
       <c r="F490" s="4">
         <v>26000</v>
@@ -16156,8 +16156,8 @@
         <v>150000</v>
       </c>
       <c r="I490" s="4">
-        <f t="shared" ref="I490:I492" si="89">E490*3</f>
-        <v>295200</v>
+        <f t="shared" ref="I490:I492" si="88">E490*3</f>
+        <v>24600</v>
       </c>
       <c r="J490" s="4" t="s">
         <v>86</v>
@@ -16180,8 +16180,8 @@
         <v>6</v>
       </c>
       <c r="E491" s="9">
-        <f t="shared" si="88"/>
-        <v>96000</v>
+        <f t="shared" si="87"/>
+        <v>8000</v>
       </c>
       <c r="F491" s="4">
         <v>20000</v>
@@ -16190,8 +16190,8 @@
         <v>120000</v>
       </c>
       <c r="I491" s="4">
-        <f t="shared" si="89"/>
-        <v>288000</v>
+        <f t="shared" si="88"/>
+        <v>24000</v>
       </c>
       <c r="K491" s="4">
         <v>8000</v>
@@ -16211,8 +16211,8 @@
         <v>6</v>
       </c>
       <c r="E492" s="9">
-        <f t="shared" si="88"/>
-        <v>94800</v>
+        <f t="shared" si="87"/>
+        <v>7900</v>
       </c>
       <c r="F492" s="4">
         <v>0</v>
@@ -16224,8 +16224,8 @@
         <v>118500</v>
       </c>
       <c r="I492" s="4">
-        <f t="shared" si="89"/>
-        <v>284400</v>
+        <f t="shared" si="88"/>
+        <v>23700</v>
       </c>
       <c r="K492" s="4">
         <v>7900</v>
@@ -16245,8 +16245,8 @@
         <v>6</v>
       </c>
       <c r="E493" s="9">
-        <f t="shared" si="88"/>
-        <v>94800</v>
+        <f t="shared" si="87"/>
+        <v>7900</v>
       </c>
       <c r="F493" s="4">
         <v>22000</v>
@@ -16255,12 +16255,12 @@
         <v>0</v>
       </c>
       <c r="H493">
-        <f>E493*12+F493</f>
-        <v>1159600</v>
+        <f>K493*12+F493</f>
+        <v>116800</v>
       </c>
       <c r="I493" s="4">
         <f>E493*3</f>
-        <v>284400</v>
+        <v>23700</v>
       </c>
       <c r="J493" s="4" t="s">
         <v>94</v>
@@ -16283,8 +16283,8 @@
         <v>6</v>
       </c>
       <c r="E494" s="9">
-        <f t="shared" si="88"/>
-        <v>90000</v>
+        <f t="shared" si="87"/>
+        <v>7500</v>
       </c>
       <c r="F494" s="4">
         <v>10000</v>
@@ -16293,12 +16293,12 @@
         <v>10000</v>
       </c>
       <c r="H494">
-        <f>E494*12+F494</f>
-        <v>1090000</v>
+        <f>K494*12+F494</f>
+        <v>100000</v>
       </c>
       <c r="I494" s="4">
         <f>E494*1.5</f>
-        <v>135000</v>
+        <v>11250</v>
       </c>
       <c r="K494" s="4">
         <v>7500</v>
@@ -16318,8 +16318,8 @@
         <v>6</v>
       </c>
       <c r="E495" s="9">
-        <f t="shared" si="88"/>
-        <v>90000</v>
+        <f t="shared" si="87"/>
+        <v>7500</v>
       </c>
       <c r="F495" s="4">
         <v>0</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="I495" s="4">
         <f>E495*3</f>
-        <v>270000</v>
+        <v>22500</v>
       </c>
       <c r="J495" s="4" t="s">
         <v>104</v>
@@ -16355,8 +16355,8 @@
         <v>6</v>
       </c>
       <c r="E496" s="9">
-        <f t="shared" si="88"/>
-        <v>88800</v>
+        <f t="shared" si="87"/>
+        <v>7400</v>
       </c>
       <c r="F496" s="4">
         <v>25000</v>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="I496" s="4">
         <f>E496*1.5</f>
-        <v>133200</v>
+        <v>11100</v>
       </c>
       <c r="K496" s="9">
         <v>7400</v>
@@ -16386,15 +16386,15 @@
         <v>6</v>
       </c>
       <c r="E497" s="9">
-        <f t="shared" si="88"/>
-        <v>86400</v>
+        <f t="shared" si="87"/>
+        <v>7200</v>
       </c>
       <c r="H497" s="4">
         <v>86400</v>
       </c>
       <c r="I497" s="4">
         <f>E497*3</f>
-        <v>259200</v>
+        <v>21600</v>
       </c>
       <c r="K497" s="4">
         <v>7200</v>
@@ -16414,15 +16414,15 @@
         <v>6</v>
       </c>
       <c r="E498" s="9">
-        <f t="shared" si="88"/>
-        <v>84000</v>
+        <f t="shared" si="87"/>
+        <v>7000</v>
       </c>
       <c r="H498" s="4">
         <v>94500</v>
       </c>
       <c r="I498" s="4">
         <f>E498*1.5</f>
-        <v>126000</v>
+        <v>10500</v>
       </c>
       <c r="J498" s="4" t="s">
         <v>121</v>
@@ -16431,7 +16431,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499" s="3">
         <v>44510.564107083337</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A500" s="3">
         <v>44627.906869247687</v>
       </c>
@@ -16472,14 +16472,14 @@
         <v>4000</v>
       </c>
       <c r="H500">
-        <f t="shared" ref="H500:H507" si="90">E500*12</f>
+        <f t="shared" ref="H500:H507" si="89">E500*12</f>
         <v>48000</v>
       </c>
       <c r="K500" s="4">
         <v>4000</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A501" s="3">
         <v>44663.911180243056</v>
       </c>
@@ -16496,14 +16496,14 @@
         <v>4000</v>
       </c>
       <c r="H501">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>48000</v>
       </c>
       <c r="K501" s="4">
         <v>4000</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A502" s="3">
         <v>44530.429691736106</v>
       </c>
@@ -16520,14 +16520,14 @@
         <v>3900</v>
       </c>
       <c r="H502">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>46800</v>
       </c>
       <c r="K502" s="9">
         <v>3900</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A503" s="3">
         <v>44510.539873159723</v>
       </c>
@@ -16544,14 +16544,14 @@
         <v>3700</v>
       </c>
       <c r="H503">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>44400</v>
       </c>
       <c r="K503" s="9">
         <v>3700</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A504" s="3">
         <v>44510.61382752315</v>
       </c>
@@ -16568,14 +16568,14 @@
         <v>3700</v>
       </c>
       <c r="H504">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>44400</v>
       </c>
       <c r="K504" s="9">
         <v>3700</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A505" s="3">
         <v>44568.503337141199</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="H505">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>44400</v>
       </c>
       <c r="K505" s="9">
@@ -16619,21 +16619,21 @@
         <v>6</v>
       </c>
       <c r="E506" s="9">
+        <f>K506</f>
+        <v>3200</v>
+      </c>
+      <c r="G506" s="4">
+        <v>500</v>
+      </c>
+      <c r="H506">
         <f>K506*12</f>
         <v>38400</v>
       </c>
-      <c r="G506" s="4">
-        <v>500</v>
-      </c>
-      <c r="H506">
-        <f t="shared" si="90"/>
-        <v>460800</v>
-      </c>
       <c r="K506" s="4">
         <v>3200</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507" s="3">
         <v>44510.56757939815</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>1400</v>
       </c>
       <c r="H507">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>16800</v>
       </c>
       <c r="K507" s="9">
@@ -16671,8 +16671,8 @@
         <v>6</v>
       </c>
       <c r="E508" s="9">
-        <f t="shared" ref="E508:E511" si="91">K508*12</f>
-        <v>86400</v>
+        <f t="shared" ref="E508:E511" si="90">K508</f>
+        <v>7200</v>
       </c>
       <c r="F508" s="4">
         <v>0</v>
@@ -16685,7 +16685,7 @@
       </c>
       <c r="I508" s="4">
         <f>E508*3</f>
-        <v>259200</v>
+        <v>21600</v>
       </c>
       <c r="J508" s="4" t="s">
         <v>108</v>
@@ -16708,8 +16708,8 @@
         <v>6</v>
       </c>
       <c r="E509" s="9">
-        <f t="shared" si="91"/>
-        <v>88800</v>
+        <f t="shared" si="90"/>
+        <v>7400</v>
       </c>
       <c r="F509" s="4">
         <v>20000</v>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="I509" s="4">
         <f>E509*1.5</f>
-        <v>133200</v>
+        <v>11100</v>
       </c>
       <c r="J509" s="4" t="s">
         <v>105</v>
@@ -16745,15 +16745,15 @@
         <v>169</v>
       </c>
       <c r="E510" s="9">
-        <f t="shared" si="91"/>
-        <v>72000</v>
+        <f t="shared" si="90"/>
+        <v>6000</v>
       </c>
       <c r="H510" s="4">
         <v>95000</v>
       </c>
       <c r="I510" s="4">
         <f>E510</f>
-        <v>72000</v>
+        <v>6000</v>
       </c>
       <c r="J510" s="4" t="s">
         <v>172</v>
@@ -16776,8 +16776,8 @@
         <v>228</v>
       </c>
       <c r="E511" s="9">
-        <f t="shared" si="91"/>
-        <v>58956</v>
+        <f t="shared" si="90"/>
+        <v>4913</v>
       </c>
       <c r="F511" s="4">
         <v>0</v>
@@ -16798,7 +16798,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A512" s="3">
         <v>44832.942948506941</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A513" s="3">
         <v>44588.327139942128</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>9200</v>
       </c>
       <c r="H513">
-        <f t="shared" ref="H513:H520" si="92">E513*12</f>
+        <f t="shared" ref="H513:H520" si="91">E513*12</f>
         <v>110400</v>
       </c>
       <c r="J513" s="4" t="s">
@@ -16849,7 +16849,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A514" s="3">
         <v>44696.536163842597</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>3424</v>
       </c>
       <c r="H514">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>41088</v>
       </c>
       <c r="J514" s="4" t="s">
@@ -16876,7 +16876,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A515" s="3">
         <v>44844.490516365739</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>1800</v>
       </c>
       <c r="H515">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>21600</v>
       </c>
       <c r="J515" s="4" t="s">
@@ -16917,12 +16917,12 @@
         <v>199</v>
       </c>
       <c r="E516" s="9">
-        <f t="shared" ref="E516:E523" si="93">K516*12</f>
+        <f t="shared" ref="E516:E523" si="92">K516</f>
+        <v>5600</v>
+      </c>
+      <c r="H516">
+        <f>K516*12</f>
         <v>67200</v>
-      </c>
-      <c r="H516">
-        <f t="shared" si="92"/>
-        <v>806400</v>
       </c>
       <c r="I516" s="4" t="s">
         <v>200</v>
@@ -16948,12 +16948,12 @@
         <v>224</v>
       </c>
       <c r="E517" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
+        <v>5400</v>
+      </c>
+      <c r="H517">
+        <f>K517*12</f>
         <v>64800</v>
-      </c>
-      <c r="H517">
-        <f t="shared" si="92"/>
-        <v>777600</v>
       </c>
       <c r="I517" s="4" t="s">
         <v>225</v>
@@ -16979,12 +16979,12 @@
         <v>239</v>
       </c>
       <c r="E518" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
+        <v>5000</v>
+      </c>
+      <c r="H518">
+        <f>K518*12</f>
         <v>60000</v>
-      </c>
-      <c r="H518">
-        <f t="shared" si="92"/>
-        <v>720000</v>
       </c>
       <c r="I518" s="4" t="s">
         <v>240</v>
@@ -17010,12 +17010,12 @@
         <v>244</v>
       </c>
       <c r="E519" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
+        <v>5000</v>
+      </c>
+      <c r="H519">
+        <f>K519*12</f>
         <v>60000</v>
-      </c>
-      <c r="H519">
-        <f t="shared" si="92"/>
-        <v>720000</v>
       </c>
       <c r="I519" s="4" t="s">
         <v>245</v>
@@ -17041,12 +17041,12 @@
         <v>249</v>
       </c>
       <c r="E520" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
+        <v>5000</v>
+      </c>
+      <c r="H520">
+        <f>K520*12</f>
         <v>60000</v>
-      </c>
-      <c r="H520">
-        <f t="shared" si="92"/>
-        <v>720000</v>
       </c>
       <c r="I520" s="4" t="s">
         <v>250</v>
@@ -17072,8 +17072,8 @@
         <v>315</v>
       </c>
       <c r="E521" s="9">
-        <f t="shared" si="93"/>
-        <v>45600</v>
+        <f t="shared" si="92"/>
+        <v>3800</v>
       </c>
       <c r="F521" s="4">
         <v>0</v>
@@ -17108,12 +17108,12 @@
         <v>199</v>
       </c>
       <c r="E522" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
+        <v>3700</v>
+      </c>
+      <c r="H522">
+        <f>K522*12</f>
         <v>44400</v>
-      </c>
-      <c r="H522">
-        <f>E522*12</f>
-        <v>532800</v>
       </c>
       <c r="J522" s="4" t="s">
         <v>323</v>
@@ -17136,8 +17136,8 @@
         <v>325</v>
       </c>
       <c r="E523" s="9">
-        <f t="shared" si="93"/>
-        <v>43200</v>
+        <f t="shared" si="92"/>
+        <v>3600</v>
       </c>
       <c r="F523" s="4">
         <v>0</v>
@@ -17146,8 +17146,8 @@
         <v>0</v>
       </c>
       <c r="H523">
-        <f t="shared" ref="H523:H527" si="94">E523*12</f>
-        <v>518400</v>
+        <f>K523*12</f>
+        <v>43200</v>
       </c>
       <c r="I523" s="4">
         <v>5</v>
@@ -17159,7 +17159,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A524" s="3">
         <v>44511.861060995376</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>0</v>
       </c>
       <c r="H524">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="H523:H527" si="93">E524*12</f>
         <v>12000</v>
       </c>
       <c r="I524" s="4">
@@ -17195,7 +17195,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A525" s="3">
         <v>44511.834653148151</v>
       </c>
@@ -17212,14 +17212,14 @@
         <v>1000</v>
       </c>
       <c r="H525">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>12000</v>
       </c>
       <c r="K525" s="9">
         <v>1000</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526" s="3">
         <v>44659.76853199074</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>1300</v>
       </c>
       <c r="H526">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>15600</v>
       </c>
       <c r="J526" s="4" t="s">
@@ -17246,7 +17246,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A527" s="3">
         <v>44691.922657951392</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>1500</v>
       </c>
       <c r="H527">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>18000</v>
       </c>
       <c r="K527" s="4">
@@ -17284,8 +17284,8 @@
         <v>6</v>
       </c>
       <c r="E528" s="9">
-        <f t="shared" ref="E528:E529" si="95">K528*12</f>
-        <v>67200</v>
+        <f t="shared" ref="E528:E529" si="94">K528</f>
+        <v>5600</v>
       </c>
       <c r="F528" s="4" t="s">
         <v>18</v>
@@ -17318,22 +17318,22 @@
         <v>6</v>
       </c>
       <c r="E529" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
+        <v>5000</v>
+      </c>
+      <c r="H529">
+        <f>K529*12</f>
         <v>60000</v>
-      </c>
-      <c r="H529">
-        <f>E529*12</f>
-        <v>720000</v>
       </c>
       <c r="I529" s="4">
         <f>H529*0.1</f>
-        <v>72000</v>
+        <v>6000</v>
       </c>
       <c r="K529" s="9">
         <v>5000</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A530" s="3">
         <v>44510.654196805554</v>
       </c>
@@ -17382,8 +17382,8 @@
         <v>6</v>
       </c>
       <c r="E531" s="9">
-        <f t="shared" ref="E531:E535" si="96">K531*12</f>
-        <v>84000</v>
+        <f t="shared" ref="E531:E535" si="95">K531</f>
+        <v>7000</v>
       </c>
       <c r="G531" s="4">
         <v>10000</v>
@@ -17412,8 +17412,8 @@
         <v>6</v>
       </c>
       <c r="E532" s="9">
-        <f t="shared" si="96"/>
-        <v>74400</v>
+        <f t="shared" si="95"/>
+        <v>6200</v>
       </c>
       <c r="F532" s="4">
         <v>10000</v>
@@ -17422,12 +17422,12 @@
         <v>2500</v>
       </c>
       <c r="H532">
-        <f>E532*12+F532+G532</f>
-        <v>905300</v>
+        <f>K532*12+F532+G532</f>
+        <v>86900</v>
       </c>
       <c r="I532" s="4">
-        <f t="shared" ref="I532:I533" si="97">H532*0.15</f>
-        <v>135795</v>
+        <f t="shared" ref="I532:I533" si="96">H532*0.15</f>
+        <v>13035</v>
       </c>
       <c r="K532" s="9">
         <v>6200</v>
@@ -17447,8 +17447,8 @@
         <v>6</v>
       </c>
       <c r="E533" s="9">
-        <f t="shared" si="96"/>
-        <v>72000</v>
+        <f t="shared" si="95"/>
+        <v>6000</v>
       </c>
       <c r="F533" s="4">
         <v>10000</v>
@@ -17460,7 +17460,7 @@
         <v>79100</v>
       </c>
       <c r="I533" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>11865</v>
       </c>
       <c r="J533" s="4" t="s">
@@ -17484,8 +17484,8 @@
         <v>6</v>
       </c>
       <c r="E534" s="9">
-        <f t="shared" si="96"/>
-        <v>72000</v>
+        <f t="shared" si="95"/>
+        <v>6000</v>
       </c>
       <c r="F534" s="4">
         <v>10000</v>
@@ -17494,12 +17494,12 @@
         <v>2500</v>
       </c>
       <c r="H534">
-        <f>E534*12+F534+H536</f>
-        <v>904000</v>
+        <f>K534*12+F534+H536</f>
+        <v>112000</v>
       </c>
       <c r="I534" s="4">
         <f>H534*0.15</f>
-        <v>135600</v>
+        <v>16800</v>
       </c>
       <c r="J534" s="4" t="s">
         <v>174</v>
@@ -17522,8 +17522,8 @@
         <v>6</v>
       </c>
       <c r="E535" s="9">
-        <f t="shared" si="96"/>
-        <v>72000</v>
+        <f t="shared" si="95"/>
+        <v>6000</v>
       </c>
       <c r="F535" s="4">
         <v>10000</v>
@@ -17532,8 +17532,8 @@
         <v>2500</v>
       </c>
       <c r="H535">
-        <f>E535*12+F535+G535</f>
-        <v>876500</v>
+        <f>K535*12+F535+G535</f>
+        <v>84500</v>
       </c>
       <c r="J535" s="4" t="s">
         <v>176</v>
@@ -17542,7 +17542,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A536" s="3">
         <v>44510.54147575231</v>
       </c>
@@ -17559,14 +17559,14 @@
         <v>2500</v>
       </c>
       <c r="H536">
-        <f t="shared" ref="H536:H546" si="98">E536*12+F536+G536</f>
+        <f t="shared" ref="H536:H546" si="97">E536*12+F536+G536</f>
         <v>30000</v>
       </c>
       <c r="K536" s="9">
         <v>2500</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537" s="3">
         <v>44729.551558368054</v>
       </c>
@@ -17583,14 +17583,14 @@
         <v>2500</v>
       </c>
       <c r="H537">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>30000</v>
       </c>
       <c r="K537" s="9">
         <v>2500</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538" s="3">
         <v>44510.563513437504</v>
       </c>
@@ -17607,14 +17607,14 @@
         <v>2200</v>
       </c>
       <c r="H538">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>26400</v>
       </c>
       <c r="K538" s="9">
         <v>2200</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A539" s="3">
         <v>44517.988767962961</v>
       </c>
@@ -17631,14 +17631,14 @@
         <v>2200</v>
       </c>
       <c r="H539">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>26400</v>
       </c>
       <c r="K539" s="9">
         <v>2200</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A540" s="3">
         <v>44519.499250937501</v>
       </c>
@@ -17655,14 +17655,14 @@
         <v>2200</v>
       </c>
       <c r="H540">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>26400</v>
       </c>
       <c r="K540" s="9">
         <v>2200</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A541" s="3">
         <v>44520.553659849538</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>2200</v>
       </c>
       <c r="H541">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>26400</v>
       </c>
       <c r="J541" s="4" t="s">
@@ -17689,7 +17689,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A542" s="3">
         <v>44524.002810138889</v>
       </c>
@@ -17706,14 +17706,14 @@
         <v>2200</v>
       </c>
       <c r="H542">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>26400</v>
       </c>
       <c r="K542" s="9">
         <v>2200</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A543" s="3">
         <v>44530.424789131939</v>
       </c>
@@ -17730,14 +17730,14 @@
         <v>2200</v>
       </c>
       <c r="H543">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>26400</v>
       </c>
       <c r="K543" s="9">
         <v>2200</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A544" s="3">
         <v>44540.151157997687</v>
       </c>
@@ -17754,14 +17754,14 @@
         <v>2200</v>
       </c>
       <c r="H544">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>26400</v>
       </c>
       <c r="K544" s="9">
         <v>2200</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A545" s="3">
         <v>44556.874683530092</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>2200</v>
       </c>
       <c r="H545">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>26400</v>
       </c>
       <c r="J545" s="4" t="s">
@@ -17788,7 +17788,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A546" s="3">
         <v>44623.986708680561</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>2200</v>
       </c>
       <c r="H546">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>26400</v>
       </c>
       <c r="K546" s="4">
@@ -17826,8 +17826,8 @@
         <v>6</v>
       </c>
       <c r="E547" s="9">
-        <f t="shared" ref="E547:E548" si="99">K547*12</f>
-        <v>1680000</v>
+        <f t="shared" ref="E547:E548" si="98">K547</f>
+        <v>11666.666666666666</v>
       </c>
       <c r="H547" s="4">
         <v>160000</v>
@@ -17836,7 +17836,8 @@
         <v>25</v>
       </c>
       <c r="K547" s="4">
-        <v>140000</v>
+        <f>140000/12</f>
+        <v>11666.666666666666</v>
       </c>
     </row>
     <row r="548" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -17853,8 +17854,8 @@
         <v>6</v>
       </c>
       <c r="E548" s="9">
-        <f t="shared" si="99"/>
-        <v>1680000</v>
+        <f t="shared" si="98"/>
+        <v>11666.666666666666</v>
       </c>
       <c r="F548" s="4">
         <v>20000</v>
@@ -17872,10 +17873,11 @@
         <v>26</v>
       </c>
       <c r="K548" s="4">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="549" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+        <f>140000/12</f>
+        <v>11666.666666666666</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A549" s="3">
         <v>44554.713222430553</v>
       </c>
@@ -17899,7 +17901,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A550" s="3">
         <v>44568.679848657412</v>
       </c>
@@ -17916,7 +17918,7 @@
         <v>5500</v>
       </c>
       <c r="H550">
-        <f t="shared" ref="H550:H553" si="100">E550*12</f>
+        <f t="shared" ref="H550:H553" si="99">E550*12</f>
         <v>66000</v>
       </c>
       <c r="J550" s="4" t="s">
@@ -17926,7 +17928,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A551" s="3">
         <v>44510.67635282407</v>
       </c>
@@ -17943,14 +17945,14 @@
         <v>1500</v>
       </c>
       <c r="H551">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>18000</v>
       </c>
       <c r="K551" s="9">
         <v>1500</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A552" s="3">
         <v>44803.674778472225</v>
       </c>
@@ -17967,14 +17969,14 @@
         <v>1500</v>
       </c>
       <c r="H552">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>18000</v>
       </c>
       <c r="K552" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553" s="3">
         <v>44510.560358796298</v>
       </c>
@@ -17991,7 +17993,7 @@
         <v>1120</v>
       </c>
       <c r="H553">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>13440</v>
       </c>
       <c r="J553" s="4" t="s">
@@ -18015,8 +18017,8 @@
         <v>6</v>
       </c>
       <c r="E554" s="9">
-        <f t="shared" ref="E554:E556" si="101">K554*12</f>
-        <v>1200000</v>
+        <f t="shared" ref="E554:E556" si="100">K554</f>
+        <v>8333.3333333333339</v>
       </c>
       <c r="F554" s="4">
         <v>55000</v>
@@ -18031,7 +18033,8 @@
         <v>6000</v>
       </c>
       <c r="K554" s="4">
-        <v>100000</v>
+        <f>100000/12</f>
+        <v>8333.3333333333339</v>
       </c>
     </row>
     <row r="555" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -18048,8 +18051,8 @@
         <v>6</v>
       </c>
       <c r="E555" s="9">
-        <f t="shared" si="101"/>
-        <v>98400</v>
+        <f t="shared" si="100"/>
+        <v>8200</v>
       </c>
       <c r="F555" s="4">
         <v>50000</v>
@@ -18058,8 +18061,8 @@
         <v>0</v>
       </c>
       <c r="H555">
-        <f>E555*12</f>
-        <v>1180800</v>
+        <f>K555*12</f>
+        <v>98400</v>
       </c>
       <c r="I555" s="4">
         <v>24600</v>
@@ -18082,12 +18085,12 @@
         <v>6</v>
       </c>
       <c r="E556" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
+        <v>7000</v>
+      </c>
+      <c r="H556">
+        <f>K556*12</f>
         <v>84000</v>
-      </c>
-      <c r="H556">
-        <f t="shared" ref="H556:H560" si="102">E556*12</f>
-        <v>1008000</v>
       </c>
       <c r="J556" s="4" t="s">
         <v>127</v>
@@ -18096,7 +18099,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A557" s="3">
         <v>44727.405459525464</v>
       </c>
@@ -18113,14 +18116,14 @@
         <v>2610</v>
       </c>
       <c r="H557">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="H556:H560" si="101">E557*12</f>
         <v>31320</v>
       </c>
       <c r="K557" s="4">
         <v>2610</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A558" s="3">
         <v>44510.54936513889</v>
       </c>
@@ -18137,14 +18140,14 @@
         <v>2500</v>
       </c>
       <c r="H558">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>30000</v>
       </c>
       <c r="K558" s="9">
         <v>2500</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559" s="3">
         <v>44729.55136892361</v>
       </c>
@@ -18161,14 +18164,14 @@
         <v>2500</v>
       </c>
       <c r="H559">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>30000</v>
       </c>
       <c r="K559" s="9">
         <v>2500</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:11" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A560" s="3">
         <v>44727.381451053239</v>
       </c>
@@ -18185,7 +18188,7 @@
         <v>2610</v>
       </c>
       <c r="H560">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>31320</v>
       </c>
       <c r="K560" s="4">
@@ -18593,14 +18596,30 @@
       <c r="K660" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J560" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J560" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Fresh Grad"/>
+        <filter val="International Graduate program"/>
+        <filter val="Junior (0 - 3 years)"/>
+        <filter val="Mid (4 - 7 years)"/>
+        <filter val="Mid Career Switch"/>
+        <filter val="Semi-mid"/>
+        <filter val="Senior (8+ years)"/>
+        <filter val="Traineeship"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{96159FB4-A41E-41F0-82FC-34B374954062}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4839B331-E2E3-46A1-91FC-3920C5B6BEA7}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:P626" xr:uid="{869C4D29-DE9F-B04D-B978-123F2B76FDCD}">
+      <autoFilter ref="A2:P626" xr:uid="{C596F79C-8584-2B4D-AE12-EDF2EBCDE60A}">
         <filterColumn colId="1">
           <filters>
-            <filter val="Internship"/>
+            <filter val="Fresh Grad"/>
+            <filter val="International Graduate program"/>
+            <filter val="Junior (0 - 3 years)"/>
+            <filter val="Mid (4 - 7 years)"/>
             <filter val="Mid Career Switch"/>
             <filter val="Semi-mid"/>
             <filter val="Senior (8+ years)"/>
@@ -18609,17 +18628,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{2C57CA31-A5F3-4298-AAC2-CF1BEC295330}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{FF2CC13D-313E-4E5D-948E-15A6E3D40D82}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:P44" xr:uid="{0CBE580D-6D48-D949-90C9-8864798A6C8E}"/>
-    </customSheetView>
-    <customSheetView guid="{05BF6B27-78E1-41B6-89CC-B623511C44F1}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="E1:E661" xr:uid="{B7C2616D-E3C3-1146-9046-86AF736BBC21}"/>
+      <autoFilter ref="A1:J607" xr:uid="{CDC9762F-5B0E-2A43-839B-45051BF6AE35}"/>
     </customSheetView>
     <customSheetView guid="{95B52AD4-CE9C-43B5-ADDC-C1B3B279BDF7}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:P630" xr:uid="{CDEB19DD-7102-004D-9A22-A922EE1B6AEE}">
+      <autoFilter ref="A2:P630" xr:uid="{2A6FBD58-4EE2-B54D-9EF3-F6F45E03CB2C}">
         <filterColumn colId="1">
           <filters blank="1">
             <filter val="Fresh Grad"/>
@@ -18692,19 +18707,20 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{FF2CC13D-313E-4E5D-948E-15A6E3D40D82}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{05BF6B27-78E1-41B6-89CC-B623511C44F1}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:J607" xr:uid="{34772E44-5926-CF4D-AC46-5B0BB432F7B4}"/>
+      <autoFilter ref="E1:E661" xr:uid="{0F01704A-D0D4-0E44-A4B7-36E14912A6A4}"/>
     </customSheetView>
-    <customSheetView guid="{4839B331-E2E3-46A1-91FC-3920C5B6BEA7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2C57CA31-A5F3-4298-AAC2-CF1BEC295330}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:P626" xr:uid="{153B8E58-5A88-E447-866B-F522269271EE}">
+      <autoFilter ref="A2:P44" xr:uid="{01DEFBEC-9E79-EB4A-90F1-C379A37EEA40}"/>
+    </customSheetView>
+    <customSheetView guid="{96159FB4-A41E-41F0-82FC-34B374954062}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:P626" xr:uid="{243080C1-7C28-404D-A705-274AE415B7CB}">
         <filterColumn colId="1">
           <filters>
-            <filter val="Fresh Grad"/>
-            <filter val="International Graduate program"/>
-            <filter val="Junior (0 - 3 years)"/>
-            <filter val="Mid (4 - 7 years)"/>
+            <filter val="Internship"/>
             <filter val="Mid Career Switch"/>
             <filter val="Semi-mid"/>
             <filter val="Senior (8+ years)"/>

--- a/apps/portal/prisma/salaries.xlsx
+++ b/apps/portal/prisma/salaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartlong/Desktop/tech-interview-handbook/apps/portal/prisma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A645B7-19E9-B54F-909E-60CA88EF3664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70947517-C008-3145-9631-D1512C47BC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2112,10 +2112,10 @@
   <dimension ref="A1:AM660"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2181,8 +2181,8 @@
         <v>6</v>
       </c>
       <c r="E2" s="9">
-        <f>K2</f>
-        <v>8333</v>
+        <f>K2*12</f>
+        <v>99996</v>
       </c>
       <c r="H2">
         <f>K2*12</f>
@@ -2293,8 +2293,8 @@
         <v>6</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" ref="E6:E7" si="1">K6</f>
-        <v>5750</v>
+        <f t="shared" ref="E6:E7" si="1">K6*12</f>
+        <v>69000</v>
       </c>
       <c r="G6" s="4">
         <v>1000</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>5400</v>
+        <v>64800</v>
       </c>
       <c r="H7" s="4">
         <v>72300</v>
@@ -2468,8 +2468,8 @@
         <v>291</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" ref="E12:E13" si="3">K12</f>
-        <v>4167</v>
+        <f t="shared" ref="E12:E13" si="3">K12*12</f>
+        <v>50004</v>
       </c>
       <c r="H12">
         <f>K12*12</f>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" si="3"/>
-        <v>4600</v>
+        <v>55200</v>
       </c>
       <c r="H13">
         <f>K13*12</f>
@@ -2585,8 +2585,8 @@
         <v>6</v>
       </c>
       <c r="E16" s="9">
-        <f>K16</f>
-        <v>6500</v>
+        <f>K16*12</f>
+        <v>78000</v>
       </c>
       <c r="H16" s="4">
         <v>250000</v>
@@ -2811,8 +2811,8 @@
         <v>6</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" ref="E24:E25" si="5">K24</f>
-        <v>5600</v>
+        <f t="shared" ref="E24:E25" si="5">K24*12</f>
+        <v>67200</v>
       </c>
       <c r="F24" s="4">
         <v>40000</v>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H25" s="4">
         <v>65000</v>
@@ -2987,8 +2987,8 @@
         <v>169</v>
       </c>
       <c r="E30" s="9">
-        <f>K30</f>
-        <v>2900</v>
+        <f>K30*12</f>
+        <v>34800</v>
       </c>
       <c r="H30" s="4">
         <v>37700</v>
@@ -3074,8 +3074,8 @@
         <v>74</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" ref="E33:E34" si="7">K33</f>
-        <v>5000</v>
+        <f t="shared" ref="E33:E34" si="7">K33*12</f>
+        <v>60000</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="E34" s="9">
         <f t="shared" si="7"/>
-        <v>6083</v>
+        <v>72996</v>
       </c>
       <c r="F34" s="4">
         <v>25000</v>
@@ -3369,8 +3369,8 @@
         <v>6</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" ref="E43:E45" si="9">K43</f>
-        <v>4000</v>
+        <f t="shared" ref="E43:E45" si="9">K43*12</f>
+        <v>48000</v>
       </c>
       <c r="H43">
         <f>K43*12</f>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="E44" s="9">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>48000</v>
       </c>
       <c r="H44">
         <f>K44*12</f>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="E45" s="9">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="F45" s="4">
         <v>20000</v>
@@ -3635,8 +3635,8 @@
         <v>6</v>
       </c>
       <c r="E52" s="9">
-        <f>K52</f>
-        <v>5100</v>
+        <f>K52*12</f>
+        <v>61200</v>
       </c>
       <c r="H52" s="4">
         <v>61200</v>
@@ -3776,8 +3776,8 @@
         <v>6</v>
       </c>
       <c r="E57" s="9">
-        <f>K57</f>
-        <v>135000</v>
+        <f>K57*12</f>
+        <v>1620000</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -3842,8 +3842,8 @@
         <v>6</v>
       </c>
       <c r="E59" s="9">
-        <f>K59</f>
-        <v>9000</v>
+        <f>K59*12</f>
+        <v>108000</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -3929,8 +3929,8 @@
         <v>39</v>
       </c>
       <c r="E62" s="9">
-        <f t="shared" ref="E62:E74" si="12">K62</f>
-        <v>14000</v>
+        <f t="shared" ref="E62:E74" si="12">K62*12</f>
+        <v>168000</v>
       </c>
       <c r="F62" s="4">
         <v>200000</v>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="I62" s="4">
         <f>E62*3</f>
-        <v>42000</v>
+        <v>504000</v>
       </c>
       <c r="K62" s="4">
         <v>14000</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="E63" s="9">
         <f t="shared" si="12"/>
-        <v>8416</v>
+        <v>100992</v>
       </c>
       <c r="F63" s="4">
         <v>80000</v>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="E64" s="9">
         <f t="shared" si="12"/>
-        <v>7350</v>
+        <v>88200</v>
       </c>
       <c r="F64" s="4">
         <v>22260</v>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="I64" s="4">
         <f t="shared" ref="I64:I71" si="13">E64*1.5</f>
-        <v>11025</v>
+        <v>132300</v>
       </c>
       <c r="K64" s="9">
         <v>7350</v>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="E65" s="9">
         <f t="shared" si="12"/>
-        <v>7200</v>
+        <v>86400</v>
       </c>
       <c r="F65" s="4">
         <v>0</v>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="I65" s="4">
         <f t="shared" si="13"/>
-        <v>10800</v>
+        <v>129600</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>107</v>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="E66" s="9">
         <f t="shared" si="12"/>
-        <v>7200</v>
+        <v>86400</v>
       </c>
       <c r="F66" s="4">
         <v>0</v>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="I66" s="4">
         <f t="shared" si="13"/>
-        <v>10800</v>
+        <v>129600</v>
       </c>
       <c r="K66" s="4">
         <v>7200</v>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E67" s="9">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="H67">
         <f>K67*12</f>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="E68" s="9">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="H68">
         <f>K68*12</f>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="E69" s="9">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="F69" s="4">
         <v>0</v>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="I69" s="4">
         <f t="shared" si="13"/>
-        <v>10500</v>
+        <v>126000</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>122</v>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="E70" s="9">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="F70" s="4">
         <v>0</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="I70" s="4">
         <f t="shared" si="13"/>
-        <v>10500</v>
+        <v>126000</v>
       </c>
       <c r="K70" s="4">
         <v>7000</v>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="E71" s="9">
         <f t="shared" si="12"/>
-        <v>6800</v>
+        <v>81600</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>132</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="I71" s="4">
         <f t="shared" si="13"/>
-        <v>10200</v>
+        <v>122400</v>
       </c>
       <c r="K71" s="9">
         <v>6800</v>
@@ -4288,14 +4288,14 @@
       </c>
       <c r="E72" s="9">
         <f t="shared" si="12"/>
-        <v>6800</v>
+        <v>81600</v>
       </c>
       <c r="H72" s="4">
         <v>93150</v>
       </c>
       <c r="I72" s="4">
         <f>E72*1.5</f>
-        <v>10200</v>
+        <v>122400</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>133</v>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="E73" s="9">
         <f t="shared" si="12"/>
-        <v>6800</v>
+        <v>81600</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="I73" s="4">
         <f>E73*3</f>
-        <v>20400</v>
+        <v>244800</v>
       </c>
       <c r="K73" s="4">
         <v>6800</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="E74" s="9">
         <f t="shared" si="12"/>
-        <v>6500</v>
+        <v>78000</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="I74" s="4">
         <f>E74*3</f>
-        <v>19500</v>
+        <v>234000</v>
       </c>
       <c r="K74" s="8">
         <v>6500</v>
@@ -4854,8 +4854,8 @@
         <v>6</v>
       </c>
       <c r="E91" s="9">
-        <f t="shared" ref="E91:E92" si="15">K91</f>
-        <v>6500</v>
+        <f t="shared" ref="E91:E92" si="15">K91*12</f>
+        <v>78000</v>
       </c>
       <c r="F91" s="4">
         <v>39000</v>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="E92" s="9">
         <f t="shared" si="15"/>
-        <v>6500</v>
+        <v>78000</v>
       </c>
       <c r="F92" s="4">
         <v>39000</v>
@@ -5199,8 +5199,8 @@
         <v>6</v>
       </c>
       <c r="E103" s="9">
-        <f>K103</f>
-        <v>12500</v>
+        <f>K103*12</f>
+        <v>150000</v>
       </c>
       <c r="H103" s="4">
         <v>150000</v>
@@ -5448,8 +5448,8 @@
         <v>6</v>
       </c>
       <c r="E112" s="9">
-        <f t="shared" ref="E112:E115" si="18">K112</f>
-        <v>4300</v>
+        <f t="shared" ref="E112:E115" si="18">K112*12</f>
+        <v>51600</v>
       </c>
       <c r="H112" s="4">
         <v>51600</v>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E113" s="9">
         <f t="shared" si="18"/>
-        <v>9250</v>
+        <v>111000</v>
       </c>
       <c r="F113" s="4">
         <v>0</v>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="E114" s="9">
         <f t="shared" si="18"/>
-        <v>7916</v>
+        <v>94992</v>
       </c>
       <c r="H114">
         <f>K114*12</f>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="E115" s="9">
         <f t="shared" si="18"/>
-        <v>7916</v>
+        <v>94992</v>
       </c>
       <c r="H115" s="4">
         <v>103000</v>
@@ -5596,15 +5596,15 @@
         <v>6</v>
       </c>
       <c r="E117" s="9">
-        <f>K117</f>
-        <v>7916</v>
+        <f>K117*12</f>
+        <v>94992</v>
       </c>
       <c r="H117" s="4">
         <v>110000</v>
       </c>
       <c r="I117" s="4">
         <f>E117</f>
-        <v>7916</v>
+        <v>94992</v>
       </c>
       <c r="K117" s="4">
         <v>7916</v>
@@ -5881,8 +5881,8 @@
         <v>36</v>
       </c>
       <c r="E127" s="9">
-        <f t="shared" ref="E127:E132" si="21">K127</f>
-        <v>15000</v>
+        <f t="shared" ref="E127:E132" si="21">K127*12</f>
+        <v>180000</v>
       </c>
       <c r="H127">
         <f>K127*12</f>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="E128" s="9">
         <f t="shared" si="21"/>
-        <v>8000</v>
+        <v>96000</v>
       </c>
       <c r="F128" s="4">
         <v>0</v>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="E129" s="9">
         <f t="shared" si="21"/>
-        <v>6500</v>
+        <v>78000</v>
       </c>
       <c r="H129">
         <f>K129*12</f>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="E130" s="9">
         <f t="shared" si="21"/>
-        <v>5500</v>
+        <v>66000</v>
       </c>
       <c r="F130" s="4">
         <v>0</v>
@@ -6020,7 +6020,7 @@
       </c>
       <c r="E131" s="9">
         <f t="shared" si="21"/>
-        <v>5500</v>
+        <v>66000</v>
       </c>
       <c r="F131" s="4">
         <v>0</v>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="E132" s="9">
         <f t="shared" si="21"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H132">
         <f>K132*12</f>
@@ -6239,8 +6239,8 @@
         <v>6</v>
       </c>
       <c r="E138" s="9">
-        <f t="shared" ref="E138:E139" si="23">K138</f>
-        <v>7100</v>
+        <f t="shared" ref="E138:E139" si="23">K138*12</f>
+        <v>85200</v>
       </c>
       <c r="F138" s="4">
         <v>25000</v>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="E139" s="9">
         <f t="shared" si="23"/>
-        <v>5417</v>
+        <v>65004</v>
       </c>
       <c r="H139">
         <f>K139*12</f>
@@ -6487,8 +6487,8 @@
         <v>219</v>
       </c>
       <c r="E146" s="9">
-        <f t="shared" ref="E146:E148" si="25">K146</f>
-        <v>5500</v>
+        <f t="shared" ref="E146:E148" si="25">K146*12</f>
+        <v>66000</v>
       </c>
       <c r="F146" s="4">
         <v>0</v>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="I146" s="4">
         <f t="shared" ref="I146:I147" si="26">E146*4</f>
-        <v>22000</v>
+        <v>264000</v>
       </c>
       <c r="K146" s="4">
         <v>5500</v>
@@ -6526,14 +6526,14 @@
       </c>
       <c r="E147" s="9">
         <f t="shared" si="25"/>
-        <v>5400</v>
+        <v>64800</v>
       </c>
       <c r="H147" s="4">
         <v>90000</v>
       </c>
       <c r="I147" s="4">
         <f t="shared" si="26"/>
-        <v>21600</v>
+        <v>259200</v>
       </c>
       <c r="K147" s="9">
         <v>5400</v>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="E148" s="9">
         <f t="shared" si="25"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H148">
         <f>K148*12</f>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="I148" s="4">
         <f>E148*4</f>
-        <v>20000</v>
+        <v>240000</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>242</v>
@@ -6729,8 +6729,8 @@
         <v>169</v>
       </c>
       <c r="E154" s="9">
-        <f t="shared" ref="E154:E159" si="28">K154</f>
-        <v>5400</v>
+        <f t="shared" ref="E154:E159" si="28">K154*12</f>
+        <v>64800</v>
       </c>
       <c r="H154">
         <f>K154*12</f>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="I154" s="4">
         <f t="shared" ref="I154:I155" si="29">E154*3.5</f>
-        <v>18900</v>
+        <v>226800</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>222</v>
@@ -6765,14 +6765,14 @@
       </c>
       <c r="E155" s="9">
         <f t="shared" si="28"/>
-        <v>5700</v>
+        <v>68400</v>
       </c>
       <c r="H155" s="4">
         <v>84300</v>
       </c>
       <c r="I155" s="4">
         <f t="shared" si="29"/>
-        <v>19950</v>
+        <v>239400</v>
       </c>
       <c r="K155" s="4">
         <v>5700</v>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="E156" s="9">
         <f t="shared" si="28"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="F156" s="4">
         <v>0</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="I156" s="4">
         <f>E156*3.5</f>
-        <v>17500</v>
+        <v>210000</v>
       </c>
       <c r="K156" s="9">
         <v>5000</v>
@@ -6834,7 +6834,7 @@
       </c>
       <c r="E157" s="9">
         <f t="shared" si="28"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H157" s="4">
         <v>60000</v>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="E158" s="9">
         <f t="shared" si="28"/>
-        <v>6200</v>
+        <v>74400</v>
       </c>
       <c r="H158" s="4">
         <v>94700</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="E159" s="9">
         <f t="shared" si="28"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="F159" s="4">
         <v>0</v>
@@ -6990,8 +6990,8 @@
         <v>6</v>
       </c>
       <c r="E162" s="9">
-        <f>K162</f>
-        <v>4200</v>
+        <f>K162*12</f>
+        <v>50400</v>
       </c>
       <c r="H162">
         <f>K162*12</f>
@@ -7094,15 +7094,15 @@
         <v>14</v>
       </c>
       <c r="E166" s="9">
-        <f t="shared" ref="E166:E169" si="31">K166</f>
-        <v>4000</v>
+        <f t="shared" ref="E166:E169" si="31">K166*12</f>
+        <v>48000</v>
       </c>
       <c r="H166" s="4">
         <v>48000</v>
       </c>
       <c r="I166" s="4">
         <f>E166*2</f>
-        <v>8000</v>
+        <v>96000</v>
       </c>
       <c r="K166" s="4">
         <v>4000</v>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="E167" s="9">
         <f t="shared" si="31"/>
-        <v>4000</v>
+        <v>48000</v>
       </c>
       <c r="H167" s="4">
         <v>48000</v>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="E168" s="9">
         <f t="shared" si="31"/>
-        <v>4000</v>
+        <v>48000</v>
       </c>
       <c r="H168">
         <f>K168*12</f>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="E169" s="9">
         <f t="shared" si="31"/>
-        <v>4000</v>
+        <v>48000</v>
       </c>
       <c r="H169">
         <f>K169*12</f>
@@ -7274,8 +7274,8 @@
         <v>6</v>
       </c>
       <c r="E173" s="9">
-        <f t="shared" ref="E173:E180" si="33">K173</f>
-        <v>9750</v>
+        <f t="shared" ref="E173:E180" si="33">K173*12</f>
+        <v>117000</v>
       </c>
       <c r="F173" s="4">
         <v>25000</v>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="E174" s="9">
         <f t="shared" si="33"/>
-        <v>7900</v>
+        <v>94800</v>
       </c>
       <c r="F174" s="4">
         <v>45000</v>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="I174" s="4">
         <f>E175*2</f>
-        <v>15200</v>
+        <v>182400</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>93</v>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="E175" s="9">
         <f t="shared" si="33"/>
-        <v>7600</v>
+        <v>91200</v>
       </c>
       <c r="F175" s="4">
         <v>30000</v>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="E176" s="9">
         <f t="shared" si="33"/>
-        <v>7600</v>
+        <v>91200</v>
       </c>
       <c r="F176" s="4">
         <v>35000</v>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="E177" s="9">
         <f t="shared" si="33"/>
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="F177" s="4">
         <v>35000</v>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="E178" s="9">
         <f t="shared" si="33"/>
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="F178" s="4">
         <v>35000</v>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="E179" s="9">
         <f t="shared" si="33"/>
-        <v>6500</v>
+        <v>78000</v>
       </c>
       <c r="F179" s="4">
         <v>0</v>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="E180" s="9">
         <f t="shared" si="33"/>
-        <v>6000</v>
+        <v>72000</v>
       </c>
       <c r="F180" s="4">
         <v>0</v>
@@ -7591,8 +7591,8 @@
         <v>488</v>
       </c>
       <c r="E182" s="9">
-        <f t="shared" ref="E182:E185" si="35">K182</f>
-        <v>9441.6666666666661</v>
+        <f t="shared" ref="E182:E185" si="35">K182*12</f>
+        <v>113300</v>
       </c>
       <c r="F182" s="4">
         <v>10200</v>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="E183" s="9">
         <f t="shared" si="35"/>
-        <v>6750</v>
+        <v>81000</v>
       </c>
       <c r="F183" s="4">
         <v>0</v>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="E184" s="9">
         <f t="shared" si="35"/>
-        <v>6600</v>
+        <v>79200</v>
       </c>
       <c r="F184" s="4">
         <v>0</v>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="I184" s="4">
         <f>E184*1.5</f>
-        <v>9900</v>
+        <v>118800</v>
       </c>
       <c r="K184" s="4">
         <v>6600</v>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="E185" s="9">
         <f t="shared" si="35"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H185">
         <f>K185*12</f>
@@ -7842,8 +7842,8 @@
         <v>6</v>
       </c>
       <c r="E191" s="9">
-        <f t="shared" ref="E191:E192" si="37">K191</f>
-        <v>7000</v>
+        <f t="shared" ref="E191:E192" si="37">K191*12</f>
+        <v>84000</v>
       </c>
       <c r="H191" s="4">
         <v>117500</v>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="E192" s="9">
         <f t="shared" si="37"/>
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="H192">
         <f>K192*12</f>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="I192" s="4">
         <f>E192*3</f>
-        <v>21000</v>
+        <v>252000</v>
       </c>
       <c r="J192" s="4" t="s">
         <v>131</v>
@@ -8198,8 +8198,8 @@
         <v>6</v>
       </c>
       <c r="E205" s="9">
-        <f t="shared" ref="E205:E208" si="39">K205</f>
-        <v>7000</v>
+        <f t="shared" ref="E205:E208" si="39">K205*12</f>
+        <v>84000</v>
       </c>
       <c r="H205">
         <f>K205*12</f>
@@ -8224,7 +8224,7 @@
       </c>
       <c r="E206" s="9">
         <f t="shared" si="39"/>
-        <v>6250</v>
+        <v>75000</v>
       </c>
       <c r="F206" s="4">
         <v>0</v>
@@ -8260,7 +8260,7 @@
       </c>
       <c r="E207" s="9">
         <f t="shared" si="39"/>
-        <v>6250</v>
+        <v>75000</v>
       </c>
       <c r="G207" s="4">
         <v>16000</v>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="E208" s="9">
         <f t="shared" si="39"/>
-        <v>5833</v>
+        <v>69996</v>
       </c>
       <c r="F208" s="4">
         <v>0</v>
@@ -8449,8 +8449,8 @@
         <v>6</v>
       </c>
       <c r="E214" s="9">
-        <f t="shared" ref="E214:E216" si="41">K214</f>
-        <v>10000</v>
+        <f t="shared" ref="E214:E216" si="41">K214*12</f>
+        <v>120000</v>
       </c>
       <c r="F214" s="4">
         <v>145000</v>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I214" s="4">
         <f>E214*3</f>
-        <v>30000</v>
+        <v>360000</v>
       </c>
       <c r="K214" s="9">
         <v>10000</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="E215" s="9">
         <f t="shared" si="41"/>
-        <v>7167</v>
+        <v>86004</v>
       </c>
       <c r="F215" s="4">
         <v>70000</v>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="E216" s="9">
         <f t="shared" si="41"/>
-        <v>7166</v>
+        <v>85992</v>
       </c>
       <c r="F216" s="4">
         <v>70000</v>
@@ -8671,8 +8671,8 @@
         <v>81</v>
       </c>
       <c r="E222" s="9">
-        <f t="shared" ref="E222:E224" si="43">K222</f>
-        <v>8400</v>
+        <f t="shared" ref="E222:E224" si="43">K222*12</f>
+        <v>100800</v>
       </c>
       <c r="F222" s="4">
         <v>0</v>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="E223" s="9">
         <f t="shared" si="43"/>
-        <v>6000</v>
+        <v>72000</v>
       </c>
       <c r="F223" s="4">
         <v>0</v>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="E224" s="9">
         <f t="shared" si="43"/>
-        <v>5500</v>
+        <v>66000</v>
       </c>
       <c r="F224" s="4">
         <v>0</v>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="I224" s="4">
         <f>E224*3</f>
-        <v>16500</v>
+        <v>198000</v>
       </c>
       <c r="J224" s="4" t="s">
         <v>218</v>
@@ -9303,8 +9303,8 @@
         <v>6</v>
       </c>
       <c r="E246" s="9">
-        <f t="shared" ref="E246:E248" si="45">K246</f>
-        <v>8000</v>
+        <f t="shared" ref="E246:E248" si="45">K246*12</f>
+        <v>96000</v>
       </c>
       <c r="F246" s="4">
         <v>36920</v>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="E247" s="9">
         <f t="shared" si="45"/>
-        <v>6500</v>
+        <v>78000</v>
       </c>
       <c r="F247" s="4">
         <v>36920</v>
@@ -9378,7 +9378,7 @@
       </c>
       <c r="E248" s="9">
         <f t="shared" si="45"/>
-        <v>5500</v>
+        <v>66000</v>
       </c>
       <c r="H248">
         <f>K248*12</f>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="I248" s="4">
         <f>E248*2</f>
-        <v>11000</v>
+        <v>132000</v>
       </c>
       <c r="K248" s="4">
         <v>5500</v>
@@ -9622,8 +9622,8 @@
         <v>309</v>
       </c>
       <c r="E258" s="9">
-        <f>K258</f>
-        <v>4000</v>
+        <f>K258*12</f>
+        <v>48000</v>
       </c>
       <c r="F258" s="4">
         <v>0</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="I258" s="4">
         <f>E258*1.5</f>
-        <v>6000</v>
+        <v>72000</v>
       </c>
       <c r="J258" s="4" t="s">
         <v>310</v>
@@ -9782,8 +9782,8 @@
         <v>6</v>
       </c>
       <c r="E264" s="9">
-        <f>K264</f>
-        <v>6000</v>
+        <f>K264*12</f>
+        <v>72000</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>165</v>
@@ -10073,8 +10073,8 @@
         <v>54</v>
       </c>
       <c r="E275" s="9">
-        <f>K275</f>
-        <v>10000</v>
+        <f>K275*12</f>
+        <v>120000</v>
       </c>
       <c r="H275" s="4">
         <v>120000</v>
@@ -10247,8 +10247,8 @@
         <v>6</v>
       </c>
       <c r="E282" s="9">
-        <f t="shared" ref="E282:E287" si="50">K282</f>
-        <v>7916.666666666667</v>
+        <f t="shared" ref="E282:E287" si="50">K282*12</f>
+        <v>95000</v>
       </c>
       <c r="F282" s="4">
         <v>50000</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="E283" s="9">
         <f t="shared" si="50"/>
-        <v>5416.666666666667</v>
+        <v>65000</v>
       </c>
       <c r="F283" s="4">
         <v>5000</v>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="E284" s="9">
         <f t="shared" si="50"/>
-        <v>8750</v>
+        <v>105000</v>
       </c>
       <c r="F284" s="4">
         <v>53000</v>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="E285" s="9">
         <f t="shared" si="50"/>
-        <v>8750</v>
+        <v>105000</v>
       </c>
       <c r="F285" s="4">
         <v>53000</v>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="E286" s="9">
         <f t="shared" si="50"/>
-        <v>7900</v>
+        <v>94800</v>
       </c>
       <c r="F286" s="4">
         <v>50000</v>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="E287" s="9">
         <f t="shared" si="50"/>
-        <v>5833</v>
+        <v>69996</v>
       </c>
       <c r="F287" s="4">
         <v>0</v>
@@ -10504,8 +10504,8 @@
         <v>6</v>
       </c>
       <c r="E290" s="9">
-        <f t="shared" ref="E290:E291" si="52">K290</f>
-        <v>5417</v>
+        <f t="shared" ref="E290:E291" si="52">K290*12</f>
+        <v>65004</v>
       </c>
       <c r="F290" s="4">
         <v>0</v>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="E291" s="9">
         <f t="shared" si="52"/>
-        <v>5417</v>
+        <v>65004</v>
       </c>
       <c r="F291" s="4">
         <v>5000</v>
@@ -10592,8 +10592,8 @@
         <v>6</v>
       </c>
       <c r="E293" s="9">
-        <f>K293</f>
-        <v>5000</v>
+        <f>K293*12</f>
+        <v>60000</v>
       </c>
       <c r="F293" s="4">
         <v>10000</v>
@@ -10731,8 +10731,8 @@
         <v>322</v>
       </c>
       <c r="E298" s="9">
-        <f t="shared" ref="E298:E299" si="54">K298</f>
-        <v>3700</v>
+        <f t="shared" ref="E298:E299" si="54">K298*12</f>
+        <v>44400</v>
       </c>
       <c r="F298" s="4">
         <v>0</v>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="I298" s="4">
         <f>E298*3</f>
-        <v>11100</v>
+        <v>133200</v>
       </c>
       <c r="K298" s="9">
         <v>3700</v>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="E299" s="9">
         <f t="shared" si="54"/>
-        <v>25000</v>
+        <v>300000</v>
       </c>
       <c r="F299" s="4">
         <v>0</v>
@@ -10858,8 +10858,8 @@
         <v>6</v>
       </c>
       <c r="E302" s="9">
-        <f>K302</f>
-        <v>30000</v>
+        <f>K302*12</f>
+        <v>360000</v>
       </c>
       <c r="H302">
         <f>K302*12+G302+F302</f>
@@ -10919,8 +10919,8 @@
         <v>6</v>
       </c>
       <c r="E304" s="9">
-        <f>K304</f>
-        <v>6666</v>
+        <f>K304*12</f>
+        <v>79992</v>
       </c>
       <c r="F304" s="4">
         <v>0</v>
@@ -11003,8 +11003,8 @@
         <v>6</v>
       </c>
       <c r="E307" s="9">
-        <f>K307</f>
-        <v>5833.33</v>
+        <f>K307*12</f>
+        <v>69999.959999999992</v>
       </c>
       <c r="H307" s="4">
         <v>70000</v>
@@ -11135,8 +11135,8 @@
         <v>6</v>
       </c>
       <c r="E312" s="9">
-        <f t="shared" ref="E312:E314" si="57">K312</f>
-        <v>5833</v>
+        <f t="shared" ref="E312:E314" si="57">K312*12</f>
+        <v>69996</v>
       </c>
       <c r="F312" s="4">
         <v>0</v>
@@ -11172,7 +11172,7 @@
       </c>
       <c r="E313" s="9">
         <f t="shared" si="57"/>
-        <v>5667</v>
+        <v>68004</v>
       </c>
       <c r="F313" s="4">
         <v>0</v>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="E314" s="9">
         <f t="shared" si="57"/>
-        <v>5416</v>
+        <v>64992</v>
       </c>
       <c r="F314" s="4">
         <v>0</v>
@@ -11351,8 +11351,8 @@
         <v>6</v>
       </c>
       <c r="E319" s="9">
-        <f>K319</f>
-        <v>5000</v>
+        <f>K319*12</f>
+        <v>60000</v>
       </c>
       <c r="F319" s="4">
         <v>0</v>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="I319" s="4">
         <f>E319*1.5</f>
-        <v>7500</v>
+        <v>90000</v>
       </c>
       <c r="J319" s="4" t="s">
         <v>248</v>
@@ -11436,8 +11436,8 @@
         <v>6</v>
       </c>
       <c r="E322" s="9">
-        <f t="shared" ref="E322:E323" si="59">K322</f>
-        <v>9333</v>
+        <f t="shared" ref="E322:E323" si="59">K322*12</f>
+        <v>111996</v>
       </c>
       <c r="F322" s="4">
         <v>50000</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E323" s="9">
         <f t="shared" si="59"/>
-        <v>9333</v>
+        <v>111996</v>
       </c>
       <c r="F323" s="4">
         <v>50000</v>
@@ -11760,8 +11760,8 @@
         <v>256</v>
       </c>
       <c r="E334" s="9">
-        <f t="shared" ref="E334:E336" si="61">K334</f>
-        <v>5000</v>
+        <f t="shared" ref="E334:E336" si="61">K334*12</f>
+        <v>60000</v>
       </c>
       <c r="H334">
         <f>K334*12</f>
@@ -11790,7 +11790,7 @@
       </c>
       <c r="E335" s="9">
         <f t="shared" si="61"/>
-        <v>6250</v>
+        <v>75000</v>
       </c>
       <c r="F335" s="4">
         <v>0</v>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="E336" s="9">
         <f t="shared" si="61"/>
-        <v>3900</v>
+        <v>46800</v>
       </c>
       <c r="H336">
         <f>K336*12</f>
@@ -11834,7 +11834,7 @@
       </c>
       <c r="I336" s="4">
         <f>E336*4</f>
-        <v>15600</v>
+        <v>187200</v>
       </c>
       <c r="K336" s="4">
         <v>3900</v>
@@ -11901,8 +11901,8 @@
         <v>6</v>
       </c>
       <c r="E339" s="9">
-        <f t="shared" ref="E339:E340" si="62">K339</f>
-        <v>8500</v>
+        <f t="shared" ref="E339:E340" si="62">K339*12</f>
+        <v>102000</v>
       </c>
       <c r="F339" s="4">
         <v>20000</v>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="E340" s="9">
         <f t="shared" si="62"/>
-        <v>8000</v>
+        <v>96000</v>
       </c>
       <c r="H340" s="4">
         <v>96000</v>
@@ -11989,8 +11989,8 @@
         <v>6</v>
       </c>
       <c r="E342" s="9">
-        <f t="shared" ref="E342:E353" si="63">K342</f>
-        <v>6000</v>
+        <f t="shared" ref="E342:E353" si="63">K342*12</f>
+        <v>72000</v>
       </c>
       <c r="F342" s="4">
         <v>0</v>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="I342" s="4">
         <f>2*E342</f>
-        <v>12000</v>
+        <v>144000</v>
       </c>
       <c r="K342" s="9">
         <v>6000</v>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="E343" s="9">
         <f t="shared" si="63"/>
-        <v>5678</v>
+        <v>68136</v>
       </c>
       <c r="H343">
         <f>K343*12</f>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="I343" s="4">
         <f>3*E343</f>
-        <v>17034</v>
+        <v>204408</v>
       </c>
       <c r="J343" s="4" t="s">
         <v>191</v>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="E344" s="9">
         <f t="shared" si="63"/>
-        <v>5400</v>
+        <v>64800</v>
       </c>
       <c r="H344">
         <f>K344*12</f>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="I344" s="4">
         <f>2*E344</f>
-        <v>10800</v>
+        <v>129600</v>
       </c>
       <c r="K344" s="4">
         <v>5400</v>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="E345" s="9">
         <f t="shared" si="63"/>
-        <v>5200</v>
+        <v>62400</v>
       </c>
       <c r="H345">
         <f>K345*12</f>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="E346" s="9">
         <f t="shared" si="63"/>
-        <v>4800</v>
+        <v>57600</v>
       </c>
       <c r="H346">
         <f>K346*12</f>
@@ -12136,14 +12136,14 @@
       </c>
       <c r="E347" s="9">
         <f t="shared" si="63"/>
-        <v>4800</v>
+        <v>57600</v>
       </c>
       <c r="H347" s="4">
         <v>62400</v>
       </c>
       <c r="I347" s="4">
         <f>E347*2</f>
-        <v>9600</v>
+        <v>115200</v>
       </c>
       <c r="J347" s="4" t="s">
         <v>266</v>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="E348" s="9">
         <f t="shared" si="63"/>
-        <v>4800</v>
+        <v>57600</v>
       </c>
       <c r="H348">
         <f>K348*12</f>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="E349" s="9">
         <f t="shared" si="63"/>
-        <v>4800</v>
+        <v>57600</v>
       </c>
       <c r="H349">
         <f>K349*12</f>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="I349" s="4">
         <f t="shared" ref="I349:I353" si="64">2*E349</f>
-        <v>9600</v>
+        <v>115200</v>
       </c>
       <c r="K349" s="4">
         <v>4800</v>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="E350" s="9">
         <f t="shared" si="63"/>
-        <v>4500</v>
+        <v>54000</v>
       </c>
       <c r="F350" s="4">
         <v>0</v>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="I350" s="4">
         <f t="shared" si="64"/>
-        <v>9000</v>
+        <v>108000</v>
       </c>
       <c r="J350" s="4" t="s">
         <v>276</v>
@@ -12258,14 +12258,14 @@
       </c>
       <c r="E351" s="9">
         <f t="shared" si="63"/>
-        <v>4500</v>
+        <v>54000</v>
       </c>
       <c r="H351" s="4">
         <v>54000</v>
       </c>
       <c r="I351" s="4">
         <f t="shared" si="64"/>
-        <v>9000</v>
+        <v>108000</v>
       </c>
       <c r="J351" s="4" t="s">
         <v>278</v>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="E352" s="9">
         <f t="shared" si="63"/>
-        <v>4200</v>
+        <v>50400</v>
       </c>
       <c r="F352" s="4" t="s">
         <v>283</v>
@@ -12303,7 +12303,7 @@
       </c>
       <c r="I352" s="4">
         <f t="shared" si="64"/>
-        <v>8400</v>
+        <v>100800</v>
       </c>
       <c r="J352" s="4" t="s">
         <v>284</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="E353" s="9">
         <f t="shared" si="63"/>
-        <v>4000</v>
+        <v>48000</v>
       </c>
       <c r="F353" s="4">
         <v>0</v>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="I353" s="4">
         <f t="shared" si="64"/>
-        <v>8000</v>
+        <v>96000</v>
       </c>
       <c r="J353" s="4" t="s">
         <v>303</v>
@@ -12389,15 +12389,15 @@
         <v>6</v>
       </c>
       <c r="E355" s="9">
-        <f t="shared" ref="E355:E358" si="65">K355</f>
-        <v>6600</v>
+        <f t="shared" ref="E355:E358" si="65">K355*12</f>
+        <v>79200</v>
       </c>
       <c r="H355" s="4">
         <v>96000</v>
       </c>
       <c r="I355" s="4">
         <f>2*E355</f>
-        <v>13200</v>
+        <v>158400</v>
       </c>
       <c r="J355" s="4" t="s">
         <v>140</v>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="E356" s="9">
         <f t="shared" si="65"/>
-        <v>6500</v>
+        <v>78000</v>
       </c>
       <c r="F356" s="4">
         <v>21000</v>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="E357" s="9">
         <f t="shared" si="65"/>
-        <v>5500</v>
+        <v>66000</v>
       </c>
       <c r="H357">
         <f>K357*12+F357</f>
@@ -12480,7 +12480,7 @@
       </c>
       <c r="E358" s="9">
         <f t="shared" si="65"/>
-        <v>5500</v>
+        <v>66000</v>
       </c>
       <c r="F358" s="4">
         <v>24750</v>
@@ -12561,8 +12561,8 @@
         <v>292</v>
       </c>
       <c r="E361" s="9">
-        <f>K361</f>
-        <v>4100</v>
+        <f>K361*12</f>
+        <v>49200</v>
       </c>
       <c r="H361">
         <f>K361*12+F361</f>
@@ -12610,8 +12610,8 @@
         <v>6</v>
       </c>
       <c r="E363" s="9">
-        <f t="shared" ref="E363:E370" si="67">K363</f>
-        <v>9628</v>
+        <f t="shared" ref="E363:E370" si="67">K363*12</f>
+        <v>115536</v>
       </c>
       <c r="F363" s="4">
         <v>0</v>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="I363" s="4">
         <f t="shared" ref="I363:I369" si="68">E363*3</f>
-        <v>28884</v>
+        <v>346608</v>
       </c>
       <c r="J363" s="4" t="s">
         <v>63</v>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="E364" s="9">
         <f t="shared" si="67"/>
-        <v>9000</v>
+        <v>108000</v>
       </c>
       <c r="G364" s="4" t="s">
         <v>72</v>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="I364" s="4">
         <f t="shared" si="68"/>
-        <v>27000</v>
+        <v>324000</v>
       </c>
       <c r="J364" s="4" t="s">
         <v>73</v>
@@ -12682,7 +12682,7 @@
       </c>
       <c r="E365" s="9">
         <f t="shared" si="67"/>
-        <v>8986</v>
+        <v>107832</v>
       </c>
       <c r="F365" s="4">
         <v>0</v>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="I365" s="4">
         <f t="shared" si="68"/>
-        <v>26958</v>
+        <v>323496</v>
       </c>
       <c r="K365" s="4">
         <v>8986</v>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="E366" s="9">
         <f t="shared" si="67"/>
-        <v>9625</v>
+        <v>115500</v>
       </c>
       <c r="G366" s="4" t="s">
         <v>29</v>
@@ -12726,7 +12726,7 @@
       </c>
       <c r="I366" s="4">
         <f t="shared" si="68"/>
-        <v>28875</v>
+        <v>346500</v>
       </c>
       <c r="K366" s="9">
         <f>115500/12</f>
@@ -12748,7 +12748,7 @@
       </c>
       <c r="E367" s="9">
         <f t="shared" si="67"/>
-        <v>9628</v>
+        <v>115536</v>
       </c>
       <c r="G367" s="4">
         <v>19256</v>
@@ -12758,7 +12758,7 @@
       </c>
       <c r="I367" s="4">
         <f t="shared" si="68"/>
-        <v>28884</v>
+        <v>346608</v>
       </c>
       <c r="J367" s="4" t="s">
         <v>62</v>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="E368" s="9">
         <f t="shared" si="67"/>
-        <v>9000</v>
+        <v>108000</v>
       </c>
       <c r="G368" s="4">
         <v>18000</v>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="I368" s="4">
         <f t="shared" si="68"/>
-        <v>27000</v>
+        <v>324000</v>
       </c>
       <c r="K368" s="4">
         <v>9000</v>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="E369" s="9">
         <f t="shared" si="67"/>
-        <v>7770</v>
+        <v>93240</v>
       </c>
       <c r="F369" s="4" t="s">
         <v>95</v>
@@ -12826,7 +12826,7 @@
       </c>
       <c r="I369" s="4">
         <f t="shared" si="68"/>
-        <v>23310</v>
+        <v>279720</v>
       </c>
       <c r="J369" s="4" t="s">
         <v>96</v>
@@ -12850,7 +12850,7 @@
       </c>
       <c r="E370" s="9">
         <f t="shared" si="67"/>
-        <v>7770</v>
+        <v>93240</v>
       </c>
       <c r="F370" s="4">
         <v>0</v>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="I370" s="4">
         <f>E370*3</f>
-        <v>23310</v>
+        <v>279720</v>
       </c>
       <c r="K370" s="9">
         <v>7770</v>
@@ -13027,8 +13027,8 @@
         <v>6</v>
       </c>
       <c r="E377" s="9">
-        <f>K377</f>
-        <v>20000</v>
+        <f>K377*12</f>
+        <v>240000</v>
       </c>
       <c r="H377">
         <f>K377*12+F377+G377</f>
@@ -13079,8 +13079,8 @@
         <v>347</v>
       </c>
       <c r="E379" s="9">
-        <f>K379</f>
-        <v>3000</v>
+        <f>K379*12</f>
+        <v>36000</v>
       </c>
       <c r="F379" s="4">
         <v>0</v>
@@ -13362,15 +13362,15 @@
         <v>74</v>
       </c>
       <c r="E390" s="9">
-        <f>K390</f>
-        <v>5500</v>
+        <f>K390*12</f>
+        <v>66000</v>
       </c>
       <c r="H390" s="4">
         <v>79000</v>
       </c>
       <c r="I390" s="4">
         <f>E390*4</f>
-        <v>22000</v>
+        <v>264000</v>
       </c>
       <c r="K390" s="4">
         <v>5500</v>
@@ -13414,8 +13414,8 @@
         <v>328</v>
       </c>
       <c r="E392" s="9">
-        <f t="shared" ref="E392:E393" si="70">K392</f>
-        <v>3600</v>
+        <f t="shared" ref="E392:E393" si="70">K392*12</f>
+        <v>43200</v>
       </c>
       <c r="H392" s="4">
         <v>66000</v>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="E393" s="9">
         <f t="shared" si="70"/>
-        <v>2500</v>
+        <v>30000</v>
       </c>
       <c r="H393">
         <f>K393*12+F393+G393</f>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="I393" s="4">
         <f>E393*3</f>
-        <v>7500</v>
+        <v>90000</v>
       </c>
       <c r="K393" s="9">
         <v>2500</v>
@@ -13590,8 +13590,8 @@
         <v>6</v>
       </c>
       <c r="E399" s="9">
-        <f t="shared" ref="E399:E400" si="72">K399</f>
-        <v>5800</v>
+        <f t="shared" ref="E399:E400" si="72">K399*12</f>
+        <v>69600</v>
       </c>
       <c r="F399" s="6">
         <v>0.1</v>
@@ -13626,7 +13626,7 @@
       </c>
       <c r="E400" s="9">
         <f t="shared" si="72"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="F400" s="4">
         <v>0</v>
@@ -13639,7 +13639,7 @@
       </c>
       <c r="I400" s="4">
         <f>E400*1</f>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="J400" s="4" t="s">
         <v>255</v>
@@ -13685,8 +13685,8 @@
         <v>169</v>
       </c>
       <c r="E402" s="9">
-        <f>K402</f>
-        <v>6000</v>
+        <f>K402*12</f>
+        <v>72000</v>
       </c>
       <c r="F402" s="4" t="s">
         <v>170</v>
@@ -13893,8 +13893,8 @@
         <v>6</v>
       </c>
       <c r="E410" s="9">
-        <f>K410</f>
-        <v>7000</v>
+        <f>K410*12</f>
+        <v>84000</v>
       </c>
       <c r="F410" s="4">
         <v>28000</v>
@@ -13974,8 +13974,8 @@
         <v>6</v>
       </c>
       <c r="E413" s="9">
-        <f>K413</f>
-        <v>5500</v>
+        <f>K413*12</f>
+        <v>66000</v>
       </c>
       <c r="F413" s="4" t="s">
         <v>210</v>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="I413" s="4">
         <f>E413*3</f>
-        <v>16500</v>
+        <v>198000</v>
       </c>
       <c r="K413" s="4">
         <v>5500</v>
@@ -14105,8 +14105,8 @@
         <v>6</v>
       </c>
       <c r="E417" s="9">
-        <f>K417</f>
-        <v>7000</v>
+        <f>K417*12</f>
+        <v>84000</v>
       </c>
       <c r="F417" s="4">
         <v>50000</v>
@@ -14120,7 +14120,7 @@
       </c>
       <c r="I417" s="4">
         <f>2*E417</f>
-        <v>14000</v>
+        <v>168000</v>
       </c>
       <c r="J417" s="4" t="s">
         <v>115</v>
@@ -14191,8 +14191,8 @@
         <v>6</v>
       </c>
       <c r="E420" s="9">
-        <f t="shared" ref="E420:E436" si="76">K420</f>
-        <v>12000</v>
+        <f t="shared" ref="E420:E436" si="76">K420*12</f>
+        <v>144000</v>
       </c>
       <c r="H420" s="4">
         <f>K420*12</f>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="E421" s="9">
         <f t="shared" si="76"/>
-        <v>8000</v>
+        <v>96000</v>
       </c>
       <c r="F421" s="4">
         <v>112000</v>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I421" s="4">
         <f t="shared" ref="I421:I426" si="77">2*E421</f>
-        <v>16000</v>
+        <v>192000</v>
       </c>
       <c r="K421" s="9">
         <v>8000</v>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="E422" s="9">
         <f t="shared" si="76"/>
-        <v>7500</v>
+        <v>90000</v>
       </c>
       <c r="F422" s="4">
         <v>140000</v>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="I422" s="4">
         <f t="shared" si="77"/>
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="J422" s="4" t="s">
         <v>100</v>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="E423" s="9">
         <f t="shared" si="76"/>
-        <v>7500</v>
+        <v>90000</v>
       </c>
       <c r="F423" s="4">
         <v>140000</v>
@@ -14301,7 +14301,7 @@
       </c>
       <c r="I423" s="4">
         <f t="shared" si="77"/>
-        <v>15000</v>
+        <v>180000</v>
       </c>
       <c r="K423" s="9">
         <v>7500</v>
@@ -14322,7 +14322,7 @@
       </c>
       <c r="E424" s="9">
         <f t="shared" si="76"/>
-        <v>7200</v>
+        <v>86400</v>
       </c>
       <c r="F424" s="4">
         <v>77000</v>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="I424" s="4">
         <f t="shared" si="77"/>
-        <v>14400</v>
+        <v>172800</v>
       </c>
       <c r="J424" s="4" t="s">
         <v>106</v>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="E425" s="9">
         <f t="shared" si="76"/>
-        <v>6800</v>
+        <v>81600</v>
       </c>
       <c r="F425" s="4">
         <v>36000</v>
@@ -14372,7 +14372,7 @@
       </c>
       <c r="I425" s="4">
         <f t="shared" si="77"/>
-        <v>13600</v>
+        <v>163200</v>
       </c>
       <c r="K425" s="9">
         <v>6800</v>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="E426" s="9">
         <f t="shared" si="76"/>
-        <v>6800</v>
+        <v>81600</v>
       </c>
       <c r="F426" s="4">
         <v>39200</v>
@@ -14406,7 +14406,7 @@
       </c>
       <c r="I426" s="4">
         <f t="shared" si="77"/>
-        <v>13600</v>
+        <v>163200</v>
       </c>
       <c r="J426" s="4" t="s">
         <v>134</v>
@@ -14430,7 +14430,7 @@
       </c>
       <c r="E427" s="9">
         <f t="shared" si="76"/>
-        <v>6500</v>
+        <v>78000</v>
       </c>
       <c r="F427" s="4">
         <v>170000</v>
@@ -14440,7 +14440,7 @@
       </c>
       <c r="I427" s="4">
         <f>2*E427</f>
-        <v>13000</v>
+        <v>156000</v>
       </c>
       <c r="K427" s="9">
         <v>6500</v>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="E428" s="9">
         <f t="shared" si="76"/>
-        <v>6500</v>
+        <v>78000</v>
       </c>
       <c r="H428">
         <f>K428*12</f>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="E429" s="9">
         <f t="shared" si="76"/>
-        <v>6500</v>
+        <v>78000</v>
       </c>
       <c r="F429" s="4">
         <v>9000</v>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="I429" s="4">
         <f>E429*3</f>
-        <v>19500</v>
+        <v>234000</v>
       </c>
       <c r="J429" s="4" t="s">
         <v>144</v>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="E430" s="9">
         <f t="shared" si="76"/>
-        <v>6200</v>
+        <v>74400</v>
       </c>
       <c r="F430" s="4">
         <f>49000/4</f>
@@ -14538,7 +14538,7 @@
       </c>
       <c r="I430" s="4">
         <f t="shared" ref="I430:I435" si="78">E430*2</f>
-        <v>12400</v>
+        <v>148800</v>
       </c>
       <c r="K430" s="9">
         <v>6200</v>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="E431" s="9">
         <f t="shared" si="76"/>
-        <v>6200</v>
+        <v>74400</v>
       </c>
       <c r="F431" s="4" t="s">
         <v>155</v>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="I431" s="4">
         <f t="shared" si="78"/>
-        <v>12400</v>
+        <v>148800</v>
       </c>
       <c r="J431" s="4" t="s">
         <v>156</v>
@@ -14596,7 +14596,7 @@
       </c>
       <c r="E432" s="9">
         <f t="shared" si="76"/>
-        <v>5800</v>
+        <v>69600</v>
       </c>
       <c r="F432" s="4" t="s">
         <v>132</v>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="I432" s="4">
         <f t="shared" si="78"/>
-        <v>11600</v>
+        <v>139200</v>
       </c>
       <c r="K432" s="9">
         <v>5800</v>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="E433" s="9">
         <f t="shared" si="76"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H433">
         <f>K433*12</f>
@@ -14656,7 +14656,7 @@
       </c>
       <c r="E434" s="9">
         <f t="shared" si="76"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H434">
         <f>K434*12</f>
@@ -14664,7 +14664,7 @@
       </c>
       <c r="I434" s="4">
         <f t="shared" si="78"/>
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="J434" s="4" t="s">
         <v>260</v>
@@ -14688,7 +14688,7 @@
       </c>
       <c r="E435" s="9">
         <f t="shared" si="76"/>
-        <v>4500</v>
+        <v>54000</v>
       </c>
       <c r="H435">
         <f>K435*12</f>
@@ -14696,7 +14696,7 @@
       </c>
       <c r="I435" s="4">
         <f t="shared" si="78"/>
-        <v>9000</v>
+        <v>108000</v>
       </c>
       <c r="J435" s="4" t="s">
         <v>275</v>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="E436" s="9">
         <f t="shared" si="76"/>
-        <v>4500</v>
+        <v>54000</v>
       </c>
       <c r="H436">
         <f>K436*12</f>
@@ -14728,7 +14728,7 @@
       </c>
       <c r="I436" s="4">
         <f>E436*2</f>
-        <v>9000</v>
+        <v>108000</v>
       </c>
       <c r="K436" s="4">
         <v>4500</v>
@@ -15135,8 +15135,8 @@
         <v>6</v>
       </c>
       <c r="E453" s="9">
-        <f>K453</f>
-        <v>5200</v>
+        <f>K453*12</f>
+        <v>62400</v>
       </c>
       <c r="F453" s="4">
         <v>0</v>
@@ -15150,7 +15150,7 @@
       </c>
       <c r="I453" s="4">
         <f>E453*3</f>
-        <v>15600</v>
+        <v>187200</v>
       </c>
       <c r="K453" s="4">
         <v>5200</v>
@@ -15245,8 +15245,8 @@
         <v>320</v>
       </c>
       <c r="E457" s="9">
-        <f>K457</f>
-        <v>3800</v>
+        <f>K457*12</f>
+        <v>45600</v>
       </c>
       <c r="H457">
         <f>K457*12</f>
@@ -15297,8 +15297,8 @@
         <v>232</v>
       </c>
       <c r="E459" s="9">
-        <f t="shared" ref="E459:E460" si="80">K459</f>
-        <v>5200</v>
+        <f t="shared" ref="E459:E460" si="80">K459*12</f>
+        <v>62400</v>
       </c>
       <c r="F459" s="4" t="s">
         <v>233</v>
@@ -15331,7 +15331,7 @@
       </c>
       <c r="E460" s="9">
         <f t="shared" si="80"/>
-        <v>8333</v>
+        <v>99996</v>
       </c>
       <c r="F460" s="4">
         <v>20000</v>
@@ -15406,8 +15406,8 @@
         <v>6</v>
       </c>
       <c r="E463" s="9">
-        <f t="shared" ref="E463:E464" si="82">K463</f>
-        <v>7083</v>
+        <f t="shared" ref="E463:E464" si="82">K463*12</f>
+        <v>84996</v>
       </c>
       <c r="G463" s="4">
         <v>20000</v>
@@ -15438,7 +15438,7 @@
       </c>
       <c r="E464" s="9">
         <f t="shared" si="82"/>
-        <v>7083</v>
+        <v>84996</v>
       </c>
       <c r="G464" s="4">
         <v>10000</v>
@@ -15492,8 +15492,8 @@
         <v>6</v>
       </c>
       <c r="E466" s="9">
-        <f>K466</f>
-        <v>4800</v>
+        <f>K466*12</f>
+        <v>57600</v>
       </c>
       <c r="F466" s="4">
         <v>0</v>
@@ -15550,8 +15550,8 @@
         <v>217</v>
       </c>
       <c r="E468" s="9">
-        <f>K468</f>
-        <v>5500</v>
+        <f>K468*12</f>
+        <v>66000</v>
       </c>
       <c r="H468">
         <f>K468*12</f>
@@ -15559,7 +15559,7 @@
       </c>
       <c r="I468" s="4">
         <f>E468*1.25</f>
-        <v>6875</v>
+        <v>82500</v>
       </c>
       <c r="K468" s="4">
         <v>5500</v>
@@ -15603,8 +15603,8 @@
         <v>6</v>
       </c>
       <c r="E470" s="9">
-        <f>K470</f>
-        <v>5700</v>
+        <f>K470*12</f>
+        <v>68400</v>
       </c>
       <c r="H470">
         <f>K470*12</f>
@@ -15752,8 +15752,8 @@
         <v>6</v>
       </c>
       <c r="E476" s="9">
-        <f>K476</f>
-        <v>8333</v>
+        <f>K476*12</f>
+        <v>99996</v>
       </c>
       <c r="F476" s="4">
         <v>30000</v>
@@ -15867,8 +15867,8 @@
         <v>59</v>
       </c>
       <c r="E480" s="9">
-        <f t="shared" ref="E480:E481" si="84">K480</f>
-        <v>9800</v>
+        <f t="shared" ref="E480:E481" si="84">K480*12</f>
+        <v>117600</v>
       </c>
       <c r="F480" s="4">
         <v>20000</v>
@@ -15878,7 +15878,7 @@
       </c>
       <c r="I480" s="4">
         <f>E480*4</f>
-        <v>39200</v>
+        <v>470400</v>
       </c>
       <c r="K480" s="4">
         <v>9800</v>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="E481" s="9">
         <f t="shared" si="84"/>
-        <v>4200</v>
+        <v>50400</v>
       </c>
       <c r="H481">
         <f>K481*12</f>
@@ -15999,8 +15999,8 @@
         <v>6</v>
       </c>
       <c r="E485" s="9">
-        <f t="shared" ref="E485:E488" si="86">K485</f>
-        <v>4000</v>
+        <f t="shared" ref="E485:E488" si="86">K485*12</f>
+        <v>48000</v>
       </c>
       <c r="H485">
         <f>K485*12</f>
@@ -16025,14 +16025,14 @@
       </c>
       <c r="E486" s="9">
         <f t="shared" si="86"/>
-        <v>5400</v>
+        <v>64800</v>
       </c>
       <c r="H486" s="4">
         <v>70000</v>
       </c>
       <c r="I486" s="4">
         <f>E486</f>
-        <v>5400</v>
+        <v>64800</v>
       </c>
       <c r="J486" s="4" t="s">
         <v>229</v>
@@ -16056,14 +16056,14 @@
       </c>
       <c r="E487" s="9">
         <f t="shared" si="86"/>
-        <v>4800</v>
+        <v>57600</v>
       </c>
       <c r="H487" s="4">
         <v>62400</v>
       </c>
       <c r="I487" s="4">
         <f>E487</f>
-        <v>4800</v>
+        <v>57600</v>
       </c>
       <c r="K487" s="9">
         <v>4800</v>
@@ -16084,7 +16084,7 @@
       </c>
       <c r="E488" s="9">
         <f t="shared" si="86"/>
-        <v>8200</v>
+        <v>98400</v>
       </c>
       <c r="F488" s="4">
         <v>26000</v>
@@ -16143,8 +16143,8 @@
         <v>6</v>
       </c>
       <c r="E490" s="9">
-        <f t="shared" ref="E490:E498" si="87">K490</f>
-        <v>8200</v>
+        <f t="shared" ref="E490:E498" si="87">K490*12</f>
+        <v>98400</v>
       </c>
       <c r="F490" s="4">
         <v>26000</v>
@@ -16157,7 +16157,7 @@
       </c>
       <c r="I490" s="4">
         <f t="shared" ref="I490:I492" si="88">E490*3</f>
-        <v>24600</v>
+        <v>295200</v>
       </c>
       <c r="J490" s="4" t="s">
         <v>86</v>
@@ -16181,7 +16181,7 @@
       </c>
       <c r="E491" s="9">
         <f t="shared" si="87"/>
-        <v>8000</v>
+        <v>96000</v>
       </c>
       <c r="F491" s="4">
         <v>20000</v>
@@ -16191,7 +16191,7 @@
       </c>
       <c r="I491" s="4">
         <f t="shared" si="88"/>
-        <v>24000</v>
+        <v>288000</v>
       </c>
       <c r="K491" s="4">
         <v>8000</v>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="E492" s="9">
         <f t="shared" si="87"/>
-        <v>7900</v>
+        <v>94800</v>
       </c>
       <c r="F492" s="4">
         <v>0</v>
@@ -16225,7 +16225,7 @@
       </c>
       <c r="I492" s="4">
         <f t="shared" si="88"/>
-        <v>23700</v>
+        <v>284400</v>
       </c>
       <c r="K492" s="4">
         <v>7900</v>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="E493" s="9">
         <f t="shared" si="87"/>
-        <v>7900</v>
+        <v>94800</v>
       </c>
       <c r="F493" s="4">
         <v>22000</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="I493" s="4">
         <f>E493*3</f>
-        <v>23700</v>
+        <v>284400</v>
       </c>
       <c r="J493" s="4" t="s">
         <v>94</v>
@@ -16284,7 +16284,7 @@
       </c>
       <c r="E494" s="9">
         <f t="shared" si="87"/>
-        <v>7500</v>
+        <v>90000</v>
       </c>
       <c r="F494" s="4">
         <v>10000</v>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="I494" s="4">
         <f>E494*1.5</f>
-        <v>11250</v>
+        <v>135000</v>
       </c>
       <c r="K494" s="4">
         <v>7500</v>
@@ -16319,7 +16319,7 @@
       </c>
       <c r="E495" s="9">
         <f t="shared" si="87"/>
-        <v>7500</v>
+        <v>90000</v>
       </c>
       <c r="F495" s="4">
         <v>0</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="I495" s="4">
         <f>E495*3</f>
-        <v>22500</v>
+        <v>270000</v>
       </c>
       <c r="J495" s="4" t="s">
         <v>104</v>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="E496" s="9">
         <f t="shared" si="87"/>
-        <v>7400</v>
+        <v>88800</v>
       </c>
       <c r="F496" s="4">
         <v>25000</v>
@@ -16366,7 +16366,7 @@
       </c>
       <c r="I496" s="4">
         <f>E496*1.5</f>
-        <v>11100</v>
+        <v>133200</v>
       </c>
       <c r="K496" s="9">
         <v>7400</v>
@@ -16387,14 +16387,14 @@
       </c>
       <c r="E497" s="9">
         <f t="shared" si="87"/>
-        <v>7200</v>
+        <v>86400</v>
       </c>
       <c r="H497" s="4">
         <v>86400</v>
       </c>
       <c r="I497" s="4">
         <f>E497*3</f>
-        <v>21600</v>
+        <v>259200</v>
       </c>
       <c r="K497" s="4">
         <v>7200</v>
@@ -16415,14 +16415,14 @@
       </c>
       <c r="E498" s="9">
         <f t="shared" si="87"/>
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="H498" s="4">
         <v>94500</v>
       </c>
       <c r="I498" s="4">
         <f>E498*1.5</f>
-        <v>10500</v>
+        <v>126000</v>
       </c>
       <c r="J498" s="4" t="s">
         <v>121</v>
@@ -16619,8 +16619,8 @@
         <v>6</v>
       </c>
       <c r="E506" s="9">
-        <f>K506</f>
-        <v>3200</v>
+        <f>K506*12</f>
+        <v>38400</v>
       </c>
       <c r="G506" s="4">
         <v>500</v>
@@ -16671,8 +16671,8 @@
         <v>6</v>
       </c>
       <c r="E508" s="9">
-        <f t="shared" ref="E508:E511" si="90">K508</f>
-        <v>7200</v>
+        <f t="shared" ref="E508:E511" si="90">K508*12</f>
+        <v>86400</v>
       </c>
       <c r="F508" s="4">
         <v>0</v>
@@ -16685,7 +16685,7 @@
       </c>
       <c r="I508" s="4">
         <f>E508*3</f>
-        <v>21600</v>
+        <v>259200</v>
       </c>
       <c r="J508" s="4" t="s">
         <v>108</v>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="E509" s="9">
         <f t="shared" si="90"/>
-        <v>7400</v>
+        <v>88800</v>
       </c>
       <c r="F509" s="4">
         <v>20000</v>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="I509" s="4">
         <f>E509*1.5</f>
-        <v>11100</v>
+        <v>133200</v>
       </c>
       <c r="J509" s="4" t="s">
         <v>105</v>
@@ -16746,14 +16746,14 @@
       </c>
       <c r="E510" s="9">
         <f t="shared" si="90"/>
-        <v>6000</v>
+        <v>72000</v>
       </c>
       <c r="H510" s="4">
         <v>95000</v>
       </c>
       <c r="I510" s="4">
         <f>E510</f>
-        <v>6000</v>
+        <v>72000</v>
       </c>
       <c r="J510" s="4" t="s">
         <v>172</v>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="E511" s="9">
         <f t="shared" si="90"/>
-        <v>4913</v>
+        <v>58956</v>
       </c>
       <c r="F511" s="4">
         <v>0</v>
@@ -16917,8 +16917,8 @@
         <v>199</v>
       </c>
       <c r="E516" s="9">
-        <f t="shared" ref="E516:E523" si="92">K516</f>
-        <v>5600</v>
+        <f t="shared" ref="E516:E523" si="92">K516*12</f>
+        <v>67200</v>
       </c>
       <c r="H516">
         <f>K516*12</f>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="E517" s="9">
         <f t="shared" si="92"/>
-        <v>5400</v>
+        <v>64800</v>
       </c>
       <c r="H517">
         <f>K517*12</f>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="E518" s="9">
         <f t="shared" si="92"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H518">
         <f>K518*12</f>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="E519" s="9">
         <f t="shared" si="92"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H519">
         <f>K519*12</f>
@@ -17042,7 +17042,7 @@
       </c>
       <c r="E520" s="9">
         <f t="shared" si="92"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H520">
         <f>K520*12</f>
@@ -17073,7 +17073,7 @@
       </c>
       <c r="E521" s="9">
         <f t="shared" si="92"/>
-        <v>3800</v>
+        <v>45600</v>
       </c>
       <c r="F521" s="4">
         <v>0</v>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="E522" s="9">
         <f t="shared" si="92"/>
-        <v>3700</v>
+        <v>44400</v>
       </c>
       <c r="H522">
         <f>K522*12</f>
@@ -17137,7 +17137,7 @@
       </c>
       <c r="E523" s="9">
         <f t="shared" si="92"/>
-        <v>3600</v>
+        <v>43200</v>
       </c>
       <c r="F523" s="4">
         <v>0</v>
@@ -17284,8 +17284,8 @@
         <v>6</v>
       </c>
       <c r="E528" s="9">
-        <f t="shared" ref="E528:E529" si="94">K528</f>
-        <v>5600</v>
+        <f t="shared" ref="E528:E529" si="94">K528*12</f>
+        <v>67200</v>
       </c>
       <c r="F528" s="4" t="s">
         <v>18</v>
@@ -17319,7 +17319,7 @@
       </c>
       <c r="E529" s="9">
         <f t="shared" si="94"/>
-        <v>5000</v>
+        <v>60000</v>
       </c>
       <c r="H529">
         <f>K529*12</f>
@@ -17382,8 +17382,8 @@
         <v>6</v>
       </c>
       <c r="E531" s="9">
-        <f t="shared" ref="E531:E535" si="95">K531</f>
-        <v>7000</v>
+        <f t="shared" ref="E531:E535" si="95">K531*12</f>
+        <v>84000</v>
       </c>
       <c r="G531" s="4">
         <v>10000</v>
@@ -17413,7 +17413,7 @@
       </c>
       <c r="E532" s="9">
         <f t="shared" si="95"/>
-        <v>6200</v>
+        <v>74400</v>
       </c>
       <c r="F532" s="4">
         <v>10000</v>
@@ -17448,7 +17448,7 @@
       </c>
       <c r="E533" s="9">
         <f t="shared" si="95"/>
-        <v>6000</v>
+        <v>72000</v>
       </c>
       <c r="F533" s="4">
         <v>10000</v>
@@ -17485,7 +17485,7 @@
       </c>
       <c r="E534" s="9">
         <f t="shared" si="95"/>
-        <v>6000</v>
+        <v>72000</v>
       </c>
       <c r="F534" s="4">
         <v>10000</v>
@@ -17523,7 +17523,7 @@
       </c>
       <c r="E535" s="9">
         <f t="shared" si="95"/>
-        <v>6000</v>
+        <v>72000</v>
       </c>
       <c r="F535" s="4">
         <v>10000</v>
@@ -17826,8 +17826,8 @@
         <v>6</v>
       </c>
       <c r="E547" s="9">
-        <f t="shared" ref="E547:E548" si="98">K547</f>
-        <v>11666.666666666666</v>
+        <f t="shared" ref="E547:E548" si="98">K547*12</f>
+        <v>140000</v>
       </c>
       <c r="H547" s="4">
         <v>160000</v>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="E548" s="9">
         <f t="shared" si="98"/>
-        <v>11666.666666666666</v>
+        <v>140000</v>
       </c>
       <c r="F548" s="4">
         <v>20000</v>
@@ -18017,8 +18017,8 @@
         <v>6</v>
       </c>
       <c r="E554" s="9">
-        <f t="shared" ref="E554:E556" si="100">K554</f>
-        <v>8333.3333333333339</v>
+        <f t="shared" ref="E554:E556" si="100">K554*12</f>
+        <v>100000</v>
       </c>
       <c r="F554" s="4">
         <v>55000</v>
@@ -18052,7 +18052,7 @@
       </c>
       <c r="E555" s="9">
         <f t="shared" si="100"/>
-        <v>8200</v>
+        <v>98400</v>
       </c>
       <c r="F555" s="4">
         <v>50000</v>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="E556" s="9">
         <f t="shared" si="100"/>
-        <v>7000</v>
+        <v>84000</v>
       </c>
       <c r="H556">
         <f>K556*12</f>

--- a/apps/portal/prisma/salaries.xlsx
+++ b/apps/portal/prisma/salaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartlong/Desktop/tech-interview-handbook/apps/portal/prisma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7D0C2-FE8B-ED4F-B047-9A93D164CEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C9C30D-B24E-5344-9854-A9A88F7AC4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -1782,21 +1782,6 @@
     <t>Per Mth</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Slug</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Logo URL</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Finalized</t>
   </si>
   <si>
@@ -3364,6 +3349,21 @@
   </si>
   <si>
     <t>Siemens </t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>logoUrl</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -3733,7 +3733,7 @@
   </sheetPr>
   <dimension ref="A1:AM660"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D522" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3879,7 +3879,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -3909,7 +3909,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
@@ -3946,7 +3946,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>6</v>
@@ -3976,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -4003,7 +4003,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>402</v>
@@ -4030,7 +4030,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
@@ -4057,7 +4057,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>412</v>
@@ -4084,7 +4084,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>290</v>
@@ -4116,7 +4116,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>271</v>
@@ -4147,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
@@ -4174,7 +4174,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
@@ -4201,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
@@ -4232,7 +4232,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
@@ -4262,7 +4262,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>6</v>
@@ -4289,7 +4289,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>6</v>
@@ -4319,7 +4319,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>6</v>
@@ -4346,7 +4346,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>6</v>
@@ -4373,7 +4373,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>332</v>
@@ -4400,7 +4400,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>118</v>
@@ -4427,7 +4427,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>6</v>
@@ -4464,7 +4464,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>6</v>
@@ -4495,7 +4495,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>6</v>
@@ -4522,7 +4522,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
@@ -4549,7 +4549,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>6</v>
@@ -4576,7 +4576,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>6</v>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>168</v>
@@ -4633,7 +4633,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>6</v>
@@ -4663,7 +4663,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>6</v>
@@ -4690,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>74</v>
@@ -4726,7 +4726,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>6</v>
@@ -4766,7 +4766,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>6</v>
@@ -4793,7 +4793,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>6</v>
@@ -4820,7 +4820,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>6</v>
@@ -4847,7 +4847,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>6</v>
@@ -4874,7 +4874,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>6</v>
@@ -4901,7 +4901,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>6</v>
@@ -4928,7 +4928,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>6</v>
@@ -4955,7 +4955,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>385</v>
@@ -4985,7 +4985,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>6</v>
@@ -5013,7 +5013,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>6</v>
@@ -5044,7 +5044,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>118</v>
@@ -5080,7 +5080,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>336</v>
@@ -5107,7 +5107,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>118</v>
@@ -5137,7 +5137,7 @@
         <v>10</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>6</v>
@@ -5164,7 +5164,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>6</v>
@@ -5194,7 +5194,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>194</v>
@@ -5224,7 +5224,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>6</v>
@@ -5251,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>6</v>
@@ -5281,7 +5281,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>6</v>
@@ -5311,7 +5311,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>196</v>
@@ -5338,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>6</v>
@@ -5365,7 +5365,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>6</v>
@@ -5392,7 +5392,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>6</v>
@@ -5425,7 +5425,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>6</v>
@@ -5458,7 +5458,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>6</v>
@@ -5491,7 +5491,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>6</v>
@@ -5518,7 +5518,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>6</v>
@@ -5545,7 +5545,7 @@
         <v>34</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>39</v>
@@ -5582,7 +5582,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>6</v>
@@ -5616,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>6</v>
@@ -5651,7 +5651,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>6</v>
@@ -5691,7 +5691,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>6</v>
@@ -5728,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>6</v>
@@ -5757,7 +5757,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>6</v>
@@ -5789,7 +5789,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>6</v>
@@ -5829,7 +5829,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>123</v>
@@ -5866,7 +5866,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>6</v>
@@ -5903,7 +5903,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>6</v>
@@ -5937,7 +5937,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>6</v>
@@ -5974,7 +5974,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>6</v>
@@ -6011,7 +6011,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>6</v>
@@ -6038,7 +6038,7 @@
         <v>10</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>292</v>
@@ -6065,7 +6065,7 @@
         <v>10</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>6</v>
@@ -6092,7 +6092,7 @@
         <v>10</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>123</v>
@@ -6119,7 +6119,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>293</v>
@@ -6149,7 +6149,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>6</v>
@@ -6176,7 +6176,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>6</v>
@@ -6206,7 +6206,7 @@
         <v>10</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>6</v>
@@ -6233,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>6</v>
@@ -6266,7 +6266,7 @@
         <v>10</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>299</v>
@@ -6293,7 +6293,7 @@
         <v>10</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>6</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>6</v>
@@ -6350,7 +6350,7 @@
         <v>10</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>6</v>
@@ -6377,7 +6377,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>322</v>
@@ -6404,7 +6404,7 @@
         <v>10</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>6</v>
@@ -6443,7 +6443,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>6</v>
@@ -6470,7 +6470,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>6</v>
@@ -6500,7 +6500,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>6</v>
@@ -6539,7 +6539,7 @@
         <v>10</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>6</v>
@@ -6566,7 +6566,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>279</v>
@@ -6593,7 +6593,7 @@
         <v>10</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>123</v>
@@ -6623,7 +6623,7 @@
         <v>10</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>6</v>
@@ -6650,7 +6650,7 @@
         <v>10</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>367</v>
@@ -6677,7 +6677,7 @@
         <v>10</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>6</v>
@@ -6707,7 +6707,7 @@
         <v>10</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>6</v>
@@ -6734,7 +6734,7 @@
         <v>10</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>6</v>
@@ -6761,7 +6761,7 @@
         <v>10</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>6</v>
@@ -6788,7 +6788,7 @@
         <v>10</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>412</v>
@@ -6815,7 +6815,7 @@
         <v>4</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>6</v>
@@ -6845,7 +6845,7 @@
         <v>10</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>442</v>
@@ -6872,7 +6872,7 @@
         <v>10</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>6</v>
@@ -6899,7 +6899,7 @@
         <v>10</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>6</v>
@@ -6926,7 +6926,7 @@
         <v>10</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>6</v>
@@ -6953,7 +6953,7 @@
         <v>10</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>452</v>
@@ -6983,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>444</v>
@@ -7010,7 +7010,7 @@
         <v>10</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>6</v>
@@ -7037,7 +7037,7 @@
         <v>10</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>6</v>
@@ -7064,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>6</v>
@@ -7091,7 +7091,7 @@
         <v>68</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>6</v>
@@ -7127,7 +7127,7 @@
         <v>4</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>6</v>
@@ -7155,7 +7155,7 @@
         <v>4</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>6</v>
@@ -7185,7 +7185,7 @@
         <v>10</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>6</v>
@@ -7212,7 +7212,7 @@
         <v>4</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>6</v>
@@ -7243,7 +7243,7 @@
         <v>10</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>6</v>
@@ -7270,7 +7270,7 @@
         <v>10</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>6</v>
@@ -7300,7 +7300,7 @@
         <v>10</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>6</v>
@@ -7327,7 +7327,7 @@
         <v>10</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>6</v>
@@ -7353,7 +7353,7 @@
         <v>10</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>6</v>
@@ -7386,7 +7386,7 @@
         <v>10</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>382</v>
@@ -7413,7 +7413,7 @@
         <v>10</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>6</v>
@@ -7443,7 +7443,7 @@
         <v>10</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>6</v>
@@ -7470,7 +7470,7 @@
         <v>10</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>196</v>
@@ -7497,7 +7497,7 @@
         <v>34</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>36</v>
@@ -7532,7 +7532,7 @@
         <v>90</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>6</v>
@@ -7568,7 +7568,7 @@
         <v>4</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>6</v>
@@ -7596,7 +7596,7 @@
         <v>4</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>210</v>
@@ -7635,7 +7635,7 @@
         <v>4</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>212</v>
@@ -7674,7 +7674,7 @@
         <v>4</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>6</v>
@@ -7705,7 +7705,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>349</v>
@@ -7732,7 +7732,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>6</v>
@@ -7759,7 +7759,7 @@
         <v>10</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>6</v>
@@ -7789,7 +7789,7 @@
         <v>10</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>6</v>
@@ -7828,7 +7828,7 @@
         <v>10</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>74</v>
@@ -7855,7 +7855,7 @@
         <v>4</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>6</v>
@@ -7895,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>123</v>
@@ -7930,7 +7930,7 @@
         <v>10</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>6</v>
@@ -7957,7 +7957,7 @@
         <v>10</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>471</v>
@@ -7984,7 +7984,7 @@
         <v>10</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>6</v>
@@ -8011,7 +8011,7 @@
         <v>10</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>6</v>
@@ -8038,7 +8038,7 @@
         <v>10</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>6</v>
@@ -8076,7 +8076,7 @@
         <v>10</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>6</v>
@@ -8103,7 +8103,7 @@
         <v>4</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>218</v>
@@ -8141,7 +8141,7 @@
         <v>4</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>222</v>
@@ -8172,7 +8172,7 @@
         <v>4</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>6</v>
@@ -8207,7 +8207,7 @@
         <v>10</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>362</v>
@@ -8234,7 +8234,7 @@
         <v>10</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>377</v>
@@ -8261,7 +8261,7 @@
         <v>10</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>6</v>
@@ -8288,7 +8288,7 @@
         <v>10</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>383</v>
@@ -8318,7 +8318,7 @@
         <v>10</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>6</v>
@@ -8345,7 +8345,7 @@
         <v>4</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>168</v>
@@ -8380,7 +8380,7 @@
         <v>4</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>9</v>
@@ -8411,7 +8411,7 @@
         <v>4</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>6</v>
@@ -8449,7 +8449,7 @@
         <v>4</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>6</v>
@@ -8482,7 +8482,7 @@
         <v>4</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>6</v>
@@ -8515,7 +8515,7 @@
         <v>4</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>6</v>
@@ -8553,7 +8553,7 @@
         <v>10</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>351</v>
@@ -8578,7 +8578,7 @@
         <v>10</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>351</v>
@@ -8606,7 +8606,7 @@
         <v>4</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>6</v>
@@ -8638,7 +8638,7 @@
         <v>10</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>465</v>
@@ -8662,7 +8662,7 @@
         <v>10</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>6</v>
@@ -8686,7 +8686,7 @@
         <v>10</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>6</v>
@@ -8710,7 +8710,7 @@
         <v>4</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>14</v>
@@ -8738,7 +8738,7 @@
         <v>4</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>301</v>
@@ -8762,7 +8762,7 @@
         <v>4</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>304</v>
@@ -8787,7 +8787,7 @@
         <v>4</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>304</v>
@@ -8815,7 +8815,7 @@
         <v>10</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>451</v>
@@ -8839,7 +8839,7 @@
         <v>10</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>382</v>
@@ -8863,7 +8863,7 @@
         <v>10</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>6</v>
@@ -8890,7 +8890,7 @@
         <v>4</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>6</v>
@@ -8927,7 +8927,7 @@
         <v>4</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>6</v>
@@ -8964,7 +8964,7 @@
         <v>4</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>6</v>
@@ -9001,7 +9001,7 @@
         <v>4</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>98</v>
@@ -9038,7 +9038,7 @@
         <v>4</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>6</v>
@@ -9075,7 +9075,7 @@
         <v>4</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>6</v>
@@ -9112,7 +9112,7 @@
         <v>4</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>6</v>
@@ -9149,7 +9149,7 @@
         <v>4</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>6</v>
@@ -9183,7 +9183,7 @@
         <v>10</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>6</v>
@@ -9207,7 +9207,7 @@
         <v>4</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>484</v>
@@ -9239,7 +9239,7 @@
         <v>4</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>6</v>
@@ -9276,7 +9276,7 @@
         <v>4</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>6</v>
@@ -9310,7 +9310,7 @@
         <v>260</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>6</v>
@@ -9335,7 +9335,7 @@
         <v>10</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>168</v>
@@ -9359,7 +9359,7 @@
         <v>10</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>6</v>
@@ -9386,7 +9386,7 @@
         <v>10</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>6</v>
@@ -9410,7 +9410,7 @@
         <v>10</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>6</v>
@@ -9434,7 +9434,7 @@
         <v>10</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>6</v>
@@ -9458,7 +9458,7 @@
         <v>4</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>6</v>
@@ -9488,7 +9488,7 @@
         <v>4</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>130</v>
@@ -9520,7 +9520,7 @@
         <v>10</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>6</v>
@@ -9544,7 +9544,7 @@
         <v>10</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>6</v>
@@ -9568,7 +9568,7 @@
         <v>10</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>6</v>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>6</v>
@@ -9616,7 +9616,7 @@
         <v>10</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>6</v>
@@ -9643,7 +9643,7 @@
         <v>10</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>168</v>
@@ -9667,7 +9667,7 @@
         <v>10</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>355</v>
@@ -9691,7 +9691,7 @@
         <v>10</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>6</v>
@@ -9715,7 +9715,7 @@
         <v>10</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>168</v>
@@ -9739,7 +9739,7 @@
         <v>10</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>6</v>
@@ -9763,7 +9763,7 @@
         <v>10</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>6</v>
@@ -9790,7 +9790,7 @@
         <v>10</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>395</v>
@@ -9814,7 +9814,7 @@
         <v>4</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>6</v>
@@ -9839,7 +9839,7 @@
         <v>4</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>6</v>
@@ -9875,7 +9875,7 @@
         <v>4</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>6</v>
@@ -9909,7 +9909,7 @@
         <v>4</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>6</v>
@@ -9945,7 +9945,7 @@
         <v>10</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>6</v>
@@ -9969,7 +9969,7 @@
         <v>10</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>6</v>
@@ -9993,7 +9993,7 @@
         <v>10</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>6</v>
@@ -10017,7 +10017,7 @@
         <v>10</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>6</v>
@@ -10041,7 +10041,7 @@
         <v>10</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>6</v>
@@ -10065,7 +10065,7 @@
         <v>4</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>6</v>
@@ -10099,7 +10099,7 @@
         <v>4</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>6</v>
@@ -10133,7 +10133,7 @@
         <v>4</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>6</v>
@@ -10164,7 +10164,7 @@
         <v>10</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>6</v>
@@ -10191,7 +10191,7 @@
         <v>10</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>6</v>
@@ -10215,7 +10215,7 @@
         <v>10</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>6</v>
@@ -10239,7 +10239,7 @@
         <v>10</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>6</v>
@@ -10263,7 +10263,7 @@
         <v>10</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>6</v>
@@ -10287,7 +10287,7 @@
         <v>34</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>81</v>
@@ -10320,7 +10320,7 @@
         <v>4</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>6</v>
@@ -10356,7 +10356,7 @@
         <v>4</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>123</v>
@@ -10393,7 +10393,7 @@
         <v>10</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>6</v>
@@ -10417,7 +10417,7 @@
         <v>10</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>6</v>
@@ -10448,7 +10448,7 @@
         <v>10</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>6</v>
@@ -10475,7 +10475,7 @@
         <v>10</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>343</v>
@@ -10499,7 +10499,7 @@
         <v>10</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>6</v>
@@ -10523,7 +10523,7 @@
         <v>10</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>6</v>
@@ -10550,7 +10550,7 @@
         <v>10</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>350</v>
@@ -10574,7 +10574,7 @@
         <v>10</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>6</v>
@@ -10601,7 +10601,7 @@
         <v>10</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>6</v>
@@ -10625,7 +10625,7 @@
         <v>10</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>6</v>
@@ -10649,7 +10649,7 @@
         <v>10</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>6</v>
@@ -10673,7 +10673,7 @@
         <v>10</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>6</v>
@@ -10700,7 +10700,7 @@
         <v>10</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>6</v>
@@ -10724,7 +10724,7 @@
         <v>10</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>6</v>
@@ -10748,7 +10748,7 @@
         <v>10</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>6</v>
@@ -10772,7 +10772,7 @@
         <v>10</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>6</v>
@@ -10796,7 +10796,7 @@
         <v>10</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>373</v>
@@ -10820,7 +10820,7 @@
         <v>10</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>6</v>
@@ -10844,7 +10844,7 @@
         <v>10</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>6</v>
@@ -10868,7 +10868,7 @@
         <v>10</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>65</v>
@@ -10895,7 +10895,7 @@
         <v>10</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>21</v>
@@ -10919,7 +10919,7 @@
         <v>4</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>6</v>
@@ -10956,7 +10956,7 @@
         <v>4</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>6</v>
@@ -10993,7 +10993,7 @@
         <v>4</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>6</v>
@@ -11022,7 +11022,7 @@
         <v>10</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>6</v>
@@ -11046,7 +11046,7 @@
         <v>10</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>6</v>
@@ -11070,7 +11070,7 @@
         <v>10</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>352</v>
@@ -11094,7 +11094,7 @@
         <v>10</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>6</v>
@@ -11118,7 +11118,7 @@
         <v>10</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>6</v>
@@ -11142,7 +11142,7 @@
         <v>10</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>358</v>
@@ -11166,7 +11166,7 @@
         <v>10</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>359</v>
@@ -11190,7 +11190,7 @@
         <v>10</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>6</v>
@@ -11214,7 +11214,7 @@
         <v>10</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>258</v>
@@ -11238,7 +11238,7 @@
         <v>4</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>308</v>
@@ -11275,7 +11275,7 @@
         <v>10</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>6</v>
@@ -11299,7 +11299,7 @@
         <v>10</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>6</v>
@@ -11323,7 +11323,7 @@
         <v>10</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>6</v>
@@ -11347,7 +11347,7 @@
         <v>10</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>168</v>
@@ -11371,7 +11371,7 @@
         <v>10</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>6</v>
@@ -11398,7 +11398,7 @@
         <v>4</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>6</v>
@@ -11434,7 +11434,7 @@
         <v>10</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>6</v>
@@ -11461,7 +11461,7 @@
         <v>10</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>382</v>
@@ -11488,7 +11488,7 @@
         <v>10</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>6</v>
@@ -11515,7 +11515,7 @@
         <v>10</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>419</v>
@@ -11539,7 +11539,7 @@
         <v>10</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>419</v>
@@ -11566,7 +11566,7 @@
         <v>10</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>6</v>
@@ -11617,7 +11617,7 @@
         <v>10</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>6</v>
@@ -11641,7 +11641,7 @@
         <v>10</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>6</v>
@@ -11665,7 +11665,7 @@
         <v>10</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>6</v>
@@ -11719,7 +11719,7 @@
         <v>10</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>6</v>
@@ -11743,7 +11743,7 @@
         <v>10</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>168</v>
@@ -11767,7 +11767,7 @@
         <v>10</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>6</v>
@@ -11791,7 +11791,7 @@
         <v>10</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>168</v>
@@ -11815,7 +11815,7 @@
         <v>10</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>6</v>
@@ -11839,7 +11839,7 @@
         <v>10</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>349</v>
@@ -11863,7 +11863,7 @@
         <v>4</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>6</v>
@@ -11894,7 +11894,7 @@
         <v>4</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>6</v>
@@ -11932,7 +11932,7 @@
         <v>4</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>74</v>
@@ -11970,7 +11970,7 @@
         <v>4</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>6</v>
@@ -12008,7 +12008,7 @@
         <v>4</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>6</v>
@@ -12042,7 +12042,7 @@
         <v>4</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>6</v>
@@ -12072,7 +12072,7 @@
         <v>10</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>6</v>
@@ -12096,7 +12096,7 @@
         <v>10</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>6</v>
@@ -12120,7 +12120,7 @@
         <v>4</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>6</v>
@@ -12150,7 +12150,7 @@
         <v>4</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>6</v>
@@ -12184,7 +12184,7 @@
         <v>10</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>6</v>
@@ -12208,7 +12208,7 @@
         <v>4</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>6</v>
@@ -12245,7 +12245,7 @@
         <v>10</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>6</v>
@@ -12269,7 +12269,7 @@
         <v>10</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>6</v>
@@ -12296,7 +12296,7 @@
         <v>10</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>6</v>
@@ -12323,7 +12323,7 @@
         <v>10</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>74</v>
@@ -12381,7 +12381,7 @@
         <v>4</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>6</v>
@@ -12417,7 +12417,7 @@
         <v>10</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>16</v>
@@ -12447,7 +12447,7 @@
         <v>10</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>6</v>
@@ -12474,7 +12474,7 @@
         <v>4</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>6</v>
@@ -12499,7 +12499,7 @@
         <v>10</v>
       </c>
       <c r="C303" s="9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>6</v>
@@ -12535,7 +12535,7 @@
         <v>4</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>6</v>
@@ -12571,7 +12571,7 @@
         <v>10</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>6</v>
@@ -12595,7 +12595,7 @@
         <v>10</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>6</v>
@@ -12619,7 +12619,7 @@
         <v>4</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>6</v>
@@ -12646,7 +12646,7 @@
         <v>10</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>6</v>
@@ -12673,7 +12673,7 @@
         <v>10</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>6</v>
@@ -12700,7 +12700,7 @@
         <v>10</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>6</v>
@@ -12724,7 +12724,7 @@
         <v>10</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>6</v>
@@ -12751,7 +12751,7 @@
         <v>4</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>6</v>
@@ -12787,7 +12787,7 @@
         <v>4</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>6</v>
@@ -12823,7 +12823,7 @@
         <v>4</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>6</v>
@@ -12853,7 +12853,7 @@
         <v>10</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>6</v>
@@ -12889,7 +12889,7 @@
         <v>10</v>
       </c>
       <c r="C316" s="9" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>46</v>
@@ -12916,7 +12916,7 @@
         <v>10</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>48</v>
@@ -12940,7 +12940,7 @@
         <v>10</v>
       </c>
       <c r="C318" s="9" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>6</v>
@@ -12967,7 +12967,7 @@
         <v>4</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>6</v>
@@ -13001,7 +13001,7 @@
         <v>10</v>
       </c>
       <c r="C320" s="9" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>409</v>
@@ -13028,7 +13028,7 @@
         <v>10</v>
       </c>
       <c r="C321" s="9" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>298</v>
@@ -13052,7 +13052,7 @@
         <v>4</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>6</v>
@@ -13090,7 +13090,7 @@
         <v>4</v>
       </c>
       <c r="C323" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D323" s="4" t="s">
         <v>6</v>
@@ -13127,7 +13127,7 @@
         <v>10</v>
       </c>
       <c r="C324" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>6</v>
@@ -13151,7 +13151,7 @@
         <v>10</v>
       </c>
       <c r="C325" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>6</v>
@@ -13178,7 +13178,7 @@
         <v>10</v>
       </c>
       <c r="C326" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>6</v>
@@ -13205,7 +13205,7 @@
         <v>10</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>6</v>
@@ -13229,7 +13229,7 @@
         <v>10</v>
       </c>
       <c r="C328" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>6</v>
@@ -13253,7 +13253,7 @@
         <v>10</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>6</v>
@@ -13280,7 +13280,7 @@
         <v>10</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>6</v>
@@ -13304,7 +13304,7 @@
         <v>10</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>6</v>
@@ -13328,7 +13328,7 @@
         <v>10</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D332" s="4" t="s">
         <v>401</v>
@@ -13352,7 +13352,7 @@
         <v>10</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>405</v>
@@ -13376,7 +13376,7 @@
         <v>4</v>
       </c>
       <c r="C334" s="9" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>255</v>
@@ -13405,7 +13405,7 @@
         <v>4</v>
       </c>
       <c r="C335" s="9" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>6</v>
@@ -13470,7 +13470,7 @@
         <v>10</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>6</v>
@@ -13493,7 +13493,7 @@
         <v>10</v>
       </c>
       <c r="C338" s="9" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>6</v>
@@ -13517,7 +13517,7 @@
         <v>4</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>6</v>
@@ -13554,7 +13554,7 @@
         <v>4</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>6</v>
@@ -13581,7 +13581,7 @@
         <v>10</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>6</v>
@@ -13605,7 +13605,7 @@
         <v>4</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>6</v>
@@ -13640,7 +13640,7 @@
         <v>4</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>6</v>
@@ -13672,7 +13672,7 @@
         <v>4</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>6</v>
@@ -13701,7 +13701,7 @@
         <v>4</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>6</v>
@@ -13726,7 +13726,7 @@
         <v>4</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>6</v>
@@ -13751,7 +13751,7 @@
         <v>4</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>264</v>
@@ -13782,7 +13782,7 @@
         <v>266</v>
       </c>
       <c r="C348" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>267</v>
@@ -13807,7 +13807,7 @@
         <v>4</v>
       </c>
       <c r="C349" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>6</v>
@@ -13836,7 +13836,7 @@
         <v>4</v>
       </c>
       <c r="C350" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>6</v>
@@ -13873,7 +13873,7 @@
         <v>4</v>
       </c>
       <c r="C351" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>6</v>
@@ -13904,7 +13904,7 @@
         <v>4</v>
       </c>
       <c r="C352" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>6</v>
@@ -13942,7 +13942,7 @@
         <v>4</v>
       </c>
       <c r="C353" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D353" s="4" t="s">
         <v>6</v>
@@ -13980,7 +13980,7 @@
         <v>10</v>
       </c>
       <c r="C354" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D354" s="4" t="s">
         <v>6</v>
@@ -14005,7 +14005,7 @@
         <v>34</v>
       </c>
       <c r="C355" s="9" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>6</v>
@@ -14036,7 +14036,7 @@
         <v>4</v>
       </c>
       <c r="C356" s="9" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>6</v>
@@ -14067,7 +14067,7 @@
         <v>4</v>
       </c>
       <c r="C357" s="9" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>6</v>
@@ -14095,7 +14095,7 @@
         <v>4</v>
       </c>
       <c r="C358" s="9" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>6</v>
@@ -14129,7 +14129,7 @@
         <v>10</v>
       </c>
       <c r="C359" s="9" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D359" s="4" t="s">
         <v>349</v>
@@ -14153,7 +14153,7 @@
         <v>10</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>6</v>
@@ -14177,7 +14177,7 @@
         <v>4</v>
       </c>
       <c r="C361" s="9" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>291</v>
@@ -14202,7 +14202,7 @@
         <v>10</v>
       </c>
       <c r="C362" s="9" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>168</v>
@@ -14226,7 +14226,7 @@
         <v>4</v>
       </c>
       <c r="C363" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>6</v>
@@ -14263,7 +14263,7 @@
         <v>4</v>
       </c>
       <c r="C364" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>6</v>
@@ -14297,7 +14297,7 @@
         <v>4</v>
       </c>
       <c r="C365" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>6</v>
@@ -14331,7 +14331,7 @@
         <v>4</v>
       </c>
       <c r="C366" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>6</v>
@@ -14363,7 +14363,7 @@
         <v>4</v>
       </c>
       <c r="C367" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>6</v>
@@ -14397,7 +14397,7 @@
         <v>4</v>
       </c>
       <c r="C368" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>6</v>
@@ -14428,7 +14428,7 @@
         <v>4</v>
       </c>
       <c r="C369" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>6</v>
@@ -14465,7 +14465,7 @@
         <v>4</v>
       </c>
       <c r="C370" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D370" s="4" t="s">
         <v>6</v>
@@ -14499,7 +14499,7 @@
         <v>10</v>
       </c>
       <c r="C371" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D371" s="4" t="s">
         <v>6</v>
@@ -14523,7 +14523,7 @@
         <v>10</v>
       </c>
       <c r="C372" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>6</v>
@@ -14547,7 +14547,7 @@
         <v>10</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>276</v>
@@ -14571,7 +14571,7 @@
         <v>10</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>6</v>
@@ -14595,7 +14595,7 @@
         <v>10</v>
       </c>
       <c r="C375" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>6</v>
@@ -14619,7 +14619,7 @@
         <v>10</v>
       </c>
       <c r="C376" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>6</v>
@@ -14643,7 +14643,7 @@
         <v>4</v>
       </c>
       <c r="C377" s="9" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>6</v>
@@ -14671,7 +14671,7 @@
         <v>10</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>33</v>
@@ -14695,7 +14695,7 @@
         <v>90</v>
       </c>
       <c r="C379" s="9" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>345</v>
@@ -14732,7 +14732,7 @@
         <v>10</v>
       </c>
       <c r="C380" s="9" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>6</v>
@@ -14756,7 +14756,7 @@
         <v>10</v>
       </c>
       <c r="C381" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>6</v>
@@ -14783,7 +14783,7 @@
         <v>10</v>
       </c>
       <c r="C382" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>6</v>
@@ -14810,7 +14810,7 @@
         <v>10</v>
       </c>
       <c r="C383" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>6</v>
@@ -14834,7 +14834,7 @@
         <v>10</v>
       </c>
       <c r="C384" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>6</v>
@@ -14858,7 +14858,7 @@
         <v>10</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>6</v>
@@ -14882,7 +14882,7 @@
         <v>10</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D386" s="4" t="s">
         <v>370</v>
@@ -14906,7 +14906,7 @@
         <v>10</v>
       </c>
       <c r="C387" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>372</v>
@@ -14930,7 +14930,7 @@
         <v>10</v>
       </c>
       <c r="C388" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D388" s="4" t="s">
         <v>351</v>
@@ -14954,7 +14954,7 @@
         <v>10</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>6</v>
@@ -14978,7 +14978,7 @@
         <v>4</v>
       </c>
       <c r="C390" s="9" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>74</v>
@@ -15006,7 +15006,7 @@
         <v>10</v>
       </c>
       <c r="C391" s="9" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>279</v>
@@ -15030,7 +15030,7 @@
         <v>4</v>
       </c>
       <c r="C392" s="9" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>326</v>
@@ -15060,7 +15060,7 @@
         <v>4</v>
       </c>
       <c r="C393" s="9" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>356</v>
@@ -15089,7 +15089,7 @@
         <v>10</v>
       </c>
       <c r="C394" s="9" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>168</v>
@@ -15113,7 +15113,7 @@
         <v>10</v>
       </c>
       <c r="C395" s="9" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>6</v>
@@ -15131,7 +15131,7 @@
         <v>10</v>
       </c>
       <c r="C396" s="9" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>473</v>
@@ -15155,7 +15155,7 @@
         <v>10</v>
       </c>
       <c r="C397" s="9" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>6</v>
@@ -15182,7 +15182,7 @@
         <v>10</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>6</v>
@@ -15206,7 +15206,7 @@
         <v>4</v>
       </c>
       <c r="C399" s="9" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>6</v>
@@ -15242,7 +15242,7 @@
         <v>4</v>
       </c>
       <c r="C400" s="9" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>253</v>
@@ -15279,7 +15279,7 @@
         <v>10</v>
       </c>
       <c r="C401" s="9" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D401" s="4" t="s">
         <v>6</v>
@@ -15302,7 +15302,7 @@
         <v>4</v>
       </c>
       <c r="C402" s="9" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D402" s="4" t="s">
         <v>168</v>
@@ -15366,7 +15366,7 @@
         <v>10</v>
       </c>
       <c r="C404" s="9" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D404" s="4" t="s">
         <v>351</v>
@@ -15390,7 +15390,7 @@
         <v>10</v>
       </c>
       <c r="C405" s="9" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>424</v>
@@ -15414,7 +15414,7 @@
         <v>10</v>
       </c>
       <c r="C406" s="9" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>6</v>
@@ -15438,7 +15438,7 @@
         <v>10</v>
       </c>
       <c r="C407" s="9" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>6</v>
@@ -15462,7 +15462,7 @@
         <v>10</v>
       </c>
       <c r="C408" s="9" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>168</v>
@@ -15486,7 +15486,7 @@
         <v>10</v>
       </c>
       <c r="C409" s="9" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>6</v>
@@ -15510,7 +15510,7 @@
         <v>4</v>
       </c>
       <c r="C410" s="9" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>6</v>
@@ -15543,7 +15543,7 @@
         <v>10</v>
       </c>
       <c r="C411" s="9" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D411" s="4" t="s">
         <v>6</v>
@@ -15567,7 +15567,7 @@
         <v>10</v>
       </c>
       <c r="C412" s="9" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>430</v>
@@ -15591,7 +15591,7 @@
         <v>4</v>
       </c>
       <c r="C413" s="9" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>6</v>
@@ -15623,7 +15623,7 @@
         <v>10</v>
       </c>
       <c r="C414" s="9" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>6</v>
@@ -15659,7 +15659,7 @@
         <v>10</v>
       </c>
       <c r="C415" s="9" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>333</v>
@@ -15686,7 +15686,7 @@
         <v>10</v>
       </c>
       <c r="C416" s="9" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D416" s="4" t="s">
         <v>287</v>
@@ -15722,7 +15722,7 @@
         <v>4</v>
       </c>
       <c r="C417" s="9" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>6</v>
@@ -15760,7 +15760,7 @@
         <v>10</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>6</v>
@@ -15784,7 +15784,7 @@
         <v>10</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>6</v>
@@ -15808,7 +15808,7 @@
         <v>4</v>
       </c>
       <c r="C420" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D420" s="4" t="s">
         <v>6</v>
@@ -15836,7 +15836,7 @@
         <v>4</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>6</v>
@@ -15870,7 +15870,7 @@
         <v>4</v>
       </c>
       <c r="C422" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>6</v>
@@ -15904,7 +15904,7 @@
         <v>4</v>
       </c>
       <c r="C423" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>6</v>
@@ -15938,7 +15938,7 @@
         <v>4</v>
       </c>
       <c r="C424" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>6</v>
@@ -15975,7 +15975,7 @@
         <v>4</v>
       </c>
       <c r="C425" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>6</v>
@@ -16009,7 +16009,7 @@
         <v>4</v>
       </c>
       <c r="C426" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D426" s="4" t="s">
         <v>6</v>
@@ -16046,7 +16046,7 @@
         <v>4</v>
       </c>
       <c r="C427" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>6</v>
@@ -16077,7 +16077,7 @@
         <v>4</v>
       </c>
       <c r="C428" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>6</v>
@@ -16102,7 +16102,7 @@
         <v>4</v>
       </c>
       <c r="C429" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D429" s="4" t="s">
         <v>6</v>
@@ -16139,7 +16139,7 @@
         <v>4</v>
       </c>
       <c r="C430" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>6</v>
@@ -16175,7 +16175,7 @@
         <v>4</v>
       </c>
       <c r="C431" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>6</v>
@@ -16212,7 +16212,7 @@
         <v>4</v>
       </c>
       <c r="C432" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>6</v>
@@ -16246,7 +16246,7 @@
         <v>4</v>
       </c>
       <c r="C433" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>168</v>
@@ -16272,7 +16272,7 @@
         <v>4</v>
       </c>
       <c r="C434" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D434" s="4" t="s">
         <v>258</v>
@@ -16304,7 +16304,7 @@
         <v>4</v>
       </c>
       <c r="C435" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D435" s="4" t="s">
         <v>273</v>
@@ -16336,7 +16336,7 @@
         <v>4</v>
       </c>
       <c r="C436" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>168</v>
@@ -16365,7 +16365,7 @@
         <v>10</v>
       </c>
       <c r="C437" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>6</v>
@@ -16389,7 +16389,7 @@
         <v>10</v>
       </c>
       <c r="C438" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>6</v>
@@ -16413,7 +16413,7 @@
         <v>10</v>
       </c>
       <c r="C439" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>6</v>
@@ -16437,7 +16437,7 @@
         <v>10</v>
       </c>
       <c r="C440" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>279</v>
@@ -16461,7 +16461,7 @@
         <v>10</v>
       </c>
       <c r="C441" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D441" s="4" t="s">
         <v>6</v>
@@ -16485,7 +16485,7 @@
         <v>10</v>
       </c>
       <c r="C442" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D442" s="4" t="s">
         <v>6</v>
@@ -16509,7 +16509,7 @@
         <v>10</v>
       </c>
       <c r="C443" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>284</v>
@@ -16533,7 +16533,7 @@
         <v>10</v>
       </c>
       <c r="C444" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>6</v>
@@ -16557,7 +16557,7 @@
         <v>10</v>
       </c>
       <c r="C445" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>168</v>
@@ -16581,7 +16581,7 @@
         <v>10</v>
       </c>
       <c r="C446" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D446" s="4" t="s">
         <v>435</v>
@@ -16605,7 +16605,7 @@
         <v>10</v>
       </c>
       <c r="C447" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>168</v>
@@ -16629,7 +16629,7 @@
         <v>10</v>
       </c>
       <c r="C448" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>439</v>
@@ -16653,7 +16653,7 @@
         <v>10</v>
       </c>
       <c r="C449" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>352</v>
@@ -16680,7 +16680,7 @@
         <v>10</v>
       </c>
       <c r="C450" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D450" s="4" t="s">
         <v>439</v>
@@ -16704,7 +16704,7 @@
         <v>10</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>455</v>
@@ -16728,7 +16728,7 @@
         <v>10</v>
       </c>
       <c r="C452" s="9" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>123</v>
@@ -16752,7 +16752,7 @@
         <v>229</v>
       </c>
       <c r="C453" s="9" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D453" s="4" t="s">
         <v>6</v>
@@ -16787,7 +16787,7 @@
         <v>10</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>392</v>
@@ -16811,7 +16811,7 @@
         <v>10</v>
       </c>
       <c r="C455" s="9" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>6</v>
@@ -16835,7 +16835,7 @@
         <v>10</v>
       </c>
       <c r="C456" s="9" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>349</v>
@@ -16862,7 +16862,7 @@
         <v>4</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>318</v>
@@ -16890,7 +16890,7 @@
         <v>10</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D458" s="4" t="s">
         <v>6</v>
@@ -16914,7 +16914,7 @@
         <v>4</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>231</v>
@@ -16947,7 +16947,7 @@
         <v>4</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>6</v>
@@ -16975,7 +16975,7 @@
         <v>10</v>
       </c>
       <c r="C461" s="9" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>6</v>
@@ -16999,7 +16999,7 @@
         <v>10</v>
       </c>
       <c r="C462" s="9" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>6</v>
@@ -17023,7 +17023,7 @@
         <v>4</v>
       </c>
       <c r="C463" s="9" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D463" s="4" t="s">
         <v>6</v>
@@ -17054,7 +17054,7 @@
         <v>4</v>
       </c>
       <c r="C464" s="9" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D464" s="4" t="s">
         <v>6</v>
@@ -17085,7 +17085,7 @@
         <v>10</v>
       </c>
       <c r="C465" s="9" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>6</v>
@@ -17109,7 +17109,7 @@
         <v>4</v>
       </c>
       <c r="C466" s="9" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>6</v>
@@ -17143,7 +17143,7 @@
         <v>10</v>
       </c>
       <c r="C467" s="9" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D467" s="4" t="s">
         <v>6</v>
@@ -17167,7 +17167,7 @@
         <v>68</v>
       </c>
       <c r="C468" s="9" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>216</v>
@@ -17196,7 +17196,7 @@
         <v>10</v>
       </c>
       <c r="C469" s="9" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D469" s="4" t="s">
         <v>6</v>
@@ -17220,7 +17220,7 @@
         <v>188</v>
       </c>
       <c r="C470" s="9" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>6</v>
@@ -17249,7 +17249,7 @@
         <v>10</v>
       </c>
       <c r="C471" s="9" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D471" s="4" t="s">
         <v>348</v>
@@ -17273,7 +17273,7 @@
         <v>10</v>
       </c>
       <c r="C472" s="9" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>6</v>
@@ -17345,7 +17345,7 @@
         <v>10</v>
       </c>
       <c r="C475" s="9" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>6</v>
@@ -17369,7 +17369,7 @@
         <v>4</v>
       </c>
       <c r="C476" s="9" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>6</v>
@@ -17406,7 +17406,7 @@
         <v>10</v>
       </c>
       <c r="C477" s="9" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>6</v>
@@ -17433,7 +17433,7 @@
         <v>10</v>
       </c>
       <c r="C478" s="9" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>168</v>
@@ -17484,7 +17484,7 @@
         <v>4</v>
       </c>
       <c r="C480" s="9" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D480" s="4" t="s">
         <v>59</v>
@@ -17515,7 +17515,7 @@
         <v>4</v>
       </c>
       <c r="C481" s="9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D481" s="4" t="s">
         <v>6</v>
@@ -17544,7 +17544,7 @@
         <v>10</v>
       </c>
       <c r="C482" s="9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>6</v>
@@ -17568,7 +17568,7 @@
         <v>10</v>
       </c>
       <c r="C483" s="9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D483" s="4" t="s">
         <v>6</v>
@@ -17592,7 +17592,7 @@
         <v>10</v>
       </c>
       <c r="C484" s="9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D484" s="4" t="s">
         <v>6</v>
@@ -17616,7 +17616,7 @@
         <v>4</v>
       </c>
       <c r="C485" s="9" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D485" s="4" t="s">
         <v>6</v>
@@ -17641,7 +17641,7 @@
         <v>4</v>
       </c>
       <c r="C486" s="9" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D486" s="4" t="s">
         <v>227</v>
@@ -17672,7 +17672,7 @@
         <v>4</v>
       </c>
       <c r="C487" s="9" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D487" s="4" t="s">
         <v>6</v>
@@ -17700,7 +17700,7 @@
         <v>4</v>
       </c>
       <c r="C488" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D488" s="4" t="s">
         <v>6</v>
@@ -17736,7 +17736,7 @@
         <v>10</v>
       </c>
       <c r="C489" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D489" s="4" t="s">
         <v>6</v>
@@ -17760,7 +17760,7 @@
         <v>4</v>
       </c>
       <c r="C490" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>6</v>
@@ -17797,7 +17797,7 @@
         <v>4</v>
       </c>
       <c r="C491" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D491" s="4" t="s">
         <v>6</v>
@@ -17828,7 +17828,7 @@
         <v>4</v>
       </c>
       <c r="C492" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D492" s="4" t="s">
         <v>6</v>
@@ -17862,7 +17862,7 @@
         <v>4</v>
       </c>
       <c r="C493" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D493" s="4" t="s">
         <v>6</v>
@@ -17900,7 +17900,7 @@
         <v>4</v>
       </c>
       <c r="C494" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>6</v>
@@ -17935,7 +17935,7 @@
         <v>4</v>
       </c>
       <c r="C495" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>6</v>
@@ -17972,7 +17972,7 @@
         <v>4</v>
       </c>
       <c r="C496" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D496" s="4" t="s">
         <v>6</v>
@@ -18003,7 +18003,7 @@
         <v>4</v>
       </c>
       <c r="C497" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D497" s="4" t="s">
         <v>6</v>
@@ -18031,7 +18031,7 @@
         <v>4</v>
       </c>
       <c r="C498" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D498" s="4" t="s">
         <v>6</v>
@@ -18062,7 +18062,7 @@
         <v>10</v>
       </c>
       <c r="C499" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D499" s="4" t="s">
         <v>6</v>
@@ -18086,7 +18086,7 @@
         <v>10</v>
       </c>
       <c r="C500" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>6</v>
@@ -18110,7 +18110,7 @@
         <v>10</v>
       </c>
       <c r="C501" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D501" s="4" t="s">
         <v>6</v>
@@ -18134,7 +18134,7 @@
         <v>10</v>
       </c>
       <c r="C502" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D502" s="4" t="s">
         <v>292</v>
@@ -18158,7 +18158,7 @@
         <v>10</v>
       </c>
       <c r="C503" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D503" s="4" t="s">
         <v>6</v>
@@ -18182,7 +18182,7 @@
         <v>10</v>
       </c>
       <c r="C504" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D504" s="4" t="s">
         <v>6</v>
@@ -18206,7 +18206,7 @@
         <v>10</v>
       </c>
       <c r="C505" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D505" s="4" t="s">
         <v>6</v>
@@ -18236,7 +18236,7 @@
         <v>4</v>
       </c>
       <c r="C506" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D506" s="4" t="s">
         <v>6</v>
@@ -18264,7 +18264,7 @@
         <v>10</v>
       </c>
       <c r="C507" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D507" s="4" t="s">
         <v>168</v>
@@ -18288,7 +18288,7 @@
         <v>4</v>
       </c>
       <c r="C508" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D508" s="4" t="s">
         <v>6</v>
@@ -18325,7 +18325,7 @@
         <v>4</v>
       </c>
       <c r="C509" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D509" s="4" t="s">
         <v>6</v>
@@ -18362,7 +18362,7 @@
         <v>4</v>
       </c>
       <c r="C510" s="9" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="D510" s="4" t="s">
         <v>168</v>
@@ -18393,7 +18393,7 @@
         <v>4</v>
       </c>
       <c r="C511" s="9" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="D511" s="4" t="s">
         <v>227</v>
@@ -18429,7 +18429,7 @@
         <v>10</v>
       </c>
       <c r="C512" s="9" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D512" s="4" t="s">
         <v>65</v>
@@ -18453,7 +18453,7 @@
         <v>10</v>
       </c>
       <c r="C513" s="9" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D513" s="4" t="s">
         <v>65</v>
@@ -18480,7 +18480,7 @@
         <v>10</v>
       </c>
       <c r="C514" s="9" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D514" s="4" t="s">
         <v>65</v>
@@ -18507,7 +18507,7 @@
         <v>10</v>
       </c>
       <c r="C515" s="9" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D515" s="4" t="s">
         <v>343</v>
@@ -18534,7 +18534,7 @@
         <v>4</v>
       </c>
       <c r="C516" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D516" s="4" t="s">
         <v>198</v>
@@ -18565,7 +18565,7 @@
         <v>4</v>
       </c>
       <c r="C517" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D517" s="4" t="s">
         <v>223</v>
@@ -18596,7 +18596,7 @@
         <v>4</v>
       </c>
       <c r="C518" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D518" s="4" t="s">
         <v>238</v>
@@ -18627,7 +18627,7 @@
         <v>4</v>
       </c>
       <c r="C519" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D519" s="4" t="s">
         <v>243</v>
@@ -18658,7 +18658,7 @@
         <v>4</v>
       </c>
       <c r="C520" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D520" s="4" t="s">
         <v>248</v>
@@ -18689,7 +18689,7 @@
         <v>4</v>
       </c>
       <c r="C521" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D521" s="4" t="s">
         <v>314</v>
@@ -18725,7 +18725,7 @@
         <v>4</v>
       </c>
       <c r="C522" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D522" s="4" t="s">
         <v>198</v>
@@ -18753,7 +18753,7 @@
         <v>4</v>
       </c>
       <c r="C523" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D523" s="4" t="s">
         <v>323</v>
@@ -18790,7 +18790,7 @@
         <v>10</v>
       </c>
       <c r="C524" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D524" s="4" t="s">
         <v>462</v>
@@ -18826,7 +18826,7 @@
         <v>10</v>
       </c>
       <c r="C525" s="9" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="D525" s="4" t="s">
         <v>6</v>
@@ -18850,7 +18850,7 @@
         <v>10</v>
       </c>
       <c r="C526" s="9" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="D526" s="4" t="s">
         <v>168</v>
@@ -18901,7 +18901,7 @@
         <v>4</v>
       </c>
       <c r="C528" s="9" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D528" s="4" t="s">
         <v>6</v>
@@ -18935,7 +18935,7 @@
         <v>4</v>
       </c>
       <c r="C529" s="9" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D529" s="4" t="s">
         <v>6</v>
@@ -18964,7 +18964,7 @@
         <v>10</v>
       </c>
       <c r="C530" s="9" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D530" s="4" t="s">
         <v>6</v>
@@ -18999,7 +18999,7 @@
         <v>4</v>
       </c>
       <c r="C531" s="9" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D531" s="4" t="s">
         <v>6</v>
@@ -19029,7 +19029,7 @@
         <v>4</v>
       </c>
       <c r="C532" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D532" s="4" t="s">
         <v>6</v>
@@ -19064,7 +19064,7 @@
         <v>4</v>
       </c>
       <c r="C533" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D533" s="4" t="s">
         <v>6</v>
@@ -19101,7 +19101,7 @@
         <v>4</v>
       </c>
       <c r="C534" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D534" s="4" t="s">
         <v>6</v>
@@ -19139,7 +19139,7 @@
         <v>4</v>
       </c>
       <c r="C535" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D535" s="4" t="s">
         <v>6</v>
@@ -19173,7 +19173,7 @@
         <v>10</v>
       </c>
       <c r="C536" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D536" s="4" t="s">
         <v>6</v>
@@ -19197,7 +19197,7 @@
         <v>10</v>
       </c>
       <c r="C537" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D537" s="4" t="s">
         <v>6</v>
@@ -19221,7 +19221,7 @@
         <v>10</v>
       </c>
       <c r="C538" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>6</v>
@@ -19245,7 +19245,7 @@
         <v>10</v>
       </c>
       <c r="C539" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D539" s="4" t="s">
         <v>6</v>
@@ -19269,7 +19269,7 @@
         <v>10</v>
       </c>
       <c r="C540" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D540" s="4" t="s">
         <v>6</v>
@@ -19293,7 +19293,7 @@
         <v>10</v>
       </c>
       <c r="C541" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D541" s="4" t="s">
         <v>6</v>
@@ -19320,7 +19320,7 @@
         <v>10</v>
       </c>
       <c r="C542" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D542" s="4" t="s">
         <v>6</v>
@@ -19344,7 +19344,7 @@
         <v>10</v>
       </c>
       <c r="C543" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D543" s="4" t="s">
         <v>6</v>
@@ -19368,7 +19368,7 @@
         <v>10</v>
       </c>
       <c r="C544" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D544" s="4" t="s">
         <v>6</v>
@@ -19392,7 +19392,7 @@
         <v>10</v>
       </c>
       <c r="C545" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D545" s="4" t="s">
         <v>364</v>
@@ -19419,7 +19419,7 @@
         <v>10</v>
       </c>
       <c r="C546" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D546" s="4" t="s">
         <v>6</v>
@@ -19443,7 +19443,7 @@
         <v>4</v>
       </c>
       <c r="C547" s="9" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D547" s="4" t="s">
         <v>6</v>
@@ -19471,7 +19471,7 @@
         <v>4</v>
       </c>
       <c r="C548" s="9" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D548" s="4" t="s">
         <v>6</v>
@@ -19508,7 +19508,7 @@
         <v>10</v>
       </c>
       <c r="C549" s="9" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D549" s="4" t="s">
         <v>6</v>
@@ -19532,7 +19532,7 @@
         <v>10</v>
       </c>
       <c r="C550" s="9" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D550" s="4" t="s">
         <v>6</v>
@@ -19559,7 +19559,7 @@
         <v>10</v>
       </c>
       <c r="C551" s="9" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D551" s="4" t="s">
         <v>6</v>
@@ -19583,7 +19583,7 @@
         <v>10</v>
       </c>
       <c r="C552" s="9" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D552" s="4" t="s">
         <v>6</v>
@@ -19634,7 +19634,7 @@
         <v>4</v>
       </c>
       <c r="C554" s="9" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D554" s="4" t="s">
         <v>6</v>
@@ -19668,7 +19668,7 @@
         <v>4</v>
       </c>
       <c r="C555" s="9" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D555" s="4" t="s">
         <v>6</v>
@@ -19702,7 +19702,7 @@
         <v>4</v>
       </c>
       <c r="C556" s="9" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D556" s="4" t="s">
         <v>6</v>
@@ -19730,7 +19730,7 @@
         <v>10</v>
       </c>
       <c r="C557" s="9" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D557" s="4" t="s">
         <v>6</v>
@@ -19754,7 +19754,7 @@
         <v>10</v>
       </c>
       <c r="C558" s="9" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D558" s="4" t="s">
         <v>6</v>
@@ -19778,7 +19778,7 @@
         <v>10</v>
       </c>
       <c r="C559" s="9" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D559" s="4" t="s">
         <v>6</v>
@@ -19802,7 +19802,7 @@
         <v>10</v>
       </c>
       <c r="C560" s="9" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D560" s="4" t="s">
         <v>21</v>
@@ -20353,33 +20353,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF8B4BB-B53A-A242-BD3A-33501EA08D94}">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>498</v>
-      </c>
       <c r="I1" s="13" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -20390,10 +20390,10 @@
         <v>84</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="b">
@@ -20414,7 +20414,7 @@
         <v>357</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="b">
@@ -20426,16 +20426,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="b">
@@ -20450,13 +20450,13 @@
         <v>186</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="b">
@@ -20468,16 +20468,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="b">
@@ -20492,13 +20492,13 @@
         <v>270</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="b">
@@ -20513,13 +20513,13 @@
         <v>371</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="b">
@@ -20534,13 +20534,13 @@
         <v>235</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="b">
@@ -20555,13 +20555,13 @@
         <v>87</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="b">
@@ -20576,13 +20576,13 @@
         <v>446</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="b">
@@ -20594,19 +20594,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="F12" s="9" t="b">
         <v>1</v>
@@ -20617,16 +20617,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="b">
@@ -20641,13 +20641,13 @@
         <v>202</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="b">
@@ -20662,13 +20662,13 @@
         <v>376</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="b">
@@ -20683,16 +20683,16 @@
         <v>329</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F16" s="9" t="b">
         <v>1</v>
@@ -20706,13 +20706,13 @@
         <v>443</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="b">
@@ -20727,13 +20727,13 @@
         <v>256</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="b">
@@ -20748,13 +20748,13 @@
         <v>158</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="b">
@@ -20769,13 +20769,13 @@
         <v>305</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="b">
@@ -20790,13 +20790,13 @@
         <v>191</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="b">
@@ -20811,13 +20811,13 @@
         <v>428</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="b">
@@ -20829,16 +20829,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>481</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="b">
@@ -20853,13 +20853,13 @@
         <v>27</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="b">
@@ -20874,13 +20874,13 @@
         <v>396</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="b">
@@ -20895,13 +20895,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="b">
@@ -20916,13 +20916,13 @@
         <v>142</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="b">
@@ -20937,13 +20937,13 @@
         <v>425</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="b">
@@ -20958,13 +20958,13 @@
         <v>447</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="b">
@@ -20979,13 +20979,13 @@
         <v>366</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="b">
@@ -20997,16 +20997,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="b">
@@ -21021,13 +21021,13 @@
         <v>330</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="b">
@@ -21042,13 +21042,13 @@
         <v>368</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="b">
@@ -21063,13 +21063,13 @@
         <v>476</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="b">
@@ -21084,13 +21084,13 @@
         <v>467</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="b">
@@ -21105,34 +21105,34 @@
         <v>40</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="b">
         <v>1</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="b">
@@ -21147,13 +21147,13 @@
         <v>379</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="b">
@@ -21168,13 +21168,13 @@
         <v>278</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="b">
@@ -21189,13 +21189,13 @@
         <v>69</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="b">
@@ -21210,13 +21210,13 @@
         <v>44</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9" t="b">
@@ -21231,13 +21231,13 @@
         <v>381</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="b">
@@ -21252,13 +21252,13 @@
         <v>374</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="b">
@@ -21273,13 +21273,13 @@
         <v>35</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="b">
@@ -21291,16 +21291,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="b">
@@ -21315,13 +21315,13 @@
         <v>109</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="b">
@@ -21336,13 +21336,13 @@
         <v>470</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="b">
@@ -21357,13 +21357,13 @@
         <v>436</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="b">
@@ -21378,13 +21378,13 @@
         <v>56</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="b">
@@ -21399,13 +21399,13 @@
         <v>380</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="b">
@@ -21420,13 +21420,13 @@
         <v>285</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="b">
@@ -21438,16 +21438,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="b">
@@ -21459,16 +21459,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="b">
@@ -21483,13 +21483,13 @@
         <v>388</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="b">
@@ -21504,13 +21504,13 @@
         <v>378</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="b">
@@ -21525,13 +21525,13 @@
         <v>13</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="b">
@@ -21546,13 +21546,13 @@
         <v>60</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9" t="b">
@@ -21567,13 +21567,13 @@
         <v>398</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9" t="b">
@@ -21588,13 +21588,13 @@
         <v>261</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9" t="b">
@@ -21609,13 +21609,13 @@
         <v>280</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="b">
@@ -21627,16 +21627,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9" t="b">
@@ -21651,13 +21651,13 @@
         <v>421</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9" t="b">
@@ -21672,13 +21672,13 @@
         <v>126</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="b">
@@ -21693,16 +21693,16 @@
         <v>51</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F64" s="9" t="b">
         <v>1</v>
@@ -21713,16 +21713,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="b">
@@ -21737,13 +21737,13 @@
         <v>91</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="b">
@@ -21758,13 +21758,13 @@
         <v>307</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="b">
@@ -21779,13 +21779,13 @@
         <v>427</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="b">
@@ -21797,16 +21797,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9" t="b">
@@ -21818,16 +21818,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="b">
@@ -21839,16 +21839,16 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9" t="b">
@@ -21863,13 +21863,13 @@
         <v>449</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9" t="b">
@@ -21881,16 +21881,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9" t="b">
@@ -21905,13 +21905,13 @@
         <v>418</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9" t="b">
@@ -21926,13 +21926,13 @@
         <v>166</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="b">
@@ -21947,13 +21947,13 @@
         <v>272</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9" t="b">
@@ -21968,13 +21968,13 @@
         <v>375</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="b">
@@ -21989,13 +21989,13 @@
         <v>438</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9" t="b">
@@ -22007,16 +22007,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9" t="b">
@@ -22031,13 +22031,13 @@
         <v>31</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9" t="b">
@@ -22052,13 +22052,13 @@
         <v>399</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9" t="b">
@@ -22070,16 +22070,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="b">
@@ -22091,16 +22091,16 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9" t="b">
@@ -22112,16 +22112,16 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9" t="b">
@@ -22133,16 +22133,16 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9" t="b">
@@ -22154,16 +22154,16 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9" t="b">
@@ -22178,13 +22178,13 @@
         <v>45</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9" t="b">
@@ -22199,13 +22199,13 @@
         <v>468</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="b">
@@ -22220,13 +22220,13 @@
         <v>246</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="b">
@@ -22241,13 +22241,13 @@
         <v>408</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="b">
@@ -22262,16 +22262,16 @@
         <v>20</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="F91" s="9" t="b">
         <v>1</v>
@@ -22285,13 +22285,13 @@
         <v>400</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="b">
@@ -22303,19 +22303,19 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F93" s="9" t="b">
         <v>1</v>
@@ -22329,13 +22329,13 @@
         <v>152</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="b">
@@ -22347,16 +22347,16 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9" t="b">
@@ -22371,13 +22371,13 @@
         <v>237</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9" t="b">
@@ -22392,13 +22392,13 @@
         <v>77</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9" t="b">
@@ -22413,13 +22413,13 @@
         <v>163</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9" t="b">
@@ -22431,16 +22431,16 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="9" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9" t="b">
@@ -22452,16 +22452,16 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="9" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9" t="b">
@@ -22476,13 +22476,13 @@
         <v>146</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="b">
@@ -22497,13 +22497,13 @@
         <v>411</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="b">
@@ -22518,13 +22518,13 @@
         <v>28</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9" t="b">
@@ -22539,13 +22539,13 @@
         <v>22</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="b">
@@ -22557,16 +22557,16 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="9" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9" t="b">
@@ -22581,13 +22581,13 @@
         <v>415</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9" t="b">
@@ -22602,13 +22602,13 @@
         <v>339</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9" t="b">
@@ -22620,16 +22620,16 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="9" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9" t="b">
@@ -22644,13 +22644,13 @@
         <v>215</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9" t="b">
@@ -22662,16 +22662,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="9" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9" t="b">
@@ -22686,13 +22686,13 @@
         <v>49</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9" t="b">
@@ -22704,16 +22704,16 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="9" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9" t="b">
@@ -22725,16 +22725,16 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="9" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9" t="b">
@@ -22749,13 +22749,13 @@
         <v>458</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9" t="b">
@@ -22767,16 +22767,16 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="9" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9" t="b">
@@ -22791,13 +22791,13 @@
         <v>423</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="b">
@@ -22812,13 +22812,13 @@
         <v>437</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9" t="b">
@@ -22833,13 +22833,13 @@
         <v>417</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9" t="b">
@@ -22854,13 +22854,13 @@
         <v>369</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9" t="b">
@@ -22872,16 +22872,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="9" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9" t="b">
@@ -22896,13 +22896,13 @@
         <v>208</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9" t="b">
@@ -22914,16 +22914,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="12" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9" t="b">
@@ -22938,13 +22938,13 @@
         <v>491</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9" t="b">
@@ -22956,23 +22956,23 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" s="9" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9" t="b">
         <v>1</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
@@ -22980,13 +22980,13 @@
         <v>113</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9" t="b">
@@ -23001,13 +23001,13 @@
         <v>42</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="b">
@@ -23019,16 +23019,16 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" s="9" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9" t="b">
@@ -23040,13 +23040,13 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="9" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -23059,16 +23059,16 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" s="9" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9" t="b">
@@ -23080,16 +23080,16 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" s="9" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9" t="b">
@@ -23101,16 +23101,16 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" s="9" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9" t="b">
@@ -23125,13 +23125,13 @@
         <v>230</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9" t="b">
@@ -23146,13 +23146,13 @@
         <v>85</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9" t="b">
@@ -23167,13 +23167,13 @@
         <v>111</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9" t="b">
@@ -23185,16 +23185,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135" s="9" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9" t="b">
@@ -23206,16 +23206,16 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136" s="9" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9" t="b">
@@ -23230,13 +23230,13 @@
         <v>460</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9" t="b">
@@ -23251,13 +23251,13 @@
         <v>57</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9" t="b">
@@ -23272,13 +23272,13 @@
         <v>433</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9" t="b">
@@ -23293,13 +23293,13 @@
         <v>58</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9" t="b">
@@ -23314,13 +23314,13 @@
         <v>288</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9" t="b">
@@ -23335,13 +23335,13 @@
         <v>311</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9" t="b">
@@ -23356,13 +23356,13 @@
         <v>226</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9" t="b">
@@ -23377,13 +23377,13 @@
         <v>5</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9" t="b">
@@ -23398,13 +23398,13 @@
         <v>170</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9" t="b">
@@ -23419,13 +23419,13 @@
         <v>64</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9" t="b">
@@ -23437,16 +23437,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" s="9" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9" t="b">
@@ -23461,13 +23461,13 @@
         <v>389</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9" t="b">
@@ -23479,16 +23479,16 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" s="9" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9" t="b">
@@ -23503,13 +23503,13 @@
         <v>197</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9" t="b">
@@ -23524,13 +23524,13 @@
         <v>461</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9" t="b">
@@ -23545,13 +23545,13 @@
         <v>431</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9" t="b">
@@ -23566,13 +23566,13 @@
         <v>201</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9" t="b">
@@ -23587,13 +23587,13 @@
         <v>41</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9" t="b">
@@ -23608,13 +23608,13 @@
         <v>156</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9" t="b">
@@ -23629,13 +23629,13 @@
         <v>24</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="b">
@@ -23650,13 +23650,13 @@
         <v>312</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="b">
@@ -23671,13 +23671,13 @@
         <v>206</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9" t="b">
@@ -23689,16 +23689,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" s="9" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9" t="b">
@@ -23710,13 +23710,13 @@
         <v>30</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9" t="b">
